--- a/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
+++ b/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="598">
   <si>
     <t>Type System</t>
   </si>
@@ -65,42 +65,210 @@
     <t>x</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
+    <t>undefined</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>undefined</t>
   </si>
   <si>
@@ -116,183 +284,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
     <t>Pass\ExpAssignBooleanBoolean.quorum</t>
   </si>
   <si>
@@ -377,12 +368,6 @@
     <t>Pass\ExpAssignIntObjInteger.quorum</t>
   </si>
   <si>
-    <t>Pass\ExpAssignIntegerNumObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ExpAssignIntObjNumber.quorum</t>
-  </si>
-  <si>
     <t>Pass\ExpAssignIntObjObject.quorum</t>
   </si>
   <si>
@@ -422,9 +407,6 @@
     <t>Fail\ExpAssignNumObjTextObj.quorum</t>
   </si>
   <si>
-    <t>Pass\ExpAssignNumObjInteger.quorum</t>
-  </si>
-  <si>
     <t>Pass\ExpAssignNumObjNumObj.quorum</t>
   </si>
   <si>
@@ -581,9 +563,6 @@
     <t>Pass\ExpAssignIntObjIntegerField.quorum</t>
   </si>
   <si>
-    <t>Pass\ExpAssignIntObjNumObjField.quorum</t>
-  </si>
-  <si>
     <t>Fail\ExpAssignBooleanUndefinedField.quorum</t>
   </si>
   <si>
@@ -620,9 +599,6 @@
     <t>Fail\ExpAssignNumberBoolean.quorum</t>
   </si>
   <si>
-    <t>Pass\ExpAssignNumberIntObj.quorum</t>
-  </si>
-  <si>
     <t>Pass\ExpAssignIntegerIntObjField.quorum</t>
   </si>
   <si>
@@ -635,15 +611,6 @@
     <t>Pass\ExpAssignIntegerTextField.quorum</t>
   </si>
   <si>
-    <t>Pass\ExpAssignNumObjIntObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ExpAssignNumObjIntObjField.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ExpAssignNumObjIntegerField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ExpAssignNumObjNumObjField.quorum</t>
   </si>
   <si>
@@ -653,9 +620,6 @@
     <t>Pass\ExpAssignNumberTextField.quorum</t>
   </si>
   <si>
-    <t>Pass\ExpAssignNumberIntObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ExpAssignNumberIntegerField.quorum</t>
   </si>
   <si>
@@ -1812,6 +1776,39 @@
   </si>
   <si>
     <t>FIELD Variable Declaraion Test</t>
+  </si>
+  <si>
+    <t>Fail\ExFailignNumObjInteger.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExFailignNumObjIntegerField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExFailignNumberIntObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExpAssignNumberIntObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExpAssignNumObjIntObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExpAssignIntegerNumObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExpAssignIntObjNumObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExpAssignIntObjNumber.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExpAssignNumObjIntObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ExpAssignIntegerNumObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImFailignIntegerNumObjField.quorum</t>
   </si>
 </sst>
 </file>
@@ -2416,8 +2413,8 @@
   <dimension ref="A1:AW114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="2" spans="1:49" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -2477,7 +2474,7 @@
     </row>
     <row r="4" spans="1:49" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="48"/>
@@ -2485,7 +2482,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="3"/>
       <c r="G4" s="46" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="48"/>
@@ -2493,7 +2490,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="3"/>
       <c r="M4" s="46" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="48"/>
@@ -2540,13 +2537,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G5" s="42" t="str">
         <f>A5</f>
@@ -2679,7 +2676,7 @@
     </row>
     <row r="6" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
@@ -2751,16 +2748,16 @@
     <row r="7" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="19" t="str">
@@ -2768,13 +2765,13 @@
         <v>BoolObj</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="19" t="str">
@@ -2785,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="19" t="str">
@@ -2835,10 +2832,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="19" t="str">
@@ -2849,10 +2846,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="19" t="str">
@@ -2863,10 +2860,10 @@
         <v>5</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="19" t="str">
@@ -2909,14 +2906,14 @@
     <row r="9" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="25" t="str">
@@ -2925,10 +2922,10 @@
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="27" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="25" t="str">
@@ -2937,10 +2934,10 @@
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="27" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="25" t="str">
@@ -2979,14 +2976,14 @@
     <row r="10" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="25" t="str">
@@ -2995,10 +2992,10 @@
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="27" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="25" t="str">
@@ -3007,10 +3004,10 @@
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="27" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="25" t="str">
@@ -3051,14 +3048,14 @@
     <row r="11" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="25" t="str">
@@ -3067,10 +3064,10 @@
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="27" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="25" t="str">
@@ -3079,10 +3076,10 @@
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="27" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="25" t="str">
@@ -3123,14 +3120,14 @@
     <row r="12" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="25" t="str">
@@ -3139,10 +3136,10 @@
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="27" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="25" t="str">
@@ -3151,10 +3148,10 @@
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="27" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="25" t="str">
@@ -3195,16 +3192,16 @@
     <row r="13" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="str">
@@ -3213,10 +3210,10 @@
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="27" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="25" t="str">
@@ -3225,10 +3222,10 @@
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="27" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="25" t="str">
@@ -3272,14 +3269,14 @@
     <row r="14" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="25" t="str">
@@ -3288,10 +3285,10 @@
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="27" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="25" t="str">
@@ -3300,10 +3297,10 @@
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="27" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="25" t="str">
@@ -3344,14 +3341,14 @@
     <row r="15" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="25" t="str">
@@ -3360,10 +3357,10 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="27" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="25" t="str">
@@ -3372,10 +3369,10 @@
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="27" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="25" t="str">
@@ -3414,16 +3411,16 @@
     <row r="16" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="19" t="str">
@@ -3434,10 +3431,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="19" t="str">
@@ -3448,10 +3445,10 @@
         <v>5</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="19" t="str">
@@ -3563,16 +3560,16 @@
     <row r="18" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="19" t="str">
@@ -3583,10 +3580,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="19" t="str">
@@ -3597,10 +3594,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="19" t="str">
@@ -3647,10 +3644,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="15"/>
@@ -3662,10 +3659,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="15"/>
@@ -3677,10 +3674,10 @@
         <v>5</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="15"/>
@@ -3730,14 +3727,14 @@
     <row r="20" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="25" t="str">
@@ -3746,10 +3743,10 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="27" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="25" t="str">
@@ -3758,10 +3755,10 @@
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="27" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="25" t="str">
@@ -3804,10 +3801,10 @@
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="25" t="str">
@@ -3816,10 +3813,10 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="27" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="25" t="str">
@@ -3828,10 +3825,10 @@
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="27" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="25" t="str">
@@ -3872,14 +3869,14 @@
     <row r="22" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="25" t="str">
@@ -3888,10 +3885,10 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="27" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="25" t="str">
@@ -3900,10 +3897,10 @@
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="27" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="25" t="str">
@@ -3946,10 +3943,10 @@
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="25" t="str">
@@ -3958,10 +3955,10 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="27" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="25" t="str">
@@ -3970,10 +3967,10 @@
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="27" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="25" t="str">
@@ -4020,10 +4017,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="25" t="str">
@@ -4032,10 +4029,10 @@
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="27" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="25" t="str">
@@ -4044,10 +4041,10 @@
       </c>
       <c r="O24" s="29"/>
       <c r="P24" s="27" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="25" t="str">
@@ -4097,10 +4094,10 @@
         <v>10</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="25" t="str">
@@ -4109,10 +4106,10 @@
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="27" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="25" t="str">
@@ -4121,10 +4118,10 @@
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="27" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="28" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="25" t="str">
@@ -4165,14 +4162,14 @@
     <row r="26" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="25" t="str">
@@ -4181,10 +4178,10 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="27" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="25" t="str">
@@ -4193,10 +4190,10 @@
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="27" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="25" t="str">
@@ -4239,10 +4236,10 @@
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="25" t="str">
@@ -4251,10 +4248,10 @@
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="27" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="25" t="str">
@@ -4263,10 +4260,10 @@
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="27" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="25" t="str">
@@ -4306,7 +4303,7 @@
     </row>
     <row r="28" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="38"/>
@@ -4378,14 +4375,14 @@
     <row r="29" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="25" t="str">
@@ -4394,10 +4391,10 @@
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="27" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="25" t="str">
@@ -4406,10 +4403,10 @@
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="27" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="25" t="str">
@@ -4452,10 +4449,10 @@
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="25" t="str">
@@ -4464,10 +4461,10 @@
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="27" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="25" t="str">
@@ -4476,10 +4473,10 @@
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="27" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="Q30" s="28" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="25" t="str">
@@ -4522,16 +4519,16 @@
     <row r="31" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="19" t="str">
@@ -4539,13 +4536,13 @@
         <v>IntObj</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="19" t="str">
@@ -4556,10 +4553,10 @@
         <v>5</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="19" t="str">
@@ -4600,16 +4597,16 @@
     <row r="32" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="19" t="str">
@@ -4617,13 +4614,13 @@
         <v>integer</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="19" t="str">
@@ -4634,10 +4631,10 @@
         <v>5</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="19" t="str">
@@ -4677,17 +4674,17 @@
     </row>
     <row r="33" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
-      <c r="B33" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>188</v>
+      <c r="B33" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>593</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="25" t="str">
@@ -4696,10 +4693,10 @@
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="27" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="25" t="str">
@@ -4708,10 +4705,10 @@
       </c>
       <c r="O33" s="29"/>
       <c r="P33" s="27" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="Q33" s="28" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="25" t="str">
@@ -4751,17 +4748,17 @@
     </row>
     <row r="34" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>188</v>
+      <c r="B34" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>593</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="25" t="str">
@@ -4770,10 +4767,10 @@
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="27" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="25" t="str">
@@ -4782,10 +4779,10 @@
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="27" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="25" t="str">
@@ -4826,16 +4823,16 @@
     <row r="35" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="25" t="str">
@@ -4844,10 +4841,10 @@
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="27" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="25" t="str">
@@ -4856,10 +4853,10 @@
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="27" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="Q35" s="28" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="25" t="str">
@@ -4903,14 +4900,14 @@
     <row r="36" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="25" t="str">
@@ -4919,10 +4916,10 @@
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="27" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="25" t="str">
@@ -4931,10 +4928,10 @@
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="27" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="25" t="str">
@@ -4975,14 +4972,14 @@
     <row r="37" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="25" t="str">
@@ -4991,10 +4988,10 @@
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="27" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="25" t="str">
@@ -5003,10 +5000,10 @@
       </c>
       <c r="O37" s="26"/>
       <c r="P37" s="27" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="28" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="25" t="str">
@@ -5045,16 +5042,16 @@
     <row r="38" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="19" t="str">
@@ -5065,10 +5062,10 @@
         <v>5</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="19" t="str">
@@ -5079,10 +5076,10 @@
         <v>5</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="19" t="str">
@@ -5194,14 +5191,14 @@
     <row r="40" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="15"/>
@@ -5211,10 +5208,10 @@
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="27" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="15"/>
@@ -5224,10 +5221,10 @@
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="27" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="15"/>
@@ -5273,10 +5270,10 @@
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="27" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="15"/>
@@ -5286,10 +5283,10 @@
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="27" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="15"/>
@@ -5299,10 +5296,10 @@
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="27" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="Q41" s="28" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="15"/>
@@ -5344,16 +5341,16 @@
     <row r="42" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="15"/>
@@ -5365,10 +5362,10 @@
         <v>5</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="15"/>
@@ -5380,10 +5377,10 @@
         <v>5</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="Q42" s="24" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="15"/>
@@ -5431,10 +5428,10 @@
         <v>5</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="15"/>
@@ -5446,10 +5443,10 @@
         <v>5</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="15"/>
@@ -5461,10 +5458,10 @@
         <v>5</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="Q43" s="24" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="15"/>
@@ -5473,7 +5470,7 @@
         <v>integer</v>
       </c>
       <c r="U43" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V43" s="23"/>
       <c r="W43" s="24"/>
@@ -5484,7 +5481,7 @@
         <v>integer</v>
       </c>
       <c r="AA43" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB43" s="23"/>
       <c r="AC43" s="24"/>
@@ -5495,7 +5492,7 @@
         <v>integer</v>
       </c>
       <c r="AG43" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AH43" s="23"/>
       <c r="AI43" s="24"/>
@@ -5506,24 +5503,24 @@
         <v>integer</v>
       </c>
       <c r="AM43" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AN43" s="23"/>
       <c r="AO43" s="24"/>
     </row>
     <row r="44" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
-      <c r="B44" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>172</v>
+      <c r="D44" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>596</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="15"/>
@@ -5533,10 +5530,10 @@
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="27" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>418</v>
+        <v>597</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="15"/>
@@ -5546,10 +5543,10 @@
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="27" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>418</v>
+        <v>597</v>
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="15"/>
@@ -5597,10 +5594,10 @@
         <v>5</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="15"/>
@@ -5610,10 +5607,10 @@
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="27" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="15"/>
@@ -5623,10 +5620,10 @@
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="27" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="15"/>
@@ -5635,7 +5632,7 @@
         <v>number</v>
       </c>
       <c r="U45" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V45" s="27"/>
       <c r="W45" s="28"/>
@@ -5646,7 +5643,7 @@
         <v>number</v>
       </c>
       <c r="AA45" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB45" s="27"/>
       <c r="AC45" s="28"/>
@@ -5657,7 +5654,7 @@
         <v>number</v>
       </c>
       <c r="AG45" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AH45" s="27"/>
       <c r="AI45" s="28"/>
@@ -5668,7 +5665,7 @@
         <v>number</v>
       </c>
       <c r="AM45" s="29" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AN45" s="27"/>
       <c r="AO45" s="28"/>
@@ -5682,10 +5679,10 @@
         <v>5</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="14"/>
@@ -5695,10 +5692,10 @@
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="27" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="14"/>
@@ -5708,10 +5705,10 @@
       </c>
       <c r="O46" s="29"/>
       <c r="P46" s="27" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="14"/>
@@ -5759,10 +5756,10 @@
         <v>5</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="15"/>
@@ -5772,10 +5769,10 @@
       </c>
       <c r="I47" s="29"/>
       <c r="J47" s="27" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="15"/>
@@ -5785,10 +5782,10 @@
       </c>
       <c r="O47" s="29"/>
       <c r="P47" s="27" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="Q47" s="28" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="15"/>
@@ -5830,14 +5827,14 @@
     <row r="48" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="15"/>
@@ -5847,10 +5844,10 @@
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="27" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="15"/>
@@ -5860,10 +5857,10 @@
       </c>
       <c r="O48" s="31"/>
       <c r="P48" s="27" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="15"/>
@@ -5909,10 +5906,10 @@
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="27" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="15"/>
@@ -5922,10 +5919,10 @@
       </c>
       <c r="I49" s="29"/>
       <c r="J49" s="27" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="15"/>
@@ -5935,10 +5932,10 @@
       </c>
       <c r="O49" s="29"/>
       <c r="P49" s="27" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="Q49" s="28" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="15"/>
@@ -5979,7 +5976,7 @@
     </row>
     <row r="50" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -6051,14 +6048,14 @@
     <row r="51" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="25" t="str">
@@ -6067,10 +6064,10 @@
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="27" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="25" t="str">
@@ -6079,10 +6076,10 @@
       </c>
       <c r="O51" s="29"/>
       <c r="P51" s="27" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="Q51" s="28" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="25" t="str">
@@ -6125,10 +6122,10 @@
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="27" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="25" t="str">
@@ -6137,10 +6134,10 @@
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="27" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="25" t="str">
@@ -6149,10 +6146,10 @@
       </c>
       <c r="O52" s="29"/>
       <c r="P52" s="27" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="Q52" s="28" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="25" t="str">
@@ -6194,17 +6191,17 @@
     </row>
     <row r="53" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>207</v>
+      <c r="D53" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>591</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="19" t="str">
@@ -6215,10 +6212,10 @@
         <v>5</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="19" t="str">
@@ -6229,10 +6226,10 @@
         <v>5</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="Q53" s="24" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="19" t="str">
@@ -6270,17 +6267,17 @@
     </row>
     <row r="54" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>208</v>
+      <c r="B54" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>588</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="19" t="str">
@@ -6291,10 +6288,10 @@
         <v>5</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="19" t="str">
@@ -6305,10 +6302,10 @@
         <v>5</v>
       </c>
       <c r="P54" s="23" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="Q54" s="24" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="19" t="str">
@@ -6349,16 +6346,16 @@
     <row r="55" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="19" t="str">
@@ -6366,13 +6363,13 @@
         <v>NumObj</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="19" t="str">
@@ -6383,10 +6380,10 @@
         <v>5</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="Q55" s="24" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="19" t="str">
@@ -6427,16 +6424,16 @@
     <row r="56" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="19" t="str">
@@ -6444,13 +6441,13 @@
         <v>number</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="19" t="str">
@@ -6461,10 +6458,10 @@
         <v>5</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="Q56" s="24" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="19" t="str">
@@ -6505,16 +6502,16 @@
     <row r="57" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="25" t="str">
@@ -6523,10 +6520,10 @@
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="27" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="25" t="str">
@@ -6535,10 +6532,10 @@
       </c>
       <c r="O57" s="29"/>
       <c r="P57" s="27" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="Q57" s="28" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="25" t="str">
@@ -6582,14 +6579,14 @@
     <row r="58" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="25" t="str">
@@ -6598,10 +6595,10 @@
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="27" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="25" t="str">
@@ -6610,10 +6607,10 @@
       </c>
       <c r="O58" s="29"/>
       <c r="P58" s="27" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="Q58" s="28" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="25" t="str">
@@ -6654,14 +6651,14 @@
     <row r="59" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="25" t="str">
@@ -6670,10 +6667,10 @@
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="27" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="25" t="str">
@@ -6682,10 +6679,10 @@
       </c>
       <c r="O59" s="26"/>
       <c r="P59" s="27" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="Q59" s="28" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="25" t="str">
@@ -6724,16 +6721,16 @@
     <row r="60" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="19" t="str">
@@ -6744,10 +6741,10 @@
         <v>5</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="19" t="str">
@@ -6758,10 +6755,10 @@
         <v>5</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="Q60" s="24" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="S60" s="15"/>
       <c r="T60" s="19" t="str">
@@ -6801,7 +6798,7 @@
     </row>
     <row r="61" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
@@ -6873,14 +6870,14 @@
     <row r="62" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="25" t="str">
@@ -6889,10 +6886,10 @@
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="27" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="25" t="str">
@@ -6901,10 +6898,10 @@
       </c>
       <c r="O62" s="29"/>
       <c r="P62" s="27" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="Q62" s="28" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="25" t="str">
@@ -6947,10 +6944,10 @@
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="27" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="25" t="str">
@@ -6959,10 +6956,10 @@
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="27" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="25" t="str">
@@ -6971,10 +6968,10 @@
       </c>
       <c r="O63" s="29"/>
       <c r="P63" s="27" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="Q63" s="28" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="S63" s="15"/>
       <c r="T63" s="25" t="str">
@@ -7015,18 +7012,20 @@
       <c r="AV63" s="1"/>
     </row>
     <row r="64" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="20" t="s">
+      <c r="A64" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>212</v>
+      <c r="D64" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>589</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="19" t="str">
@@ -7037,10 +7036,10 @@
         <v>5</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="19" t="str">
@@ -7051,10 +7050,10 @@
         <v>5</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="Q64" s="24" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="19" t="str">
@@ -7093,16 +7092,16 @@
     <row r="65" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D65" s="23" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="19" t="str">
@@ -7113,10 +7112,10 @@
         <v>5</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="19" t="str">
@@ -7127,10 +7126,10 @@
         <v>5</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="Q65" s="24" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="19" t="str">
@@ -7138,10 +7137,10 @@
         <v>integer</v>
       </c>
       <c r="U65" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="V65" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="V65" s="23" t="s">
-        <v>20</v>
       </c>
       <c r="W65" s="24"/>
       <c r="Y65" s="15"/>
@@ -7189,16 +7188,16 @@
     <row r="66" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="19" t="str">
@@ -7206,13 +7205,13 @@
         <v>NumObj</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="19" t="str">
@@ -7223,10 +7222,10 @@
         <v>5</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="Q66" s="24" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="19" t="str">
@@ -7267,16 +7266,16 @@
     <row r="67" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>22</v>
-      </c>
       <c r="D67" s="23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="19" t="str">
@@ -7284,13 +7283,13 @@
         <v>number</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="19" t="str">
@@ -7301,10 +7300,10 @@
         <v>5</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="Q67" s="24" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="19" t="str">
@@ -7312,10 +7311,10 @@
         <v>number</v>
       </c>
       <c r="U67" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V67" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="V67" s="23" t="s">
-        <v>25</v>
       </c>
       <c r="W67" s="24"/>
       <c r="Y67" s="15"/>
@@ -7363,16 +7362,16 @@
     <row r="68" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>32</v>
-      </c>
       <c r="D68" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="25" t="str">
@@ -7381,10 +7380,10 @@
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="27" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M68" s="14"/>
       <c r="N68" s="25" t="str">
@@ -7393,10 +7392,10 @@
       </c>
       <c r="O68" s="29"/>
       <c r="P68" s="27" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="Q68" s="28" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="S68" s="14"/>
       <c r="T68" s="25" t="str">
@@ -7440,16 +7439,16 @@
     <row r="69" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>27</v>
-      </c>
       <c r="D69" s="23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="25" t="str">
@@ -7458,10 +7457,10 @@
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="27" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="K69" s="28" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="25" t="str">
@@ -7470,10 +7469,10 @@
       </c>
       <c r="O69" s="29"/>
       <c r="P69" s="27" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="Q69" s="28" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="S69" s="15"/>
       <c r="T69" s="25" t="str">
@@ -7514,14 +7513,14 @@
     <row r="70" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="25" t="str">
@@ -7530,10 +7529,10 @@
       </c>
       <c r="I70" s="26"/>
       <c r="J70" s="27" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="25" t="str">
@@ -7542,10 +7541,10 @@
       </c>
       <c r="O70" s="26"/>
       <c r="P70" s="27" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Q70" s="28" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="25" t="str">
@@ -7584,14 +7583,14 @@
     <row r="71" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="25" t="str">
@@ -7600,10 +7599,10 @@
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="27" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="25" t="str">
@@ -7612,10 +7611,10 @@
       </c>
       <c r="O71" s="29"/>
       <c r="P71" s="27" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="Q71" s="28" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="25" t="str">
@@ -7727,16 +7726,16 @@
     <row r="73" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="19" t="str">
@@ -7747,10 +7746,10 @@
         <v>5</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="19" t="str">
@@ -7761,10 +7760,10 @@
         <v>5</v>
       </c>
       <c r="P73" s="23" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="Q73" s="24" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="19" t="str">
@@ -7809,10 +7808,10 @@
         <v>5</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="25" t="str">
@@ -7821,10 +7820,10 @@
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="27" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="25" t="str">
@@ -7833,10 +7832,10 @@
       </c>
       <c r="O74" s="29"/>
       <c r="P74" s="27" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="Q74" s="28" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="S74" s="15"/>
       <c r="T74" s="25" t="str">
@@ -7879,16 +7878,16 @@
     <row r="75" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="19" t="str">
@@ -7899,10 +7898,10 @@
         <v>5</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="19" t="str">
@@ -7913,10 +7912,10 @@
         <v>5</v>
       </c>
       <c r="P75" s="23" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="Q75" s="24" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="S75" s="15"/>
       <c r="T75" s="19" t="str">
@@ -7961,10 +7960,10 @@
         <v>5</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="25" t="str">
@@ -7973,10 +7972,10 @@
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="27" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="25" t="str">
@@ -7985,10 +7984,10 @@
       </c>
       <c r="O76" s="29"/>
       <c r="P76" s="27" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="Q76" s="28" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="S76" s="15"/>
       <c r="T76" s="25" t="str">
@@ -8029,16 +8028,16 @@
     <row r="77" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="19" t="str">
@@ -8049,10 +8048,10 @@
         <v>5</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="19" t="str">
@@ -8063,10 +8062,10 @@
         <v>5</v>
       </c>
       <c r="P77" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="Q77" s="24" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="S77" s="15"/>
       <c r="T77" s="19" t="str">
@@ -8111,10 +8110,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="25" t="str">
@@ -8123,10 +8122,10 @@
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="27" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="25" t="str">
@@ -8135,10 +8134,10 @@
       </c>
       <c r="O78" s="29"/>
       <c r="P78" s="27" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="Q78" s="28" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="S78" s="15"/>
       <c r="T78" s="25" t="str">
@@ -8185,10 +8184,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="19" t="str">
@@ -8199,10 +8198,10 @@
         <v>5</v>
       </c>
       <c r="J79" s="23" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="19" t="str">
@@ -8213,10 +8212,10 @@
         <v>5</v>
       </c>
       <c r="P79" s="23" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="Q79" s="24" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="S79" s="14"/>
       <c r="T79" s="19" t="str">
@@ -8263,10 +8262,10 @@
         <v>5</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="25" t="str">
@@ -8275,10 +8274,10 @@
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="27" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K80" s="28" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="25" t="str">
@@ -8287,10 +8286,10 @@
       </c>
       <c r="O80" s="29"/>
       <c r="P80" s="27" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="Q80" s="28" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="S80" s="15"/>
       <c r="T80" s="25" t="str">
@@ -8349,16 +8348,16 @@
     <row r="81" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="19" t="str">
@@ -8369,10 +8368,10 @@
         <v>5</v>
       </c>
       <c r="J81" s="23" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="19" t="str">
@@ -8383,10 +8382,10 @@
         <v>5</v>
       </c>
       <c r="P81" s="23" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="Q81" s="24" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="S81" s="15"/>
       <c r="T81" s="19" t="str">
@@ -8433,10 +8432,10 @@
         <v>5</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="19" t="str">
@@ -8447,10 +8446,10 @@
         <v>5</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="19" t="str">
@@ -8461,10 +8460,10 @@
         <v>5</v>
       </c>
       <c r="P82" s="23" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="Q82" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="S82" s="15"/>
       <c r="T82" s="19" t="str">
@@ -8522,7 +8521,7 @@
     </row>
     <row r="83" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B83" s="37"/>
       <c r="C83" s="38"/>
@@ -8594,14 +8593,14 @@
     <row r="84" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="25" t="str">
@@ -8610,10 +8609,10 @@
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="27" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K84" s="28" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="25" t="str">
@@ -8622,10 +8621,10 @@
       </c>
       <c r="O84" s="29"/>
       <c r="P84" s="27" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="Q84" s="28" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="S84" s="15"/>
       <c r="T84" s="25" t="str">
@@ -8670,10 +8669,10 @@
         <v>5</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="25" t="str">
@@ -8682,10 +8681,10 @@
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="27" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="K85" s="28" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="25" t="str">
@@ -8694,10 +8693,10 @@
       </c>
       <c r="O85" s="29"/>
       <c r="P85" s="27" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="Q85" s="28" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="S85" s="15"/>
       <c r="T85" s="25" t="str">
@@ -8740,14 +8739,14 @@
     <row r="86" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="25" t="str">
@@ -8756,10 +8755,10 @@
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="27" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="K86" s="28" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="25" t="str">
@@ -8768,10 +8767,10 @@
       </c>
       <c r="O86" s="29"/>
       <c r="P86" s="27" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="Q86" s="28" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="S86" s="15"/>
       <c r="T86" s="25" t="str">
@@ -8810,16 +8809,16 @@
     <row r="87" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="25" t="str">
@@ -8828,10 +8827,10 @@
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="27" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="K87" s="28" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="25" t="str">
@@ -8840,10 +8839,10 @@
       </c>
       <c r="O87" s="29"/>
       <c r="P87" s="27" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="Q87" s="28" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="S87" s="15"/>
       <c r="T87" s="25" t="str">
@@ -8884,14 +8883,14 @@
     <row r="88" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C88" s="26"/>
       <c r="D88" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="25" t="str">
@@ -8900,10 +8899,10 @@
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="K88" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="25" t="str">
@@ -8912,10 +8911,10 @@
       </c>
       <c r="O88" s="26"/>
       <c r="P88" s="27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="Q88" s="28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="S88" s="15"/>
       <c r="T88" s="25" t="str">
@@ -8954,16 +8953,16 @@
     <row r="89" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="25" t="str">
@@ -8972,10 +8971,10 @@
       </c>
       <c r="I89" s="29"/>
       <c r="J89" s="27" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K89" s="28" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="25" t="str">
@@ -8984,10 +8983,10 @@
       </c>
       <c r="O89" s="29"/>
       <c r="P89" s="27" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="Q89" s="28" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="S89" s="15"/>
       <c r="T89" s="25" t="str">
@@ -9028,16 +9027,16 @@
     <row r="90" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="25" t="str">
@@ -9046,10 +9045,10 @@
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="27" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K90" s="28" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="25" t="str">
@@ -9058,10 +9057,10 @@
       </c>
       <c r="O90" s="29"/>
       <c r="P90" s="27" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="Q90" s="28" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="S90" s="14"/>
       <c r="T90" s="25" t="str">
@@ -9102,16 +9101,16 @@
     <row r="91" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="19" t="str">
@@ -9119,13 +9118,13 @@
         <v>text</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J91" s="23" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="19" t="str">
@@ -9136,10 +9135,10 @@
         <v>5</v>
       </c>
       <c r="P91" s="23" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="Q91" s="24" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="S91" s="15"/>
       <c r="T91" s="19" t="str">
@@ -9147,10 +9146,10 @@
         <v>text</v>
       </c>
       <c r="U91" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V91" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W91" s="24"/>
       <c r="Y91" s="15"/>
@@ -9198,16 +9197,16 @@
     <row r="92" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="19" t="str">
@@ -9215,13 +9214,13 @@
         <v>TextObj</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J92" s="23" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="19" t="str">
@@ -9232,10 +9231,10 @@
         <v>5</v>
       </c>
       <c r="P92" s="23" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="Q92" s="24" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="S92" s="15"/>
       <c r="T92" s="19" t="str">
@@ -9276,16 +9275,16 @@
     <row r="93" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="19" t="str">
@@ -9296,10 +9295,10 @@
         <v>5</v>
       </c>
       <c r="J93" s="23" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="19" t="str">
@@ -9310,10 +9309,10 @@
         <v>5</v>
       </c>
       <c r="P93" s="23" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="Q93" s="24" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="S93" s="15"/>
       <c r="T93" s="19" t="str">
@@ -9321,10 +9320,10 @@
         <v>undefined</v>
       </c>
       <c r="U93" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V93" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W93" s="24"/>
       <c r="Y93" s="15"/>
@@ -9371,7 +9370,7 @@
     </row>
     <row r="94" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="38"/>
@@ -9443,14 +9442,14 @@
     <row r="95" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C95" s="26"/>
       <c r="D95" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="25" t="str">
@@ -9459,10 +9458,10 @@
       </c>
       <c r="I95" s="26"/>
       <c r="J95" s="27" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K95" s="28" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="25" t="str">
@@ -9471,10 +9470,10 @@
       </c>
       <c r="O95" s="26"/>
       <c r="P95" s="27" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="Q95" s="28" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="S95" s="15"/>
       <c r="T95" s="25" t="str">
@@ -9517,10 +9516,10 @@
       </c>
       <c r="C96" s="26"/>
       <c r="D96" s="27" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="25" t="str">
@@ -9529,10 +9528,10 @@
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="27" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K96" s="28" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="25" t="str">
@@ -9541,10 +9540,10 @@
       </c>
       <c r="O96" s="26"/>
       <c r="P96" s="27" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="Q96" s="28" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="S96" s="15"/>
       <c r="T96" s="25" t="str">
@@ -9587,14 +9586,14 @@
     <row r="97" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="25" t="str">
@@ -9603,10 +9602,10 @@
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="27" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="K97" s="28" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="25" t="str">
@@ -9615,10 +9614,10 @@
       </c>
       <c r="O97" s="26"/>
       <c r="P97" s="27" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="Q97" s="28" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="S97" s="15"/>
       <c r="T97" s="25" t="str">
@@ -9657,14 +9656,14 @@
     <row r="98" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="27" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="25" t="str">
@@ -9673,10 +9672,10 @@
       </c>
       <c r="I98" s="26"/>
       <c r="J98" s="27" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="25" t="str">
@@ -9685,10 +9684,10 @@
       </c>
       <c r="O98" s="26"/>
       <c r="P98" s="27" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="Q98" s="28" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="S98" s="15"/>
       <c r="T98" s="25" t="str">
@@ -9729,14 +9728,14 @@
     <row r="99" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C99" s="26"/>
       <c r="D99" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="25" t="str">
@@ -9745,10 +9744,10 @@
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="27" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="K99" s="28" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="25" t="str">
@@ -9757,10 +9756,10 @@
       </c>
       <c r="O99" s="26"/>
       <c r="P99" s="27" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="Q99" s="28" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="S99" s="15"/>
       <c r="T99" s="25" t="str">
@@ -9799,14 +9798,14 @@
     <row r="100" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C100" s="26"/>
       <c r="D100" s="27" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="25" t="str">
@@ -9815,10 +9814,10 @@
       </c>
       <c r="I100" s="26"/>
       <c r="J100" s="27" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="25" t="str">
@@ -9827,10 +9826,10 @@
       </c>
       <c r="O100" s="26"/>
       <c r="P100" s="27" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="Q100" s="28" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="S100" s="15"/>
       <c r="T100" s="25" t="str">
@@ -9871,16 +9870,16 @@
     <row r="101" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="25" t="str">
@@ -9889,10 +9888,10 @@
       </c>
       <c r="I101" s="29"/>
       <c r="J101" s="27" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="M101" s="14"/>
       <c r="N101" s="25" t="str">
@@ -9901,10 +9900,10 @@
       </c>
       <c r="O101" s="29"/>
       <c r="P101" s="27" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="Q101" s="28" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="S101" s="14"/>
       <c r="T101" s="25" t="str">
@@ -9945,16 +9944,16 @@
     <row r="102" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="19" t="str">
@@ -9962,13 +9961,13 @@
         <v>text</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J102" s="23" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="19" t="str">
@@ -9979,10 +9978,10 @@
         <v>5</v>
       </c>
       <c r="P102" s="23" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="Q102" s="24" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="S102" s="15"/>
       <c r="T102" s="19" t="str">
@@ -10023,16 +10022,16 @@
     <row r="103" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="19" t="str">
@@ -10040,13 +10039,13 @@
         <v>TextObj</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J103" s="23" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="19" t="str">
@@ -10057,10 +10056,10 @@
         <v>5</v>
       </c>
       <c r="P103" s="23" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="Q103" s="24" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="S103" s="15"/>
       <c r="T103" s="19" t="str">
@@ -10101,16 +10100,16 @@
     <row r="104" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="19" t="str">
@@ -10121,10 +10120,10 @@
         <v>5</v>
       </c>
       <c r="J104" s="23" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M104" s="15"/>
       <c r="N104" s="19" t="str">
@@ -10135,10 +10134,10 @@
         <v>5</v>
       </c>
       <c r="P104" s="23" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="Q104" s="24" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="S104" s="15"/>
       <c r="T104" s="19" t="str">
@@ -10178,7 +10177,7 @@
     </row>
     <row r="105" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B105" s="37"/>
       <c r="C105" s="38"/>
@@ -10254,10 +10253,10 @@
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G106" s="18"/>
       <c r="H106" s="32" t="str">
@@ -10266,10 +10265,10 @@
       </c>
       <c r="I106" s="33"/>
       <c r="J106" s="34" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K106" s="35" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="32" t="str">
@@ -10278,10 +10277,10 @@
       </c>
       <c r="O106" s="33"/>
       <c r="P106" s="34" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="Q106" s="35" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="S106" s="18"/>
       <c r="T106" s="32" t="str">
@@ -10324,10 +10323,10 @@
     <row r="108" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <f>COUNTA(A6:A106)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C108" s="2">
         <f>SUM(D108:E108)</f>
@@ -10344,28 +10343,28 @@
     </row>
     <row r="109" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C109" s="2">
         <f>SUM(D109:E109)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D109" s="2">
         <f>COUNTBLANK(C6:C106)-A108</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E109" s="2">
         <f>D109</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C110" s="9">
         <f>SUM(C108:C109)</f>
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D110" s="2">
         <f>COUNTA(D6:D106)</f>
@@ -10420,8 +10419,8 @@
     <hyperlink ref="D29" r:id="rId24"/>
     <hyperlink ref="D31" r:id="rId25"/>
     <hyperlink ref="D32" r:id="rId26"/>
-    <hyperlink ref="D33" r:id="rId27"/>
-    <hyperlink ref="D34" r:id="rId28"/>
+    <hyperlink ref="D33" r:id="rId27" display="Pass\ExpAssignIntegerNumObj.quorum"/>
+    <hyperlink ref="D34" r:id="rId28" display="Pass\ExpAssignIntObjNumber.quorum"/>
     <hyperlink ref="D35" r:id="rId29"/>
     <hyperlink ref="D40" r:id="rId30"/>
     <hyperlink ref="D48" r:id="rId31"/>
@@ -10429,17 +10428,17 @@
     <hyperlink ref="D41" r:id="rId33"/>
     <hyperlink ref="D42" r:id="rId34"/>
     <hyperlink ref="D43" r:id="rId35"/>
-    <hyperlink ref="D44" r:id="rId36"/>
+    <hyperlink ref="D44" r:id="rId36" display="Pass\ExpAssignIntegerObject.quorum"/>
     <hyperlink ref="D45" r:id="rId37"/>
     <hyperlink ref="D46" r:id="rId38"/>
     <hyperlink ref="D47" r:id="rId39"/>
     <hyperlink ref="D51" r:id="rId40"/>
     <hyperlink ref="D52" r:id="rId41"/>
-    <hyperlink ref="D53" r:id="rId42"/>
+    <hyperlink ref="D53" r:id="rId42" display="Pass\ExpAssignNumObjIntObj.quorum"/>
     <hyperlink ref="D58" r:id="rId43"/>
     <hyperlink ref="D59" r:id="rId44"/>
     <hyperlink ref="D60" r:id="rId45"/>
-    <hyperlink ref="D54" r:id="rId46"/>
+    <hyperlink ref="D54" r:id="rId46" display="Pass\ExpAssignNumObjInteger.quorum"/>
     <hyperlink ref="D55" r:id="rId47"/>
     <hyperlink ref="D56" r:id="rId48"/>
     <hyperlink ref="D57" r:id="rId49"/>
@@ -10449,7 +10448,7 @@
     <hyperlink ref="D66" r:id="rId53"/>
     <hyperlink ref="D69" r:id="rId54"/>
     <hyperlink ref="D62" r:id="rId55"/>
-    <hyperlink ref="D64" r:id="rId56"/>
+    <hyperlink ref="D64" r:id="rId56" display="Pass\ExpAssignNumberIntObj.quorum"/>
     <hyperlink ref="D70" r:id="rId57"/>
     <hyperlink ref="D71" r:id="rId58"/>
     <hyperlink ref="D68" r:id="rId59"/>
@@ -10500,8 +10499,8 @@
     <hyperlink ref="E25" r:id="rId104"/>
     <hyperlink ref="E31" r:id="rId105"/>
     <hyperlink ref="E32" r:id="rId106"/>
-    <hyperlink ref="E33" r:id="rId107"/>
-    <hyperlink ref="E34" r:id="rId108"/>
+    <hyperlink ref="E33" r:id="rId107" display="Pass\ExpAssignIntObjNumObjField.quorum"/>
+    <hyperlink ref="E34" r:id="rId108" display="Pass\ExpAssignIntObjNumObjField.quorum"/>
     <hyperlink ref="E27" r:id="rId109"/>
     <hyperlink ref="E38" r:id="rId110"/>
     <hyperlink ref="E104" r:id="rId111"/>
@@ -10511,17 +10510,17 @@
     <hyperlink ref="E60" r:id="rId115"/>
     <hyperlink ref="E42" r:id="rId116"/>
     <hyperlink ref="E43" r:id="rId117"/>
-    <hyperlink ref="E44" r:id="rId118"/>
+    <hyperlink ref="E44" r:id="rId118" display="Pass\ExpAssignIntegerObjectField.quorum"/>
     <hyperlink ref="E45" r:id="rId119"/>
     <hyperlink ref="E47" r:id="rId120"/>
-    <hyperlink ref="E53" r:id="rId121"/>
-    <hyperlink ref="E54" r:id="rId122"/>
+    <hyperlink ref="E53" r:id="rId121" display="Pass\ExpAssignNumObjIntObjField.quorum"/>
+    <hyperlink ref="E54" r:id="rId122" display="Pass\ExpAssignNumObjIntegerField.quorum"/>
     <hyperlink ref="E55" r:id="rId123"/>
     <hyperlink ref="E56" r:id="rId124"/>
     <hyperlink ref="E67" r:id="rId125"/>
     <hyperlink ref="E65" r:id="rId126"/>
     <hyperlink ref="E66" r:id="rId127"/>
-    <hyperlink ref="E64" r:id="rId128"/>
+    <hyperlink ref="E64" r:id="rId128" display="Pass\ExpAssignNumberIntObjField.quorum"/>
     <hyperlink ref="E69" r:id="rId129"/>
     <hyperlink ref="D74" r:id="rId130"/>
     <hyperlink ref="E73" r:id="rId131"/>
@@ -10959,42 +10958,42 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
+++ b/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
@@ -2413,7 +2413,7 @@
   <dimension ref="A1:AW114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
+++ b/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="595">
   <si>
     <t>Type System</t>
   </si>
@@ -197,34 +197,25 @@
     <t>number</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
+    <t>Object</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>number</t>
@@ -2413,8 +2404,8 @@
   <dimension ref="A1:AW114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2464,7 +2455,7 @@
     </row>
     <row r="2" spans="1:49" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -2474,7 +2465,7 @@
     </row>
     <row r="4" spans="1:49" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="48"/>
@@ -2482,7 +2473,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="3"/>
       <c r="G4" s="46" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="48"/>
@@ -2490,7 +2481,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="3"/>
       <c r="M4" s="46" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="48"/>
@@ -2537,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G5" s="42" t="str">
         <f>A5</f>
@@ -2676,7 +2667,7 @@
     </row>
     <row r="6" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
@@ -2748,16 +2739,16 @@
     <row r="7" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="19" t="str">
@@ -2768,10 +2759,10 @@
         <v>53</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="19" t="str">
@@ -2782,10 +2773,10 @@
         <v>5</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="19" t="str">
@@ -2832,10 +2823,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="19" t="str">
@@ -2846,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="19" t="str">
@@ -2860,10 +2851,10 @@
         <v>5</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="19" t="str">
@@ -2906,14 +2897,14 @@
     <row r="9" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="25" t="str">
@@ -2922,10 +2913,10 @@
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="25" t="str">
@@ -2934,10 +2925,10 @@
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="25" t="str">
@@ -2980,10 +2971,10 @@
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="25" t="str">
@@ -2992,10 +2983,10 @@
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="27" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="25" t="str">
@@ -3004,10 +2995,10 @@
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="27" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="25" t="str">
@@ -3048,14 +3039,14 @@
     <row r="11" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="25" t="str">
@@ -3064,10 +3055,10 @@
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="25" t="str">
@@ -3076,10 +3067,10 @@
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="27" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="25" t="str">
@@ -3124,10 +3115,10 @@
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="25" t="str">
@@ -3136,10 +3127,10 @@
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="25" t="str">
@@ -3148,10 +3139,10 @@
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="27" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="25" t="str">
@@ -3198,10 +3189,10 @@
         <v>55</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="str">
@@ -3210,10 +3201,10 @@
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="25" t="str">
@@ -3222,10 +3213,10 @@
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="25" t="str">
@@ -3273,10 +3264,10 @@
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="25" t="str">
@@ -3285,10 +3276,10 @@
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="25" t="str">
@@ -3297,10 +3288,10 @@
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="25" t="str">
@@ -3341,14 +3332,14 @@
     <row r="15" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="25" t="str">
@@ -3357,10 +3348,10 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="25" t="str">
@@ -3369,10 +3360,10 @@
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="27" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="25" t="str">
@@ -3417,10 +3408,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="19" t="str">
@@ -3431,10 +3422,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="19" t="str">
@@ -3445,10 +3436,10 @@
         <v>5</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="19" t="str">
@@ -3560,16 +3551,16 @@
     <row r="18" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="19" t="str">
@@ -3580,10 +3571,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="19" t="str">
@@ -3594,10 +3585,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="19" t="str">
@@ -3644,10 +3635,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="15"/>
@@ -3659,10 +3650,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="15"/>
@@ -3674,10 +3665,10 @@
         <v>5</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="15"/>
@@ -3727,14 +3718,14 @@
     <row r="20" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="25" t="str">
@@ -3743,10 +3734,10 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="27" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="25" t="str">
@@ -3755,10 +3746,10 @@
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="27" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="25" t="str">
@@ -3801,10 +3792,10 @@
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="25" t="str">
@@ -3813,10 +3804,10 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="25" t="str">
@@ -3825,10 +3816,10 @@
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="25" t="str">
@@ -3869,14 +3860,14 @@
     <row r="22" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="25" t="str">
@@ -3885,10 +3876,10 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="25" t="str">
@@ -3897,10 +3888,10 @@
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="25" t="str">
@@ -3943,10 +3934,10 @@
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="25" t="str">
@@ -3955,10 +3946,10 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="27" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="25" t="str">
@@ -3967,10 +3958,10 @@
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="27" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="25" t="str">
@@ -4017,10 +4008,10 @@
         <v>15</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="25" t="str">
@@ -4029,10 +4020,10 @@
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="27" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="25" t="str">
@@ -4041,10 +4032,10 @@
       </c>
       <c r="O24" s="29"/>
       <c r="P24" s="27" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="25" t="str">
@@ -4094,10 +4085,10 @@
         <v>10</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="25" t="str">
@@ -4106,10 +4097,10 @@
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="27" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="25" t="str">
@@ -4118,10 +4109,10 @@
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="27" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q25" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="25" t="str">
@@ -4162,14 +4153,14 @@
     <row r="26" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="25" t="str">
@@ -4178,10 +4169,10 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="27" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="25" t="str">
@@ -4190,10 +4181,10 @@
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="27" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="25" t="str">
@@ -4236,10 +4227,10 @@
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="25" t="str">
@@ -4248,10 +4239,10 @@
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="27" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="25" t="str">
@@ -4260,10 +4251,10 @@
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="27" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="25" t="str">
@@ -4303,7 +4294,7 @@
     </row>
     <row r="28" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="38"/>
@@ -4375,14 +4366,14 @@
     <row r="29" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="25" t="str">
@@ -4391,10 +4382,10 @@
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="27" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="25" t="str">
@@ -4403,10 +4394,10 @@
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="27" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="25" t="str">
@@ -4449,10 +4440,10 @@
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="25" t="str">
@@ -4461,10 +4452,10 @@
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="25" t="str">
@@ -4473,10 +4464,10 @@
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="27" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q30" s="28" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="25" t="str">
@@ -4519,16 +4510,16 @@
     <row r="31" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="19" t="str">
@@ -4536,13 +4527,13 @@
         <v>IntObj</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="19" t="str">
@@ -4553,10 +4544,10 @@
         <v>5</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="19" t="str">
@@ -4603,10 +4594,10 @@
         <v>57</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="19" t="str">
@@ -4617,10 +4608,10 @@
         <v>58</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="19" t="str">
@@ -4631,10 +4622,10 @@
         <v>5</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="19" t="str">
@@ -4675,16 +4666,14 @@
     <row r="33" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>65</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C33" s="29"/>
       <c r="D33" s="27" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="25" t="str">
@@ -4693,10 +4682,10 @@
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="25" t="str">
@@ -4705,10 +4694,10 @@
       </c>
       <c r="O33" s="29"/>
       <c r="P33" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q33" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="25" t="str">
@@ -4751,14 +4740,12 @@
       <c r="B34" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="C34" s="29"/>
       <c r="D34" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="25" t="str">
@@ -4767,10 +4754,10 @@
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="25" t="str">
@@ -4779,10 +4766,10 @@
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="25" t="str">
@@ -4823,16 +4810,16 @@
     <row r="35" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="25" t="str">
@@ -4841,10 +4828,10 @@
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="27" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="25" t="str">
@@ -4853,10 +4840,10 @@
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="27" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q35" s="28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="25" t="str">
@@ -4900,14 +4887,14 @@
     <row r="36" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="25" t="str">
@@ -4916,10 +4903,10 @@
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="25" t="str">
@@ -4928,10 +4915,10 @@
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="27" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="25" t="str">
@@ -4972,14 +4959,14 @@
     <row r="37" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="25" t="str">
@@ -4988,10 +4975,10 @@
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="27" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="25" t="str">
@@ -5000,10 +4987,10 @@
       </c>
       <c r="O37" s="26"/>
       <c r="P37" s="27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q37" s="28" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="25" t="str">
@@ -5042,16 +5029,16 @@
     <row r="38" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="19" t="str">
@@ -5062,10 +5049,10 @@
         <v>5</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="19" t="str">
@@ -5076,10 +5063,10 @@
         <v>5</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="19" t="str">
@@ -5191,14 +5178,14 @@
     <row r="40" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="15"/>
@@ -5208,10 +5195,10 @@
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="27" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="15"/>
@@ -5221,10 +5208,10 @@
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="27" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="15"/>
@@ -5270,10 +5257,10 @@
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="15"/>
@@ -5283,10 +5270,10 @@
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="15"/>
@@ -5296,10 +5283,10 @@
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="27" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="Q41" s="28" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="15"/>
@@ -5341,16 +5328,16 @@
     <row r="42" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="15"/>
@@ -5362,10 +5349,10 @@
         <v>5</v>
       </c>
       <c r="J42" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="15"/>
@@ -5377,10 +5364,10 @@
         <v>5</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q42" s="24" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="15"/>
@@ -5428,10 +5415,10 @@
         <v>5</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="15"/>
@@ -5443,10 +5430,10 @@
         <v>5</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="15"/>
@@ -5458,10 +5445,10 @@
         <v>5</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="Q43" s="24" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="15"/>
@@ -5470,7 +5457,7 @@
         <v>integer</v>
       </c>
       <c r="U43" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V43" s="23"/>
       <c r="W43" s="24"/>
@@ -5481,7 +5468,7 @@
         <v>integer</v>
       </c>
       <c r="AA43" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AB43" s="23"/>
       <c r="AC43" s="24"/>
@@ -5492,7 +5479,7 @@
         <v>integer</v>
       </c>
       <c r="AG43" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AH43" s="23"/>
       <c r="AI43" s="24"/>
@@ -5503,7 +5490,7 @@
         <v>integer</v>
       </c>
       <c r="AM43" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AN43" s="23"/>
       <c r="AO43" s="24"/>
@@ -5511,16 +5498,14 @@
     <row r="44" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C44" s="29"/>
       <c r="D44" s="27" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="15"/>
@@ -5530,10 +5515,10 @@
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="15"/>
@@ -5543,10 +5528,10 @@
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="27" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="15"/>
@@ -5594,10 +5579,10 @@
         <v>5</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="15"/>
@@ -5607,10 +5592,10 @@
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="15"/>
@@ -5620,10 +5605,10 @@
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="27" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="15"/>
@@ -5632,7 +5617,7 @@
         <v>number</v>
       </c>
       <c r="U45" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V45" s="27"/>
       <c r="W45" s="28"/>
@@ -5643,7 +5628,7 @@
         <v>number</v>
       </c>
       <c r="AA45" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AB45" s="27"/>
       <c r="AC45" s="28"/>
@@ -5654,7 +5639,7 @@
         <v>number</v>
       </c>
       <c r="AG45" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AH45" s="27"/>
       <c r="AI45" s="28"/>
@@ -5665,7 +5650,7 @@
         <v>number</v>
       </c>
       <c r="AM45" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AN45" s="27"/>
       <c r="AO45" s="28"/>
@@ -5679,10 +5664,10 @@
         <v>5</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="14"/>
@@ -5692,10 +5677,10 @@
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="14"/>
@@ -5705,10 +5690,10 @@
       </c>
       <c r="O46" s="29"/>
       <c r="P46" s="27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="14"/>
@@ -5756,10 +5741,10 @@
         <v>5</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="15"/>
@@ -5769,10 +5754,10 @@
       </c>
       <c r="I47" s="29"/>
       <c r="J47" s="27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="15"/>
@@ -5782,10 +5767,10 @@
       </c>
       <c r="O47" s="29"/>
       <c r="P47" s="27" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q47" s="28" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="15"/>
@@ -5827,14 +5812,14 @@
     <row r="48" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="15"/>
@@ -5844,10 +5829,10 @@
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="15"/>
@@ -5857,10 +5842,10 @@
       </c>
       <c r="O48" s="31"/>
       <c r="P48" s="27" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="15"/>
@@ -5906,10 +5891,10 @@
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="15"/>
@@ -5919,10 +5904,10 @@
       </c>
       <c r="I49" s="29"/>
       <c r="J49" s="27" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="15"/>
@@ -5932,10 +5917,10 @@
       </c>
       <c r="O49" s="29"/>
       <c r="P49" s="27" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q49" s="28" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="15"/>
@@ -5976,7 +5961,7 @@
     </row>
     <row r="50" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -6048,14 +6033,14 @@
     <row r="51" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="25" t="str">
@@ -6064,10 +6049,10 @@
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="27" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="25" t="str">
@@ -6076,10 +6061,10 @@
       </c>
       <c r="O51" s="29"/>
       <c r="P51" s="27" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q51" s="28" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="25" t="str">
@@ -6122,10 +6107,10 @@
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="25" t="str">
@@ -6134,10 +6119,10 @@
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="27" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="25" t="str">
@@ -6146,10 +6131,10 @@
       </c>
       <c r="O52" s="29"/>
       <c r="P52" s="27" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q52" s="28" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="25" t="str">
@@ -6192,16 +6177,14 @@
     <row r="53" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C53" s="29"/>
       <c r="D53" s="27" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="19" t="str">
@@ -6212,10 +6195,10 @@
         <v>5</v>
       </c>
       <c r="J53" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="19" t="str">
@@ -6226,10 +6209,10 @@
         <v>5</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="Q53" s="24" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="19" t="str">
@@ -6268,16 +6251,14 @@
     <row r="54" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C54" s="29"/>
       <c r="D54" s="27" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="19" t="str">
@@ -6288,10 +6269,10 @@
         <v>5</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="19" t="str">
@@ -6302,10 +6283,10 @@
         <v>5</v>
       </c>
       <c r="P54" s="23" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Q54" s="24" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="19" t="str">
@@ -6346,16 +6327,16 @@
     <row r="55" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="19" t="str">
@@ -6363,13 +6344,13 @@
         <v>NumObj</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="19" t="str">
@@ -6380,10 +6361,10 @@
         <v>5</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q55" s="24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="19" t="str">
@@ -6424,16 +6405,16 @@
     <row r="56" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="19" t="str">
@@ -6441,13 +6422,13 @@
         <v>number</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="19" t="str">
@@ -6458,10 +6439,10 @@
         <v>5</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q56" s="24" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="19" t="str">
@@ -6502,16 +6483,16 @@
     <row r="57" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="25" t="str">
@@ -6520,10 +6501,10 @@
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="27" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="25" t="str">
@@ -6532,10 +6513,10 @@
       </c>
       <c r="O57" s="29"/>
       <c r="P57" s="27" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Q57" s="28" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="25" t="str">
@@ -6579,14 +6560,14 @@
     <row r="58" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="25" t="str">
@@ -6595,10 +6576,10 @@
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="25" t="str">
@@ -6607,10 +6588,10 @@
       </c>
       <c r="O58" s="29"/>
       <c r="P58" s="27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q58" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="25" t="str">
@@ -6651,14 +6632,14 @@
     <row r="59" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="25" t="str">
@@ -6667,10 +6648,10 @@
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="27" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="25" t="str">
@@ -6679,10 +6660,10 @@
       </c>
       <c r="O59" s="26"/>
       <c r="P59" s="27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q59" s="28" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="25" t="str">
@@ -6721,16 +6702,16 @@
     <row r="60" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="19" t="str">
@@ -6741,10 +6722,10 @@
         <v>5</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="19" t="str">
@@ -6755,10 +6736,10 @@
         <v>5</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Q60" s="24" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="S60" s="15"/>
       <c r="T60" s="19" t="str">
@@ -6870,14 +6851,14 @@
     <row r="62" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="25" t="str">
@@ -6886,10 +6867,10 @@
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="27" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="25" t="str">
@@ -6898,10 +6879,10 @@
       </c>
       <c r="O62" s="29"/>
       <c r="P62" s="27" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q62" s="28" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="25" t="str">
@@ -6944,10 +6925,10 @@
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="25" t="str">
@@ -6956,10 +6937,10 @@
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="27" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="25" t="str">
@@ -6968,10 +6949,10 @@
       </c>
       <c r="O63" s="29"/>
       <c r="P63" s="27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="Q63" s="28" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="S63" s="15"/>
       <c r="T63" s="25" t="str">
@@ -7012,20 +6993,16 @@
       <c r="AV63" s="1"/>
     </row>
     <row r="64" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="A64" s="15"/>
       <c r="B64" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C64" s="26"/>
       <c r="D64" s="27" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="19" t="str">
@@ -7036,10 +7013,10 @@
         <v>5</v>
       </c>
       <c r="J64" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="19" t="str">
@@ -7050,10 +7027,10 @@
         <v>5</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q64" s="24" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="19" t="str">
@@ -7098,10 +7075,10 @@
         <v>17</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="19" t="str">
@@ -7112,10 +7089,10 @@
         <v>5</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="19" t="str">
@@ -7126,10 +7103,10 @@
         <v>5</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Q65" s="24" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="19" t="str">
@@ -7188,16 +7165,16 @@
     <row r="66" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="19" t="str">
@@ -7208,10 +7185,10 @@
         <v>29</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="19" t="str">
@@ -7222,10 +7199,10 @@
         <v>5</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Q66" s="24" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="19" t="str">
@@ -7272,10 +7249,10 @@
         <v>21</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="19" t="str">
@@ -7286,10 +7263,10 @@
         <v>22</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="19" t="str">
@@ -7300,10 +7277,10 @@
         <v>5</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="Q67" s="24" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="19" t="str">
@@ -7368,10 +7345,10 @@
         <v>31</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="25" t="str">
@@ -7380,10 +7357,10 @@
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M68" s="14"/>
       <c r="N68" s="25" t="str">
@@ -7392,10 +7369,10 @@
       </c>
       <c r="O68" s="29"/>
       <c r="P68" s="27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q68" s="28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="S68" s="14"/>
       <c r="T68" s="25" t="str">
@@ -7445,10 +7422,10 @@
         <v>26</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="25" t="str">
@@ -7457,10 +7434,10 @@
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="27" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K69" s="28" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="25" t="str">
@@ -7469,10 +7446,10 @@
       </c>
       <c r="O69" s="29"/>
       <c r="P69" s="27" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q69" s="28" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="S69" s="15"/>
       <c r="T69" s="25" t="str">
@@ -7513,14 +7490,14 @@
     <row r="70" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="25" t="str">
@@ -7529,10 +7506,10 @@
       </c>
       <c r="I70" s="26"/>
       <c r="J70" s="27" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="25" t="str">
@@ -7541,10 +7518,10 @@
       </c>
       <c r="O70" s="26"/>
       <c r="P70" s="27" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q70" s="28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="25" t="str">
@@ -7587,10 +7564,10 @@
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="25" t="str">
@@ -7599,10 +7576,10 @@
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="25" t="str">
@@ -7611,10 +7588,10 @@
       </c>
       <c r="O71" s="29"/>
       <c r="P71" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q71" s="28" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="25" t="str">
@@ -7726,16 +7703,16 @@
     <row r="73" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="19" t="str">
@@ -7746,10 +7723,10 @@
         <v>5</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="19" t="str">
@@ -7760,10 +7737,10 @@
         <v>5</v>
       </c>
       <c r="P73" s="23" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q73" s="24" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="19" t="str">
@@ -7808,10 +7785,10 @@
         <v>5</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="25" t="str">
@@ -7820,10 +7797,10 @@
       </c>
       <c r="I74" s="29"/>
       <c r="J74" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="25" t="str">
@@ -7832,10 +7809,10 @@
       </c>
       <c r="O74" s="29"/>
       <c r="P74" s="27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q74" s="28" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="S74" s="15"/>
       <c r="T74" s="25" t="str">
@@ -7878,16 +7855,16 @@
     <row r="75" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="19" t="str">
@@ -7898,10 +7875,10 @@
         <v>5</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="19" t="str">
@@ -7912,10 +7889,10 @@
         <v>5</v>
       </c>
       <c r="P75" s="23" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="Q75" s="24" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="S75" s="15"/>
       <c r="T75" s="19" t="str">
@@ -7960,10 +7937,10 @@
         <v>5</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="25" t="str">
@@ -7972,10 +7949,10 @@
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="25" t="str">
@@ -7984,10 +7961,10 @@
       </c>
       <c r="O76" s="29"/>
       <c r="P76" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q76" s="28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S76" s="15"/>
       <c r="T76" s="25" t="str">
@@ -8028,16 +8005,16 @@
     <row r="77" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="19" t="str">
@@ -8048,10 +8025,10 @@
         <v>5</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="19" t="str">
@@ -8062,10 +8039,10 @@
         <v>5</v>
       </c>
       <c r="P77" s="23" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q77" s="24" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="S77" s="15"/>
       <c r="T77" s="19" t="str">
@@ -8110,10 +8087,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="25" t="str">
@@ -8122,10 +8099,10 @@
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="25" t="str">
@@ -8134,10 +8111,10 @@
       </c>
       <c r="O78" s="29"/>
       <c r="P78" s="27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q78" s="28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="S78" s="15"/>
       <c r="T78" s="25" t="str">
@@ -8184,10 +8161,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="19" t="str">
@@ -8198,10 +8175,10 @@
         <v>5</v>
       </c>
       <c r="J79" s="23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="19" t="str">
@@ -8212,10 +8189,10 @@
         <v>5</v>
       </c>
       <c r="P79" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="Q79" s="24" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="S79" s="14"/>
       <c r="T79" s="19" t="str">
@@ -8262,10 +8239,10 @@
         <v>5</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="25" t="str">
@@ -8274,10 +8251,10 @@
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K80" s="28" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="25" t="str">
@@ -8286,10 +8263,10 @@
       </c>
       <c r="O80" s="29"/>
       <c r="P80" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q80" s="28" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="S80" s="15"/>
       <c r="T80" s="25" t="str">
@@ -8348,16 +8325,16 @@
     <row r="81" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="19" t="str">
@@ -8368,10 +8345,10 @@
         <v>5</v>
       </c>
       <c r="J81" s="23" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="19" t="str">
@@ -8382,10 +8359,10 @@
         <v>5</v>
       </c>
       <c r="P81" s="23" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="Q81" s="24" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="S81" s="15"/>
       <c r="T81" s="19" t="str">
@@ -8432,10 +8409,10 @@
         <v>5</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="19" t="str">
@@ -8446,10 +8423,10 @@
         <v>5</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="19" t="str">
@@ -8460,10 +8437,10 @@
         <v>5</v>
       </c>
       <c r="P82" s="23" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q82" s="24" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="S82" s="15"/>
       <c r="T82" s="19" t="str">
@@ -8593,14 +8570,14 @@
     <row r="84" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="25" t="str">
@@ -8609,10 +8586,10 @@
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="27" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K84" s="28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="25" t="str">
@@ -8621,10 +8598,10 @@
       </c>
       <c r="O84" s="29"/>
       <c r="P84" s="27" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Q84" s="28" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="S84" s="15"/>
       <c r="T84" s="25" t="str">
@@ -8669,10 +8646,10 @@
         <v>5</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="25" t="str">
@@ -8681,10 +8658,10 @@
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K85" s="28" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="25" t="str">
@@ -8693,10 +8670,10 @@
       </c>
       <c r="O85" s="29"/>
       <c r="P85" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q85" s="28" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="S85" s="15"/>
       <c r="T85" s="25" t="str">
@@ -8739,14 +8716,14 @@
     <row r="86" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="25" t="str">
@@ -8755,10 +8732,10 @@
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K86" s="28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="25" t="str">
@@ -8767,10 +8744,10 @@
       </c>
       <c r="O86" s="29"/>
       <c r="P86" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q86" s="28" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="S86" s="15"/>
       <c r="T86" s="25" t="str">
@@ -8815,10 +8792,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="25" t="str">
@@ -8827,10 +8804,10 @@
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K87" s="28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="25" t="str">
@@ -8839,10 +8816,10 @@
       </c>
       <c r="O87" s="29"/>
       <c r="P87" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q87" s="28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="S87" s="15"/>
       <c r="T87" s="25" t="str">
@@ -8883,14 +8860,14 @@
     <row r="88" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C88" s="26"/>
       <c r="D88" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="25" t="str">
@@ -8899,10 +8876,10 @@
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K88" s="28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="25" t="str">
@@ -8911,10 +8888,10 @@
       </c>
       <c r="O88" s="26"/>
       <c r="P88" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q88" s="28" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="S88" s="15"/>
       <c r="T88" s="25" t="str">
@@ -8959,10 +8936,10 @@
         <v>35</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="25" t="str">
@@ -8971,10 +8948,10 @@
       </c>
       <c r="I89" s="29"/>
       <c r="J89" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K89" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="25" t="str">
@@ -8983,10 +8960,10 @@
       </c>
       <c r="O89" s="29"/>
       <c r="P89" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q89" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="S89" s="15"/>
       <c r="T89" s="25" t="str">
@@ -9033,10 +9010,10 @@
         <v>47</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="25" t="str">
@@ -9045,10 +9022,10 @@
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K90" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="25" t="str">
@@ -9057,10 +9034,10 @@
       </c>
       <c r="O90" s="29"/>
       <c r="P90" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q90" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="S90" s="14"/>
       <c r="T90" s="25" t="str">
@@ -9107,10 +9084,10 @@
         <v>37</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="19" t="str">
@@ -9121,10 +9098,10 @@
         <v>38</v>
       </c>
       <c r="J91" s="23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="19" t="str">
@@ -9135,10 +9112,10 @@
         <v>5</v>
       </c>
       <c r="P91" s="23" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q91" s="24" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="S91" s="15"/>
       <c r="T91" s="19" t="str">
@@ -9197,16 +9174,16 @@
     <row r="92" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="19" t="str">
@@ -9217,10 +9194,10 @@
         <v>45</v>
       </c>
       <c r="J92" s="23" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="19" t="str">
@@ -9231,10 +9208,10 @@
         <v>5</v>
       </c>
       <c r="P92" s="23" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Q92" s="24" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="S92" s="15"/>
       <c r="T92" s="19" t="str">
@@ -9281,10 +9258,10 @@
         <v>5</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="19" t="str">
@@ -9295,10 +9272,10 @@
         <v>5</v>
       </c>
       <c r="J93" s="23" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="19" t="str">
@@ -9309,10 +9286,10 @@
         <v>5</v>
       </c>
       <c r="P93" s="23" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Q93" s="24" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="S93" s="15"/>
       <c r="T93" s="19" t="str">
@@ -9370,7 +9347,7 @@
     </row>
     <row r="94" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="38"/>
@@ -9442,14 +9419,14 @@
     <row r="95" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C95" s="26"/>
       <c r="D95" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="25" t="str">
@@ -9458,10 +9435,10 @@
       </c>
       <c r="I95" s="26"/>
       <c r="J95" s="27" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K95" s="28" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="25" t="str">
@@ -9470,10 +9447,10 @@
       </c>
       <c r="O95" s="26"/>
       <c r="P95" s="27" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q95" s="28" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="S95" s="15"/>
       <c r="T95" s="25" t="str">
@@ -9516,10 +9493,10 @@
       </c>
       <c r="C96" s="26"/>
       <c r="D96" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="25" t="str">
@@ -9528,10 +9505,10 @@
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K96" s="28" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="25" t="str">
@@ -9540,10 +9517,10 @@
       </c>
       <c r="O96" s="26"/>
       <c r="P96" s="27" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="Q96" s="28" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="S96" s="15"/>
       <c r="T96" s="25" t="str">
@@ -9586,14 +9563,14 @@
     <row r="97" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="25" t="str">
@@ -9602,10 +9579,10 @@
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K97" s="28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="25" t="str">
@@ -9614,10 +9591,10 @@
       </c>
       <c r="O97" s="26"/>
       <c r="P97" s="27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q97" s="28" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="S97" s="15"/>
       <c r="T97" s="25" t="str">
@@ -9656,14 +9633,14 @@
     <row r="98" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="25" t="str">
@@ -9672,10 +9649,10 @@
       </c>
       <c r="I98" s="26"/>
       <c r="J98" s="27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="25" t="str">
@@ -9684,10 +9661,10 @@
       </c>
       <c r="O98" s="26"/>
       <c r="P98" s="27" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q98" s="28" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="S98" s="15"/>
       <c r="T98" s="25" t="str">
@@ -9728,14 +9705,14 @@
     <row r="99" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C99" s="26"/>
       <c r="D99" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="25" t="str">
@@ -9744,10 +9721,10 @@
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="27" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K99" s="28" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="25" t="str">
@@ -9756,10 +9733,10 @@
       </c>
       <c r="O99" s="26"/>
       <c r="P99" s="27" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="Q99" s="28" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="S99" s="15"/>
       <c r="T99" s="25" t="str">
@@ -9798,14 +9775,14 @@
     <row r="100" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C100" s="26"/>
       <c r="D100" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="25" t="str">
@@ -9814,10 +9791,10 @@
       </c>
       <c r="I100" s="26"/>
       <c r="J100" s="27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="25" t="str">
@@ -9826,10 +9803,10 @@
       </c>
       <c r="O100" s="26"/>
       <c r="P100" s="27" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q100" s="28" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="S100" s="15"/>
       <c r="T100" s="25" t="str">
@@ -9870,16 +9847,16 @@
     <row r="101" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="25" t="str">
@@ -9888,10 +9865,10 @@
       </c>
       <c r="I101" s="29"/>
       <c r="J101" s="27" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M101" s="14"/>
       <c r="N101" s="25" t="str">
@@ -9900,10 +9877,10 @@
       </c>
       <c r="O101" s="29"/>
       <c r="P101" s="27" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q101" s="28" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="S101" s="14"/>
       <c r="T101" s="25" t="str">
@@ -9944,16 +9921,16 @@
     <row r="102" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="19" t="str">
@@ -9961,13 +9938,13 @@
         <v>text</v>
       </c>
       <c r="I102" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J102" s="23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="19" t="str">
@@ -9978,10 +9955,10 @@
         <v>5</v>
       </c>
       <c r="P102" s="23" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Q102" s="24" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="S102" s="15"/>
       <c r="T102" s="19" t="str">
@@ -10022,16 +9999,16 @@
     <row r="103" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="19" t="str">
@@ -10039,13 +10016,13 @@
         <v>TextObj</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J103" s="23" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="19" t="str">
@@ -10056,10 +10033,10 @@
         <v>5</v>
       </c>
       <c r="P103" s="23" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q103" s="24" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="S103" s="15"/>
       <c r="T103" s="19" t="str">
@@ -10100,16 +10077,16 @@
     <row r="104" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="19" t="str">
@@ -10120,10 +10097,10 @@
         <v>5</v>
       </c>
       <c r="J104" s="23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M104" s="15"/>
       <c r="N104" s="19" t="str">
@@ -10134,10 +10111,10 @@
         <v>5</v>
       </c>
       <c r="P104" s="23" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q104" s="24" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="S104" s="15"/>
       <c r="T104" s="19" t="str">
@@ -10253,10 +10230,10 @@
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G106" s="18"/>
       <c r="H106" s="32" t="str">
@@ -10265,10 +10242,10 @@
       </c>
       <c r="I106" s="33"/>
       <c r="J106" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K106" s="35" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="32" t="str">
@@ -10277,10 +10254,10 @@
       </c>
       <c r="O106" s="33"/>
       <c r="P106" s="34" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q106" s="35" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="S106" s="18"/>
       <c r="T106" s="32" t="str">
@@ -10323,48 +10300,48 @@
     <row r="108" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <f>COUNTA(A6:A106)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C108" s="2">
         <f>SUM(D108:E108)</f>
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D108" s="2">
         <f>COUNTA(C6:C106)</f>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E108" s="2">
         <f>D108</f>
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C109" s="2">
         <f>SUM(D109:E109)</f>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D109" s="2">
         <f>COUNTBLANK(C6:C106)-A108</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E109" s="2">
         <f>D109</f>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C110" s="9">
         <f>SUM(C108:C109)</f>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D110" s="2">
         <f>COUNTA(D6:D106)</f>
@@ -10377,18 +10354,18 @@
     </row>
     <row r="112" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="3">
-        <v>53</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="3">
-        <v>105</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="3">
         <f>B113-B112+1</f>
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -10958,42 +10935,42 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
+++ b/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
@@ -2404,7 +2404,7 @@
   <dimension ref="A1:AW114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
+++ b/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="15975" windowHeight="10680"/>
+    <workbookView xWindow="640" yWindow="600" windowWidth="29580" windowHeight="18420"/>
   </bookViews>
   <sheets>
     <sheet name="Quorum 3.0" sheetId="1" r:id="rId1"/>
     <sheet name="VBA Code for Hyperlinks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="589">
   <si>
     <t>Type System</t>
   </si>
@@ -56,9 +61,51 @@
     <t>x</t>
   </si>
   <si>
+    <t>Object</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Object</t>
   </si>
   <si>
@@ -71,190 +118,130 @@
     <t>x</t>
   </si>
   <si>
+    <t>number</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
+    <t>Object</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
+    <t>undefined</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>undefined</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
+    <t>Object</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>number</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>text</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>x</t>
@@ -1806,7 +1793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1864,6 +1851,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1929,7 +1922,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1938,30 +1931,30 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1969,20 +1962,20 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1991,12 +1984,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2005,25 +1998,29 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2099,7 +2096,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2400,72 +2401,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AW114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="34.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="34.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="3" customWidth="1"/>
-    <col min="16" max="17" width="34.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="3" customWidth="1"/>
-    <col min="22" max="23" width="34.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="4.42578125" style="3" customWidth="1"/>
-    <col min="28" max="29" width="34.7109375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" style="3" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="3" customWidth="1"/>
-    <col min="34" max="35" width="34.7109375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" style="3" customWidth="1"/>
-    <col min="37" max="37" width="12.7109375" style="3" customWidth="1"/>
-    <col min="38" max="38" width="10.140625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="4.42578125" style="3" customWidth="1"/>
-    <col min="40" max="41" width="34.7109375" style="3" customWidth="1"/>
-    <col min="42" max="16384" width="14.42578125" style="3"/>
+    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="34.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="34.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="3" customWidth="1"/>
+    <col min="16" max="17" width="34.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.1640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="3" customWidth="1"/>
+    <col min="22" max="23" width="34.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="3.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="4.5" style="3" customWidth="1"/>
+    <col min="28" max="29" width="34.6640625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="10.1640625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="4.5" style="3" customWidth="1"/>
+    <col min="34" max="35" width="34.6640625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="3.6640625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="10.1640625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="4.5" style="3" customWidth="1"/>
+    <col min="40" max="41" width="34.6640625" style="3" customWidth="1"/>
+    <col min="42" max="16384" width="14.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:49" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="17">
       <c r="A2" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:49" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="17">
       <c r="A3" s="8"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:49" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" s="13" customFormat="1">
       <c r="A4" s="46" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="48"/>
@@ -2473,7 +2474,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="3"/>
       <c r="G4" s="46" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="48"/>
@@ -2481,7 +2482,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="3"/>
       <c r="M4" s="46" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="48"/>
@@ -2520,7 +2521,7 @@
       <c r="AV4" s="12"/>
       <c r="AW4" s="12"/>
     </row>
-    <row r="5" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" ht="13" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
@@ -2528,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G5" s="42" t="str">
         <f>A5</f>
@@ -2665,9 +2666,9 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
@@ -2736,19 +2737,19 @@
       <c r="AV6" s="41"/>
       <c r="AW6" s="41"/>
     </row>
-    <row r="7" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" ht="13" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="19" t="str">
@@ -2756,13 +2757,13 @@
         <v>BoolObj</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="19" t="str">
@@ -2773,10 +2774,10 @@
         <v>5</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="19" t="str">
@@ -2814,7 +2815,7 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
     </row>
-    <row r="8" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" ht="13" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="19" t="s">
         <v>3</v>
@@ -2823,24 +2824,22 @@
         <v>5</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="19" t="str">
         <f t="shared" ref="H8:H16" si="0">$B8</f>
         <v>boolean</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="I8" s="20"/>
       <c r="J8" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="19" t="str">
@@ -2851,10 +2850,10 @@
         <v>5</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="19" t="str">
@@ -2894,17 +2893,17 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" ht="13" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="25" t="str">
@@ -2913,10 +2912,10 @@
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="27" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="25" t="str">
@@ -2925,10 +2924,10 @@
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="27" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="25" t="str">
@@ -2964,17 +2963,17 @@
       <c r="AO9" s="28"/>
       <c r="AT9" s="1"/>
     </row>
-    <row r="10" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" ht="13" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="25" t="str">
@@ -2983,10 +2982,10 @@
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="27" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="25" t="str">
@@ -2995,10 +2994,10 @@
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="27" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="25" t="str">
@@ -3036,17 +3035,17 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
     </row>
-    <row r="11" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" ht="13" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="25" t="str">
@@ -3055,10 +3054,10 @@
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="27" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="25" t="str">
@@ -3067,10 +3066,10 @@
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="27" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="25" t="str">
@@ -3108,17 +3107,17 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
     </row>
-    <row r="12" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" ht="13" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="25" t="str">
@@ -3127,10 +3126,10 @@
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="27" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="25" t="str">
@@ -3139,10 +3138,10 @@
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="27" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="25" t="str">
@@ -3180,19 +3179,19 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
     </row>
-    <row r="13" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" ht="13" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="25" t="str">
@@ -3201,10 +3200,10 @@
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="27" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="25" t="str">
@@ -3213,10 +3212,10 @@
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="27" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="25" t="str">
@@ -3257,17 +3256,17 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
     </row>
-    <row r="14" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="13" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="25" t="str">
@@ -3276,10 +3275,10 @@
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="27" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="25" t="str">
@@ -3288,10 +3287,10 @@
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="27" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="25" t="str">
@@ -3329,17 +3328,17 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
     </row>
-    <row r="15" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" ht="13" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="25" t="str">
@@ -3348,10 +3347,10 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="27" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="25" t="str">
@@ -3360,10 +3359,10 @@
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="27" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="25" t="str">
@@ -3399,19 +3398,19 @@
       <c r="AO15" s="28"/>
       <c r="AT15" s="1"/>
     </row>
-    <row r="16" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" ht="13" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="19" t="str">
@@ -3422,10 +3421,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="19" t="str">
@@ -3436,10 +3435,10 @@
         <v>5</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="19" t="str">
@@ -3477,7 +3476,7 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
     </row>
-    <row r="17" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>3</v>
       </c>
@@ -3548,33 +3547,31 @@
       <c r="AV17" s="41"/>
       <c r="AW17" s="41"/>
     </row>
-    <row r="18" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" ht="13" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="19" t="str">
         <f>$B18</f>
         <v>BoolObj</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>13</v>
-      </c>
+      <c r="I18" s="20"/>
       <c r="J18" s="23" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="19" t="str">
@@ -3585,10 +3582,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="19" t="str">
@@ -3626,7 +3623,7 @@
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
     </row>
-    <row r="19" spans="1:49" s="5" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" s="5" customFormat="1" ht="13" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="19" t="s">
         <v>4</v>
@@ -3635,10 +3632,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="15"/>
@@ -3650,10 +3647,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="15"/>
@@ -3665,10 +3662,10 @@
         <v>5</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="15"/>
@@ -3715,17 +3712,17 @@
       <c r="AV19" s="7"/>
       <c r="AW19" s="7"/>
     </row>
-    <row r="20" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" ht="13" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="25" t="str">
@@ -3734,10 +3731,10 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="27" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="25" t="str">
@@ -3746,10 +3743,10 @@
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="27" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="25" t="str">
@@ -3785,17 +3782,17 @@
       <c r="AO20" s="28"/>
       <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" ht="13" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="25" t="str">
@@ -3804,10 +3801,10 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="27" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="25" t="str">
@@ -3816,10 +3813,10 @@
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="27" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="25" t="str">
@@ -3857,17 +3854,17 @@
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
     </row>
-    <row r="22" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" ht="13" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="25" t="str">
@@ -3876,10 +3873,10 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="27" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="25" t="str">
@@ -3888,10 +3885,10 @@
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="27" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="25" t="str">
@@ -3927,17 +3924,17 @@
       <c r="AO22" s="28"/>
       <c r="AT22" s="1"/>
     </row>
-    <row r="23" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" ht="13" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="25" t="str">
@@ -3946,10 +3943,10 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="27" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="25" t="str">
@@ -3958,10 +3955,10 @@
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="27" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="25" t="str">
@@ -3999,19 +3996,19 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
     </row>
-    <row r="24" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" ht="13" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>15</v>
-      </c>
       <c r="D24" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="25" t="str">
@@ -4020,10 +4017,10 @@
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="25" t="str">
@@ -4032,10 +4029,10 @@
       </c>
       <c r="O24" s="29"/>
       <c r="P24" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="25" t="str">
@@ -4076,7 +4073,7 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
     </row>
-    <row r="25" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" ht="13" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>9</v>
@@ -4085,10 +4082,10 @@
         <v>10</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="25" t="str">
@@ -4097,10 +4094,10 @@
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="27" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="25" t="str">
@@ -4109,10 +4106,10 @@
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="27" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q25" s="28" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="25" t="str">
@@ -4150,17 +4147,17 @@
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
     </row>
-    <row r="26" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" ht="13" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="25" t="str">
@@ -4169,10 +4166,10 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="27" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="25" t="str">
@@ -4181,10 +4178,10 @@
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="27" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="25" t="str">
@@ -4220,17 +4217,17 @@
       <c r="AO26" s="28"/>
       <c r="AT26" s="1"/>
     </row>
-    <row r="27" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" ht="13" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="25" t="str">
@@ -4239,10 +4236,10 @@
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="25" t="str">
@@ -4251,10 +4248,10 @@
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="27" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="25" t="str">
@@ -4292,9 +4289,9 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
     </row>
-    <row r="28" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="38"/>
@@ -4363,17 +4360,17 @@
       <c r="AV28" s="41"/>
       <c r="AW28" s="41"/>
     </row>
-    <row r="29" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" ht="13" customHeight="1">
       <c r="A29" s="15"/>
       <c r="B29" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="25" t="str">
@@ -4382,10 +4379,10 @@
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="27" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="25" t="str">
@@ -4394,10 +4391,10 @@
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="27" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="25" t="str">
@@ -4433,17 +4430,17 @@
       <c r="AO29" s="28"/>
       <c r="AT29" s="1"/>
     </row>
-    <row r="30" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" ht="13" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="25" t="str">
@@ -4452,10 +4449,10 @@
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="27" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="25" t="str">
@@ -4464,10 +4461,10 @@
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="27" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q30" s="28" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="25" t="str">
@@ -4507,19 +4504,19 @@
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
     </row>
-    <row r="31" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" ht="13" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="19" t="str">
@@ -4527,13 +4524,13 @@
         <v>IntObj</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="19" t="str">
@@ -4544,10 +4541,10 @@
         <v>5</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="19" t="str">
@@ -4585,33 +4582,31 @@
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
     </row>
-    <row r="32" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="13" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="19" t="str">
         <f t="shared" si="12"/>
         <v>integer</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="I32" s="20"/>
       <c r="J32" s="23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="19" t="str">
@@ -4622,10 +4617,10 @@
         <v>5</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="19" t="str">
@@ -4663,17 +4658,17 @@
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
     </row>
-    <row r="33" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" ht="13" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="27" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="25" t="str">
@@ -4682,10 +4677,10 @@
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="27" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="25" t="str">
@@ -4694,10 +4689,10 @@
       </c>
       <c r="O33" s="29"/>
       <c r="P33" s="27" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q33" s="28" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="25" t="str">
@@ -4735,17 +4730,17 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
     </row>
-    <row r="34" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" ht="13" customHeight="1">
       <c r="A34" s="15"/>
       <c r="B34" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="27" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="25" t="str">
@@ -4754,10 +4749,10 @@
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="27" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="25" t="str">
@@ -4766,10 +4761,10 @@
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="27" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="25" t="str">
@@ -4807,19 +4802,19 @@
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
     </row>
-    <row r="35" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" ht="13" customHeight="1">
       <c r="A35" s="14"/>
       <c r="B35" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="25" t="str">
@@ -4828,10 +4823,10 @@
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="27" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="25" t="str">
@@ -4840,10 +4835,10 @@
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="27" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q35" s="28" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="25" t="str">
@@ -4884,17 +4879,17 @@
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
     </row>
-    <row r="36" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" ht="13" customHeight="1">
       <c r="A36" s="15"/>
       <c r="B36" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="25" t="str">
@@ -4903,10 +4898,10 @@
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="27" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="25" t="str">
@@ -4915,10 +4910,10 @@
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="27" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="25" t="str">
@@ -4956,17 +4951,17 @@
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
     </row>
-    <row r="37" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" ht="13" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="25" t="str">
@@ -4975,10 +4970,10 @@
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="27" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="25" t="str">
@@ -4987,10 +4982,10 @@
       </c>
       <c r="O37" s="26"/>
       <c r="P37" s="27" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q37" s="28" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="25" t="str">
@@ -5026,19 +5021,19 @@
       <c r="AO37" s="28"/>
       <c r="AT37" s="1"/>
     </row>
-    <row r="38" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" ht="13" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="19" t="str">
@@ -5049,10 +5044,10 @@
         <v>5</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="19" t="str">
@@ -5063,10 +5058,10 @@
         <v>5</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="19" t="str">
@@ -5104,7 +5099,7 @@
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
     </row>
-    <row r="39" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>7</v>
       </c>
@@ -5175,17 +5170,17 @@
       <c r="AV39" s="41"/>
       <c r="AW39" s="41"/>
     </row>
-    <row r="40" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="27" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="15"/>
@@ -5195,10 +5190,10 @@
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="15"/>
@@ -5208,10 +5203,10 @@
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="27" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="15"/>
@@ -5250,17 +5245,17 @@
       <c r="AN40" s="27"/>
       <c r="AO40" s="28"/>
     </row>
-    <row r="41" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="15"/>
@@ -5270,10 +5265,10 @@
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="27" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="15"/>
@@ -5283,10 +5278,10 @@
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="27" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q41" s="28" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="15"/>
@@ -5325,19 +5320,19 @@
       <c r="AN41" s="27"/>
       <c r="AO41" s="28"/>
     </row>
-    <row r="42" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="15"/>
@@ -5345,14 +5340,12 @@
         <f t="shared" si="18"/>
         <v>IntObj</v>
       </c>
-      <c r="I42" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="I42" s="20"/>
       <c r="J42" s="23" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="15"/>
@@ -5364,10 +5357,10 @@
         <v>5</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="Q42" s="24" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="15"/>
@@ -5406,7 +5399,7 @@
       <c r="AN42" s="23"/>
       <c r="AO42" s="24"/>
     </row>
-    <row r="43" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="19" t="s">
         <v>7</v>
@@ -5415,10 +5408,10 @@
         <v>5</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="15"/>
@@ -5430,10 +5423,10 @@
         <v>5</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="15"/>
@@ -5445,10 +5438,10 @@
         <v>5</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q43" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="15"/>
@@ -5457,7 +5450,7 @@
         <v>integer</v>
       </c>
       <c r="U43" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="V43" s="23"/>
       <c r="W43" s="24"/>
@@ -5468,7 +5461,7 @@
         <v>integer</v>
       </c>
       <c r="AA43" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AB43" s="23"/>
       <c r="AC43" s="24"/>
@@ -5479,7 +5472,7 @@
         <v>integer</v>
       </c>
       <c r="AG43" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AH43" s="23"/>
       <c r="AI43" s="24"/>
@@ -5490,22 +5483,22 @@
         <v>integer</v>
       </c>
       <c r="AM43" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AN43" s="23"/>
       <c r="AO43" s="24"/>
     </row>
-    <row r="44" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="27" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="15"/>
@@ -5515,10 +5508,10 @@
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="27" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="15"/>
@@ -5528,10 +5521,10 @@
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="27" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="15"/>
@@ -5570,7 +5563,7 @@
       <c r="AN44" s="27"/>
       <c r="AO44" s="28"/>
     </row>
-    <row r="45" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="19" t="s">
         <v>8</v>
@@ -5579,10 +5572,10 @@
         <v>5</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="15"/>
@@ -5592,10 +5585,10 @@
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="15"/>
@@ -5605,10 +5598,10 @@
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="15"/>
@@ -5617,7 +5610,7 @@
         <v>number</v>
       </c>
       <c r="U45" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="V45" s="27"/>
       <c r="W45" s="28"/>
@@ -5628,7 +5621,7 @@
         <v>number</v>
       </c>
       <c r="AA45" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AB45" s="27"/>
       <c r="AC45" s="28"/>
@@ -5639,7 +5632,7 @@
         <v>number</v>
       </c>
       <c r="AG45" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AH45" s="27"/>
       <c r="AI45" s="28"/>
@@ -5650,24 +5643,24 @@
         <v>number</v>
       </c>
       <c r="AM45" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AN45" s="27"/>
       <c r="AO45" s="28"/>
     </row>
-    <row r="46" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="14"/>
@@ -5677,10 +5670,10 @@
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="27" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="14"/>
@@ -5690,10 +5683,10 @@
       </c>
       <c r="O46" s="29"/>
       <c r="P46" s="27" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="14"/>
@@ -5732,7 +5725,7 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="28"/>
     </row>
-    <row r="47" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="19" t="s">
         <v>9</v>
@@ -5741,10 +5734,10 @@
         <v>5</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="15"/>
@@ -5754,10 +5747,10 @@
       </c>
       <c r="I47" s="29"/>
       <c r="J47" s="27" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="15"/>
@@ -5767,10 +5760,10 @@
       </c>
       <c r="O47" s="29"/>
       <c r="P47" s="27" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q47" s="28" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="15"/>
@@ -5809,17 +5802,17 @@
       <c r="AN47" s="27"/>
       <c r="AO47" s="28"/>
     </row>
-    <row r="48" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="15"/>
@@ -5829,10 +5822,10 @@
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="27" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="15"/>
@@ -5842,10 +5835,10 @@
       </c>
       <c r="O48" s="31"/>
       <c r="P48" s="27" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="15"/>
@@ -5884,17 +5877,17 @@
       <c r="AN48" s="27"/>
       <c r="AO48" s="28"/>
     </row>
-    <row r="49" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:49" customFormat="1" ht="13" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="31"/>
       <c r="D49" s="27" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="15"/>
@@ -5904,10 +5897,10 @@
       </c>
       <c r="I49" s="29"/>
       <c r="J49" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="15"/>
@@ -5917,10 +5910,10 @@
       </c>
       <c r="O49" s="29"/>
       <c r="P49" s="27" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="Q49" s="28" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="15"/>
@@ -5959,9 +5952,9 @@
       <c r="AN49" s="27"/>
       <c r="AO49" s="28"/>
     </row>
-    <row r="50" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A50" s="36" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -6030,17 +6023,17 @@
       <c r="AV50" s="41"/>
       <c r="AW50" s="41"/>
     </row>
-    <row r="51" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" ht="13" customHeight="1">
       <c r="A51" s="15"/>
       <c r="B51" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="25" t="str">
@@ -6049,10 +6042,10 @@
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="27" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="25" t="str">
@@ -6061,10 +6054,10 @@
       </c>
       <c r="O51" s="29"/>
       <c r="P51" s="27" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Q51" s="28" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="25" t="str">
@@ -6100,17 +6093,17 @@
       <c r="AO51" s="28"/>
       <c r="AT51" s="1"/>
     </row>
-    <row r="52" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" ht="13" customHeight="1">
       <c r="A52" s="15"/>
       <c r="B52" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="25" t="str">
@@ -6119,10 +6112,10 @@
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="25" t="str">
@@ -6131,10 +6124,10 @@
       </c>
       <c r="O52" s="29"/>
       <c r="P52" s="27" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q52" s="28" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="25" t="str">
@@ -6174,31 +6167,29 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
     </row>
-    <row r="53" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" ht="13" customHeight="1">
       <c r="A53" s="15"/>
       <c r="B53" s="25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="27" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="19" t="str">
         <f t="shared" si="24"/>
         <v>IntObj</v>
       </c>
-      <c r="I53" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="I53" s="20"/>
       <c r="J53" s="23" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="19" t="str">
@@ -6209,10 +6200,10 @@
         <v>5</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="Q53" s="24" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="19" t="str">
@@ -6248,31 +6239,29 @@
       <c r="AO53" s="24"/>
       <c r="AT53" s="1"/>
     </row>
-    <row r="54" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" ht="13" customHeight="1">
       <c r="A54" s="15"/>
       <c r="B54" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="27" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="19" t="str">
         <f t="shared" si="24"/>
         <v>integer</v>
       </c>
-      <c r="I54" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="I54" s="20"/>
       <c r="J54" s="23" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="19" t="str">
@@ -6283,10 +6272,10 @@
         <v>5</v>
       </c>
       <c r="P54" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="Q54" s="24" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="19" t="str">
@@ -6324,19 +6313,19 @@
       <c r="AT54" s="1"/>
       <c r="AU54" s="1"/>
     </row>
-    <row r="55" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" ht="13" customHeight="1">
       <c r="A55" s="15"/>
       <c r="B55" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="19" t="str">
@@ -6344,13 +6333,13 @@
         <v>NumObj</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="19" t="str">
@@ -6361,10 +6350,10 @@
         <v>5</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="Q55" s="24" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="19" t="str">
@@ -6402,33 +6391,31 @@
       <c r="AT55" s="1"/>
       <c r="AU55" s="1"/>
     </row>
-    <row r="56" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" ht="13" customHeight="1">
       <c r="A56" s="15"/>
       <c r="B56" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="19" t="str">
         <f t="shared" si="24"/>
         <v>number</v>
       </c>
-      <c r="I56" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="I56" s="20"/>
       <c r="J56" s="23" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="19" t="str">
@@ -6439,10 +6426,10 @@
         <v>5</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q56" s="24" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="19" t="str">
@@ -6480,19 +6467,19 @@
       <c r="AT56" s="1"/>
       <c r="AU56" s="1"/>
     </row>
-    <row r="57" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" ht="13" customHeight="1">
       <c r="A57" s="14"/>
       <c r="B57" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="25" t="str">
@@ -6501,10 +6488,10 @@
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="27" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="25" t="str">
@@ -6513,10 +6500,10 @@
       </c>
       <c r="O57" s="29"/>
       <c r="P57" s="27" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q57" s="28" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="25" t="str">
@@ -6557,17 +6544,17 @@
       <c r="AT57" s="1"/>
       <c r="AU57" s="1"/>
     </row>
-    <row r="58" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" ht="13" customHeight="1">
       <c r="A58" s="15"/>
       <c r="B58" s="25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="25" t="str">
@@ -6576,10 +6563,10 @@
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="27" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="25" t="str">
@@ -6588,10 +6575,10 @@
       </c>
       <c r="O58" s="29"/>
       <c r="P58" s="27" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q58" s="28" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="25" t="str">
@@ -6629,17 +6616,17 @@
       <c r="AT58" s="1"/>
       <c r="AU58" s="1"/>
     </row>
-    <row r="59" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" ht="13" customHeight="1">
       <c r="A59" s="15"/>
       <c r="B59" s="25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="25" t="str">
@@ -6648,10 +6635,10 @@
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="27" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="25" t="str">
@@ -6660,10 +6647,10 @@
       </c>
       <c r="O59" s="26"/>
       <c r="P59" s="27" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="Q59" s="28" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="25" t="str">
@@ -6699,19 +6686,19 @@
       <c r="AO59" s="28"/>
       <c r="AT59" s="1"/>
     </row>
-    <row r="60" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" ht="13" customHeight="1">
       <c r="A60" s="15"/>
       <c r="B60" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="19" t="str">
@@ -6722,10 +6709,10 @@
         <v>5</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="19" t="str">
@@ -6736,10 +6723,10 @@
         <v>5</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="Q60" s="24" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="S60" s="15"/>
       <c r="T60" s="19" t="str">
@@ -6777,7 +6764,7 @@
       <c r="AT60" s="1"/>
       <c r="AU60" s="1"/>
     </row>
-    <row r="61" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A61" s="36" t="s">
         <v>8</v>
       </c>
@@ -6848,17 +6835,17 @@
       <c r="AV61" s="41"/>
       <c r="AW61" s="41"/>
     </row>
-    <row r="62" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" ht="13" customHeight="1">
       <c r="A62" s="15"/>
       <c r="B62" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="25" t="str">
@@ -6867,10 +6854,10 @@
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="27" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="25" t="str">
@@ -6879,10 +6866,10 @@
       </c>
       <c r="O62" s="29"/>
       <c r="P62" s="27" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="Q62" s="28" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="25" t="str">
@@ -6918,17 +6905,17 @@
       <c r="AO62" s="28"/>
       <c r="AT62" s="1"/>
     </row>
-    <row r="63" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" ht="13" customHeight="1">
       <c r="A63" s="15"/>
       <c r="B63" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="27" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="25" t="str">
@@ -6937,10 +6924,10 @@
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="27" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="25" t="str">
@@ -6949,10 +6936,10 @@
       </c>
       <c r="O63" s="29"/>
       <c r="P63" s="27" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="Q63" s="28" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="S63" s="15"/>
       <c r="T63" s="25" t="str">
@@ -6992,31 +6979,29 @@
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
     </row>
-    <row r="64" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:49" ht="13" customHeight="1">
       <c r="A64" s="15"/>
       <c r="B64" s="25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="27" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="19" t="str">
         <f t="shared" si="30"/>
         <v>IntObj</v>
       </c>
-      <c r="I64" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="I64" s="20"/>
       <c r="J64" s="23" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="19" t="str">
@@ -7027,10 +7012,10 @@
         <v>5</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="Q64" s="24" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="19" t="str">
@@ -7066,19 +7051,19 @@
       <c r="AO64" s="24"/>
       <c r="AT64" s="1"/>
     </row>
-    <row r="65" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:49" ht="13" customHeight="1">
       <c r="A65" s="15"/>
       <c r="B65" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="D65" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="19" t="str">
@@ -7089,10 +7074,10 @@
         <v>5</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="19" t="str">
@@ -7103,10 +7088,10 @@
         <v>5</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="Q65" s="24" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="19" t="str">
@@ -7114,10 +7099,10 @@
         <v>integer</v>
       </c>
       <c r="U65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V65" s="23" t="s">
         <v>18</v>
-      </c>
-      <c r="V65" s="23" t="s">
-        <v>19</v>
       </c>
       <c r="W65" s="24"/>
       <c r="Y65" s="15"/>
@@ -7162,33 +7147,31 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
     </row>
-    <row r="66" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:49" ht="13" customHeight="1">
       <c r="A66" s="15"/>
       <c r="B66" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="19" t="str">
         <f t="shared" si="30"/>
         <v>NumObj</v>
       </c>
-      <c r="I66" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="I66" s="20"/>
       <c r="J66" s="23" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="19" t="str">
@@ -7199,10 +7182,10 @@
         <v>5</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="Q66" s="24" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="19" t="str">
@@ -7240,19 +7223,19 @@
       <c r="AT66" s="1"/>
       <c r="AU66" s="1"/>
     </row>
-    <row r="67" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:49" ht="13" customHeight="1">
       <c r="A67" s="15"/>
       <c r="B67" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="D67" s="23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="19" t="str">
@@ -7260,13 +7243,13 @@
         <v>number</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="19" t="str">
@@ -7277,10 +7260,10 @@
         <v>5</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Q67" s="24" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="19" t="str">
@@ -7288,10 +7271,10 @@
         <v>number</v>
       </c>
       <c r="U67" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V67" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="V67" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="W67" s="24"/>
       <c r="Y67" s="15"/>
@@ -7336,19 +7319,19 @@
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
     </row>
-    <row r="68" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:49" ht="13" customHeight="1">
       <c r="A68" s="14"/>
       <c r="B68" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="25" t="str">
@@ -7357,10 +7340,10 @@
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="27" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M68" s="14"/>
       <c r="N68" s="25" t="str">
@@ -7369,10 +7352,10 @@
       </c>
       <c r="O68" s="29"/>
       <c r="P68" s="27" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q68" s="28" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="S68" s="14"/>
       <c r="T68" s="25" t="str">
@@ -7413,19 +7396,19 @@
       <c r="AT68" s="1"/>
       <c r="AU68" s="1"/>
     </row>
-    <row r="69" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:49" ht="13" customHeight="1">
       <c r="A69" s="15"/>
       <c r="B69" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>26</v>
-      </c>
       <c r="D69" s="23" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="25" t="str">
@@ -7434,10 +7417,10 @@
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="27" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K69" s="28" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="25" t="str">
@@ -7446,10 +7429,10 @@
       </c>
       <c r="O69" s="29"/>
       <c r="P69" s="27" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q69" s="28" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="S69" s="15"/>
       <c r="T69" s="25" t="str">
@@ -7487,17 +7470,17 @@
       <c r="AT69" s="1"/>
       <c r="AU69" s="1"/>
     </row>
-    <row r="70" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:49" ht="13" customHeight="1">
       <c r="A70" s="15"/>
       <c r="B70" s="25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C70" s="26"/>
       <c r="D70" s="27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="25" t="str">
@@ -7506,10 +7489,10 @@
       </c>
       <c r="I70" s="26"/>
       <c r="J70" s="27" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="25" t="str">
@@ -7518,10 +7501,10 @@
       </c>
       <c r="O70" s="26"/>
       <c r="P70" s="27" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Q70" s="28" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="25" t="str">
@@ -7557,17 +7540,17 @@
       <c r="AO70" s="28"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:49" ht="13" customHeight="1">
       <c r="A71" s="15"/>
       <c r="B71" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="25" t="str">
@@ -7576,10 +7559,10 @@
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="27" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="25" t="str">
@@ -7588,10 +7571,10 @@
       </c>
       <c r="O71" s="29"/>
       <c r="P71" s="27" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q71" s="28" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="25" t="str">
@@ -7629,9 +7612,9 @@
       <c r="AT71" s="1"/>
       <c r="AU71" s="1"/>
     </row>
-    <row r="72" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="38"/>
@@ -7700,19 +7683,19 @@
       <c r="AV72" s="41"/>
       <c r="AW72" s="41"/>
     </row>
-    <row r="73" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:49" ht="13" customHeight="1">
       <c r="A73" s="15"/>
       <c r="B73" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="19" t="str">
@@ -7723,10 +7706,10 @@
         <v>5</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="19" t="str">
@@ -7737,10 +7720,10 @@
         <v>5</v>
       </c>
       <c r="P73" s="23" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q73" s="24" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="19" t="str">
@@ -7776,7 +7759,7 @@
       <c r="AO73" s="24"/>
       <c r="AT73" s="1"/>
     </row>
-    <row r="74" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:49" ht="13" customHeight="1">
       <c r="A74" s="15"/>
       <c r="B74" s="19" t="s">
         <v>3</v>
@@ -7785,22 +7768,24 @@
         <v>5</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="25" t="str">
         <f t="shared" ref="H74:H82" si="36">$B74</f>
         <v>boolean</v>
       </c>
-      <c r="I74" s="29"/>
+      <c r="I74" s="29" t="s">
+        <v>5</v>
+      </c>
       <c r="J74" s="27" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="25" t="str">
@@ -7809,10 +7794,10 @@
       </c>
       <c r="O74" s="29"/>
       <c r="P74" s="27" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q74" s="28" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="S74" s="15"/>
       <c r="T74" s="25" t="str">
@@ -7852,19 +7837,19 @@
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
     </row>
-    <row r="75" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:49" ht="13" customHeight="1">
       <c r="A75" s="15"/>
       <c r="B75" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="19" t="str">
@@ -7875,10 +7860,10 @@
         <v>5</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="19" t="str">
@@ -7889,10 +7874,10 @@
         <v>5</v>
       </c>
       <c r="P75" s="23" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="Q75" s="24" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="S75" s="15"/>
       <c r="T75" s="19" t="str">
@@ -7928,7 +7913,7 @@
       <c r="AO75" s="24"/>
       <c r="AT75" s="1"/>
     </row>
-    <row r="76" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:49" ht="13" customHeight="1">
       <c r="A76" s="15"/>
       <c r="B76" s="19" t="s">
         <v>7</v>
@@ -7937,22 +7922,24 @@
         <v>5</v>
       </c>
       <c r="D76" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>209</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="25" t="str">
         <f t="shared" si="36"/>
         <v>integer</v>
       </c>
-      <c r="I76" s="29"/>
+      <c r="I76" s="29" t="s">
+        <v>5</v>
+      </c>
       <c r="J76" s="27" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="25" t="str">
@@ -7961,10 +7948,10 @@
       </c>
       <c r="O76" s="29"/>
       <c r="P76" s="27" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q76" s="28" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="S76" s="15"/>
       <c r="T76" s="25" t="str">
@@ -8002,19 +7989,19 @@
       <c r="AT76" s="1"/>
       <c r="AU76" s="1"/>
     </row>
-    <row r="77" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:49" ht="13" customHeight="1">
       <c r="A77" s="15"/>
       <c r="B77" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="19" t="str">
@@ -8025,10 +8012,10 @@
         <v>5</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="19" t="str">
@@ -8039,10 +8026,10 @@
         <v>5</v>
       </c>
       <c r="P77" s="23" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="Q77" s="24" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="S77" s="15"/>
       <c r="T77" s="19" t="str">
@@ -8078,7 +8065,7 @@
       <c r="AO77" s="24"/>
       <c r="AT77" s="1"/>
     </row>
-    <row r="78" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:49" ht="13" customHeight="1">
       <c r="A78" s="15"/>
       <c r="B78" s="19" t="s">
         <v>8</v>
@@ -8087,22 +8074,24 @@
         <v>5</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="25" t="str">
         <f t="shared" si="36"/>
         <v>number</v>
       </c>
-      <c r="I78" s="29"/>
+      <c r="I78" s="29" t="s">
+        <v>5</v>
+      </c>
       <c r="J78" s="27" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="25" t="str">
@@ -8111,10 +8100,10 @@
       </c>
       <c r="O78" s="29"/>
       <c r="P78" s="27" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q78" s="28" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="S78" s="15"/>
       <c r="T78" s="25" t="str">
@@ -8152,19 +8141,19 @@
       <c r="AT78" s="1"/>
       <c r="AU78" s="1"/>
     </row>
-    <row r="79" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:49" ht="13" customHeight="1">
       <c r="A79" s="15"/>
       <c r="B79" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="19" t="str">
@@ -8175,10 +8164,10 @@
         <v>5</v>
       </c>
       <c r="J79" s="23" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="19" t="str">
@@ -8189,10 +8178,10 @@
         <v>5</v>
       </c>
       <c r="P79" s="23" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q79" s="24" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S79" s="14"/>
       <c r="T79" s="19" t="str">
@@ -8230,7 +8219,7 @@
       <c r="AT79" s="1"/>
       <c r="AU79" s="1"/>
     </row>
-    <row r="80" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:49" ht="13" customHeight="1">
       <c r="A80" s="15"/>
       <c r="B80" s="19" t="s">
         <v>9</v>
@@ -8239,22 +8228,24 @@
         <v>5</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="25" t="str">
         <f t="shared" si="36"/>
         <v>text</v>
       </c>
-      <c r="I80" s="29"/>
+      <c r="I80" s="29" t="s">
+        <v>5</v>
+      </c>
       <c r="J80" s="27" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K80" s="28" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="25" t="str">
@@ -8263,10 +8254,10 @@
       </c>
       <c r="O80" s="29"/>
       <c r="P80" s="27" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q80" s="28" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="S80" s="15"/>
       <c r="T80" s="25" t="str">
@@ -8322,19 +8313,19 @@
       <c r="AU80" s="1"/>
       <c r="AV80" s="1"/>
     </row>
-    <row r="81" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:49" ht="13" customHeight="1">
       <c r="A81" s="15"/>
       <c r="B81" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="19" t="str">
@@ -8345,10 +8336,10 @@
         <v>5</v>
       </c>
       <c r="J81" s="23" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="19" t="str">
@@ -8359,10 +8350,10 @@
         <v>5</v>
       </c>
       <c r="P81" s="23" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="Q81" s="24" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="S81" s="15"/>
       <c r="T81" s="19" t="str">
@@ -8400,7 +8391,7 @@
       <c r="AT81" s="1"/>
       <c r="AU81" s="1"/>
     </row>
-    <row r="82" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:49" ht="13" customHeight="1">
       <c r="A82" s="15"/>
       <c r="B82" s="19" t="s">
         <v>11</v>
@@ -8409,10 +8400,10 @@
         <v>5</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="19" t="str">
@@ -8423,10 +8414,10 @@
         <v>5</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="19" t="str">
@@ -8437,10 +8428,10 @@
         <v>5</v>
       </c>
       <c r="P82" s="23" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="Q82" s="24" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="S82" s="15"/>
       <c r="T82" s="19" t="str">
@@ -8496,7 +8487,7 @@
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
     </row>
-    <row r="83" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A83" s="36" t="s">
         <v>9</v>
       </c>
@@ -8567,17 +8558,17 @@
       <c r="AV83" s="41"/>
       <c r="AW83" s="41"/>
     </row>
-    <row r="84" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:49" ht="13" customHeight="1">
       <c r="A84" s="15"/>
       <c r="B84" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="25" t="str">
@@ -8586,10 +8577,10 @@
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="27" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K84" s="28" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="25" t="str">
@@ -8598,10 +8589,10 @@
       </c>
       <c r="O84" s="29"/>
       <c r="P84" s="27" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q84" s="28" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="S84" s="15"/>
       <c r="T84" s="25" t="str">
@@ -8637,7 +8628,7 @@
       <c r="AO84" s="28"/>
       <c r="AT84" s="1"/>
     </row>
-    <row r="85" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:49" ht="13" customHeight="1">
       <c r="A85" s="15"/>
       <c r="B85" s="19" t="s">
         <v>3</v>
@@ -8646,10 +8637,10 @@
         <v>5</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="25" t="str">
@@ -8658,10 +8649,10 @@
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="27" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K85" s="28" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="25" t="str">
@@ -8670,10 +8661,10 @@
       </c>
       <c r="O85" s="29"/>
       <c r="P85" s="27" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q85" s="28" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="S85" s="15"/>
       <c r="T85" s="25" t="str">
@@ -8713,17 +8704,17 @@
       <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
     </row>
-    <row r="86" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:49" ht="13" customHeight="1">
       <c r="A86" s="15"/>
       <c r="B86" s="25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="25" t="str">
@@ -8732,10 +8723,10 @@
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="27" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K86" s="28" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="25" t="str">
@@ -8744,10 +8735,10 @@
       </c>
       <c r="O86" s="29"/>
       <c r="P86" s="27" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q86" s="28" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="S86" s="15"/>
       <c r="T86" s="25" t="str">
@@ -8783,19 +8774,19 @@
       <c r="AO86" s="28"/>
       <c r="AT86" s="1"/>
     </row>
-    <row r="87" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:49" ht="13" customHeight="1">
       <c r="A87" s="15"/>
       <c r="B87" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="25" t="str">
@@ -8804,10 +8795,10 @@
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="27" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K87" s="28" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="25" t="str">
@@ -8816,10 +8807,10 @@
       </c>
       <c r="O87" s="29"/>
       <c r="P87" s="27" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q87" s="28" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="S87" s="15"/>
       <c r="T87" s="25" t="str">
@@ -8857,17 +8848,17 @@
       <c r="AT87" s="1"/>
       <c r="AU87" s="1"/>
     </row>
-    <row r="88" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:49" ht="13" customHeight="1">
       <c r="A88" s="15"/>
       <c r="B88" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C88" s="26"/>
       <c r="D88" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="25" t="str">
@@ -8876,10 +8867,10 @@
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="27" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K88" s="28" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="25" t="str">
@@ -8888,10 +8879,10 @@
       </c>
       <c r="O88" s="26"/>
       <c r="P88" s="27" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q88" s="28" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="S88" s="15"/>
       <c r="T88" s="25" t="str">
@@ -8927,19 +8918,19 @@
       <c r="AO88" s="28"/>
       <c r="AT88" s="1"/>
     </row>
-    <row r="89" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:49" ht="13" customHeight="1">
       <c r="A89" s="15"/>
       <c r="B89" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="25" t="str">
@@ -8948,10 +8939,10 @@
       </c>
       <c r="I89" s="29"/>
       <c r="J89" s="27" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K89" s="28" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="25" t="str">
@@ -8960,10 +8951,10 @@
       </c>
       <c r="O89" s="29"/>
       <c r="P89" s="27" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q89" s="28" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="S89" s="15"/>
       <c r="T89" s="25" t="str">
@@ -9001,19 +8992,19 @@
       <c r="AT89" s="1"/>
       <c r="AU89" s="1"/>
     </row>
-    <row r="90" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:49" ht="13" customHeight="1">
       <c r="A90" s="15"/>
       <c r="B90" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G90" s="14"/>
       <c r="H90" s="25" t="str">
@@ -9022,10 +9013,10 @@
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="27" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K90" s="28" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="25" t="str">
@@ -9034,10 +9025,10 @@
       </c>
       <c r="O90" s="29"/>
       <c r="P90" s="27" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q90" s="28" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="S90" s="14"/>
       <c r="T90" s="25" t="str">
@@ -9075,19 +9066,19 @@
       <c r="AT90" s="1"/>
       <c r="AU90" s="1"/>
     </row>
-    <row r="91" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:49" ht="13" customHeight="1">
       <c r="A91" s="15"/>
       <c r="B91" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="19" t="str">
@@ -9095,13 +9086,13 @@
         <v>text</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J91" s="23" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="19" t="str">
@@ -9112,10 +9103,10 @@
         <v>5</v>
       </c>
       <c r="P91" s="23" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="Q91" s="24" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="S91" s="15"/>
       <c r="T91" s="19" t="str">
@@ -9123,10 +9114,10 @@
         <v>text</v>
       </c>
       <c r="U91" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V91" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W91" s="24"/>
       <c r="Y91" s="15"/>
@@ -9171,33 +9162,31 @@
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
     </row>
-    <row r="92" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:49" ht="13" customHeight="1">
       <c r="A92" s="15"/>
       <c r="B92" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="19" t="str">
         <f t="shared" si="42"/>
         <v>TextObj</v>
       </c>
-      <c r="I92" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="I92" s="20"/>
       <c r="J92" s="23" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="19" t="str">
@@ -9208,10 +9197,10 @@
         <v>5</v>
       </c>
       <c r="P92" s="23" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q92" s="24" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="S92" s="15"/>
       <c r="T92" s="19" t="str">
@@ -9249,19 +9238,19 @@
       <c r="AT92" s="1"/>
       <c r="AU92" s="1"/>
     </row>
-    <row r="93" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:49" ht="13" customHeight="1">
       <c r="A93" s="15"/>
       <c r="B93" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="19" t="str">
@@ -9272,10 +9261,10 @@
         <v>5</v>
       </c>
       <c r="J93" s="23" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="19" t="str">
@@ -9286,10 +9275,10 @@
         <v>5</v>
       </c>
       <c r="P93" s="23" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q93" s="24" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="S93" s="15"/>
       <c r="T93" s="19" t="str">
@@ -9297,10 +9286,10 @@
         <v>undefined</v>
       </c>
       <c r="U93" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V93" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W93" s="24"/>
       <c r="Y93" s="15"/>
@@ -9345,9 +9334,9 @@
       <c r="AU93" s="1"/>
       <c r="AV93" s="1"/>
     </row>
-    <row r="94" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A94" s="36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="38"/>
@@ -9416,17 +9405,17 @@
       <c r="AV94" s="41"/>
       <c r="AW94" s="41"/>
     </row>
-    <row r="95" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:49" ht="13" customHeight="1">
       <c r="A95" s="15"/>
       <c r="B95" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C95" s="26"/>
       <c r="D95" s="27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="25" t="str">
@@ -9435,10 +9424,10 @@
       </c>
       <c r="I95" s="26"/>
       <c r="J95" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K95" s="28" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="25" t="str">
@@ -9447,10 +9436,10 @@
       </c>
       <c r="O95" s="26"/>
       <c r="P95" s="27" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q95" s="28" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="S95" s="15"/>
       <c r="T95" s="25" t="str">
@@ -9486,17 +9475,17 @@
       <c r="AO95" s="28"/>
       <c r="AT95" s="1"/>
     </row>
-    <row r="96" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:49" ht="13" customHeight="1">
       <c r="A96" s="15"/>
       <c r="B96" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="26"/>
       <c r="D96" s="27" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="25" t="str">
@@ -9505,10 +9494,10 @@
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="27" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K96" s="28" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="25" t="str">
@@ -9517,10 +9506,10 @@
       </c>
       <c r="O96" s="26"/>
       <c r="P96" s="27" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="Q96" s="28" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="S96" s="15"/>
       <c r="T96" s="25" t="str">
@@ -9560,17 +9549,17 @@
       <c r="AU96" s="1"/>
       <c r="AV96" s="1"/>
     </row>
-    <row r="97" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:49" ht="13" customHeight="1">
       <c r="A97" s="15"/>
       <c r="B97" s="25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="25" t="str">
@@ -9579,10 +9568,10 @@
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="27" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K97" s="28" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="25" t="str">
@@ -9591,10 +9580,10 @@
       </c>
       <c r="O97" s="26"/>
       <c r="P97" s="27" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="Q97" s="28" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="S97" s="15"/>
       <c r="T97" s="25" t="str">
@@ -9630,17 +9619,17 @@
       <c r="AO97" s="28"/>
       <c r="AT97" s="1"/>
     </row>
-    <row r="98" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:49" ht="13" customHeight="1">
       <c r="A98" s="15"/>
       <c r="B98" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="27" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="25" t="str">
@@ -9649,10 +9638,10 @@
       </c>
       <c r="I98" s="26"/>
       <c r="J98" s="27" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="25" t="str">
@@ -9661,10 +9650,10 @@
       </c>
       <c r="O98" s="26"/>
       <c r="P98" s="27" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Q98" s="28" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="S98" s="15"/>
       <c r="T98" s="25" t="str">
@@ -9702,17 +9691,17 @@
       <c r="AT98" s="1"/>
       <c r="AU98" s="1"/>
     </row>
-    <row r="99" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:49" ht="13" customHeight="1">
       <c r="A99" s="15"/>
       <c r="B99" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C99" s="26"/>
       <c r="D99" s="27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G99" s="15"/>
       <c r="H99" s="25" t="str">
@@ -9721,10 +9710,10 @@
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="27" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K99" s="28" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="25" t="str">
@@ -9733,10 +9722,10 @@
       </c>
       <c r="O99" s="26"/>
       <c r="P99" s="27" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="Q99" s="28" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="S99" s="15"/>
       <c r="T99" s="25" t="str">
@@ -9772,17 +9761,17 @@
       <c r="AO99" s="28"/>
       <c r="AT99" s="1"/>
     </row>
-    <row r="100" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:49" ht="13" customHeight="1">
       <c r="A100" s="15"/>
       <c r="B100" s="25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C100" s="26"/>
       <c r="D100" s="27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="25" t="str">
@@ -9791,10 +9780,10 @@
       </c>
       <c r="I100" s="26"/>
       <c r="J100" s="27" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="25" t="str">
@@ -9803,10 +9792,10 @@
       </c>
       <c r="O100" s="26"/>
       <c r="P100" s="27" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="Q100" s="28" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="S100" s="15"/>
       <c r="T100" s="25" t="str">
@@ -9844,19 +9833,19 @@
       <c r="AT100" s="1"/>
       <c r="AU100" s="1"/>
     </row>
-    <row r="101" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:49" ht="13" customHeight="1">
       <c r="A101" s="15"/>
       <c r="B101" s="19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="25" t="str">
@@ -9865,10 +9854,10 @@
       </c>
       <c r="I101" s="29"/>
       <c r="J101" s="27" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M101" s="14"/>
       <c r="N101" s="25" t="str">
@@ -9877,10 +9866,10 @@
       </c>
       <c r="O101" s="29"/>
       <c r="P101" s="27" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q101" s="28" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="S101" s="14"/>
       <c r="T101" s="25" t="str">
@@ -9918,33 +9907,31 @@
       <c r="AT101" s="1"/>
       <c r="AU101" s="1"/>
     </row>
-    <row r="102" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:49" ht="13" customHeight="1">
       <c r="A102" s="15"/>
       <c r="B102" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="19" t="str">
         <f t="shared" si="48"/>
         <v>text</v>
       </c>
-      <c r="I102" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="I102" s="20"/>
       <c r="J102" s="23" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="19" t="str">
@@ -9955,10 +9942,10 @@
         <v>5</v>
       </c>
       <c r="P102" s="23" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q102" s="24" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="S102" s="15"/>
       <c r="T102" s="19" t="str">
@@ -9996,19 +9983,19 @@
       <c r="AT102" s="1"/>
       <c r="AU102" s="1"/>
     </row>
-    <row r="103" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:49" ht="13" customHeight="1">
       <c r="A103" s="15"/>
       <c r="B103" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="19" t="str">
@@ -10016,13 +10003,13 @@
         <v>TextObj</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J103" s="23" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="19" t="str">
@@ -10033,10 +10020,10 @@
         <v>5</v>
       </c>
       <c r="P103" s="23" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="Q103" s="24" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="S103" s="15"/>
       <c r="T103" s="19" t="str">
@@ -10074,19 +10061,19 @@
       <c r="AT103" s="1"/>
       <c r="AU103" s="1"/>
     </row>
-    <row r="104" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:49" ht="13" customHeight="1">
       <c r="A104" s="15"/>
       <c r="B104" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="19" t="str">
@@ -10097,10 +10084,10 @@
         <v>5</v>
       </c>
       <c r="J104" s="23" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M104" s="15"/>
       <c r="N104" s="19" t="str">
@@ -10111,10 +10098,10 @@
         <v>5</v>
       </c>
       <c r="P104" s="23" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q104" s="24" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="S104" s="15"/>
       <c r="T104" s="19" t="str">
@@ -10152,7 +10139,7 @@
       <c r="AT104" s="1"/>
       <c r="AU104" s="1"/>
     </row>
-    <row r="105" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
       <c r="A105" s="36" t="s">
         <v>11</v>
       </c>
@@ -10223,17 +10210,17 @@
       <c r="AV105" s="41"/>
       <c r="AW105" s="41"/>
     </row>
-    <row r="106" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:49" ht="13" customHeight="1">
       <c r="A106" s="18"/>
       <c r="B106" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="34" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G106" s="18"/>
       <c r="H106" s="32" t="str">
@@ -10242,10 +10229,10 @@
       </c>
       <c r="I106" s="33"/>
       <c r="J106" s="34" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K106" s="35" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="32" t="str">
@@ -10254,10 +10241,10 @@
       </c>
       <c r="O106" s="33"/>
       <c r="P106" s="34" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="Q106" s="35" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="S106" s="18"/>
       <c r="T106" s="32" t="str">
@@ -10297,13 +10284,13 @@
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
     </row>
-    <row r="108" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:49" ht="13" customHeight="1">
       <c r="A108" s="2">
         <f>COUNTA(A6:A106)</f>
         <v>10</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C108" s="2">
         <f>SUM(D108:E108)</f>
@@ -10318,9 +10305,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:49" ht="13" customHeight="1">
       <c r="B109" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2">
         <f>SUM(D109:E109)</f>
@@ -10335,9 +10322,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:49" ht="13" customHeight="1">
       <c r="B110" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C110" s="9">
         <f>SUM(C108:C109)</f>
@@ -10352,17 +10339,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:49" ht="13" customHeight="1">
       <c r="B112" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" ht="13" customHeight="1">
       <c r="B113" s="3">
         <v>325</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" ht="13" customHeight="1">
       <c r="B114" s="3">
         <f>B113-B112+1</f>
         <v>88</v>
@@ -10918,63 +10905,73 @@
     <hyperlink ref="Q100" r:id="rId546" display="Fail\ExpAssignTextObjNumberField.quorum"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId547"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
+++ b/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="600" windowWidth="29580" windowHeight="18420"/>
+    <workbookView xWindow="645" yWindow="600" windowWidth="29580" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Quorum 3.0" sheetId="1" r:id="rId1"/>
     <sheet name="VBA Code for Hyperlinks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1857,6 +1857,7 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2404,67 +2405,67 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AW114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="34.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="3" customWidth="1"/>
-    <col min="10" max="11" width="34.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="4.5" style="3" customWidth="1"/>
-    <col min="16" max="17" width="34.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="4.5" style="3" customWidth="1"/>
-    <col min="22" max="23" width="34.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="10.1640625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="4.5" style="3" customWidth="1"/>
-    <col min="28" max="29" width="34.6640625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="3.6640625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="10.1640625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="4.5" style="3" customWidth="1"/>
-    <col min="34" max="35" width="34.6640625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="3.6640625" style="3" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="10.1640625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="4.5" style="3" customWidth="1"/>
-    <col min="40" max="41" width="34.6640625" style="3" customWidth="1"/>
-    <col min="42" max="16384" width="14.5" style="3"/>
+    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="34.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="34.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="3" customWidth="1"/>
+    <col min="16" max="17" width="34.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" style="3" customWidth="1"/>
+    <col min="22" max="23" width="34.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="4.42578125" style="3" customWidth="1"/>
+    <col min="28" max="29" width="34.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="3" customWidth="1"/>
+    <col min="34" max="35" width="34.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="3.7109375" style="3" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="10.140625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="3" customWidth="1"/>
+    <col min="40" max="41" width="34.7109375" style="3" customWidth="1"/>
+    <col min="42" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="17">
+    <row r="1" spans="1:49" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:49" ht="17">
+    <row r="2" spans="1:49" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>444</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:49" ht="17">
+    <row r="3" spans="1:49" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:49" s="13" customFormat="1">
+    <row r="4" spans="1:49" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>445</v>
       </c>
@@ -2521,7 +2522,7 @@
       <c r="AV4" s="12"/>
       <c r="AW4" s="12"/>
     </row>
-    <row r="5" spans="1:49" ht="13" customHeight="1">
+    <row r="5" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2667,7 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="6" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>91</v>
       </c>
@@ -2737,7 +2738,7 @@
       <c r="AV6" s="41"/>
       <c r="AW6" s="41"/>
     </row>
-    <row r="7" spans="1:49" ht="13" customHeight="1">
+    <row r="7" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="19" t="s">
         <v>91</v>
@@ -2815,7 +2816,7 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
     </row>
-    <row r="8" spans="1:49" ht="13" customHeight="1">
+    <row r="8" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="19" t="s">
         <v>3</v>
@@ -2893,7 +2894,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:49" ht="13" customHeight="1">
+    <row r="9" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="25" t="s">
         <v>92</v>
@@ -2963,7 +2964,7 @@
       <c r="AO9" s="28"/>
       <c r="AT9" s="1"/>
     </row>
-    <row r="10" spans="1:49" ht="13" customHeight="1">
+    <row r="10" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="25" t="s">
         <v>45</v>
@@ -3035,7 +3036,7 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
     </row>
-    <row r="11" spans="1:49" ht="13" customHeight="1">
+    <row r="11" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="25" t="s">
         <v>93</v>
@@ -3107,7 +3108,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
     </row>
-    <row r="12" spans="1:49" ht="13" customHeight="1">
+    <row r="12" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="25" t="s">
         <v>46</v>
@@ -3179,7 +3180,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
     </row>
-    <row r="13" spans="1:49" ht="13" customHeight="1">
+    <row r="13" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="19" t="s">
         <v>51</v>
@@ -3256,7 +3257,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
     </row>
-    <row r="14" spans="1:49" ht="13" customHeight="1">
+    <row r="14" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="25" t="s">
         <v>47</v>
@@ -3328,7 +3329,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
     </row>
-    <row r="15" spans="1:49" ht="13" customHeight="1">
+    <row r="15" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="25" t="s">
         <v>94</v>
@@ -3398,7 +3399,7 @@
       <c r="AO15" s="28"/>
       <c r="AT15" s="1"/>
     </row>
-    <row r="16" spans="1:49" ht="13" customHeight="1">
+    <row r="16" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>48</v>
@@ -3476,7 +3477,7 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
     </row>
-    <row r="17" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="17" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>3</v>
       </c>
@@ -3547,7 +3548,7 @@
       <c r="AV17" s="41"/>
       <c r="AW17" s="41"/>
     </row>
-    <row r="18" spans="1:49" ht="13" customHeight="1">
+    <row r="18" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>91</v>
@@ -3623,7 +3624,7 @@
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
     </row>
-    <row r="19" spans="1:49" s="5" customFormat="1" ht="13" customHeight="1">
+    <row r="19" spans="1:49" s="5" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="19" t="s">
         <v>4</v>
@@ -3712,7 +3713,7 @@
       <c r="AV19" s="7"/>
       <c r="AW19" s="7"/>
     </row>
-    <row r="20" spans="1:49" ht="13" customHeight="1">
+    <row r="20" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="25" t="s">
         <v>92</v>
@@ -3782,7 +3783,7 @@
       <c r="AO20" s="28"/>
       <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:49" ht="13" customHeight="1">
+    <row r="21" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="25" t="s">
         <v>7</v>
@@ -3854,7 +3855,7 @@
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
     </row>
-    <row r="22" spans="1:49" ht="13" customHeight="1">
+    <row r="22" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="25" t="s">
         <v>93</v>
@@ -3924,7 +3925,7 @@
       <c r="AO22" s="28"/>
       <c r="AT22" s="1"/>
     </row>
-    <row r="23" spans="1:49" ht="13" customHeight="1">
+    <row r="23" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="25" t="s">
         <v>8</v>
@@ -3996,7 +3997,7 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
     </row>
-    <row r="24" spans="1:49" ht="13" customHeight="1">
+    <row r="24" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>13</v>
@@ -4073,7 +4074,7 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
     </row>
-    <row r="25" spans="1:49" ht="13" customHeight="1">
+    <row r="25" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>9</v>
@@ -4147,7 +4148,7 @@
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
     </row>
-    <row r="26" spans="1:49" ht="13" customHeight="1">
+    <row r="26" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="25" t="s">
         <v>94</v>
@@ -4217,7 +4218,7 @@
       <c r="AO26" s="28"/>
       <c r="AT26" s="1"/>
     </row>
-    <row r="27" spans="1:49" ht="13" customHeight="1">
+    <row r="27" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="25" t="s">
         <v>11</v>
@@ -4289,7 +4290,7 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
     </row>
-    <row r="28" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="28" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
         <v>92</v>
       </c>
@@ -4360,7 +4361,7 @@
       <c r="AV28" s="41"/>
       <c r="AW28" s="41"/>
     </row>
-    <row r="29" spans="1:49" ht="13" customHeight="1">
+    <row r="29" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="25" t="s">
         <v>91</v>
@@ -4430,7 +4431,7 @@
       <c r="AO29" s="28"/>
       <c r="AT29" s="1"/>
     </row>
-    <row r="30" spans="1:49" ht="13" customHeight="1">
+    <row r="30" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="25" t="s">
         <v>3</v>
@@ -4504,7 +4505,7 @@
       <c r="AU30" s="1"/>
       <c r="AV30" s="1"/>
     </row>
-    <row r="31" spans="1:49" ht="13" customHeight="1">
+    <row r="31" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>92</v>
@@ -4582,7 +4583,7 @@
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
     </row>
-    <row r="32" spans="1:49" ht="13" customHeight="1">
+    <row r="32" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>53</v>
@@ -4658,7 +4659,7 @@
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
     </row>
-    <row r="33" spans="1:49" ht="13" customHeight="1">
+    <row r="33" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="25" t="s">
         <v>93</v>
@@ -4730,7 +4731,7 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
     </row>
-    <row r="34" spans="1:49" ht="13" customHeight="1">
+    <row r="34" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="25" t="s">
         <v>55</v>
@@ -4802,7 +4803,7 @@
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
     </row>
-    <row r="35" spans="1:49" ht="13" customHeight="1">
+    <row r="35" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="19" t="s">
         <v>60</v>
@@ -4879,7 +4880,7 @@
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
     </row>
-    <row r="36" spans="1:49" ht="13" customHeight="1">
+    <row r="36" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="25" t="s">
         <v>56</v>
@@ -4951,7 +4952,7 @@
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
     </row>
-    <row r="37" spans="1:49" ht="13" customHeight="1">
+    <row r="37" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="25" t="s">
         <v>94</v>
@@ -5021,7 +5022,7 @@
       <c r="AO37" s="28"/>
       <c r="AT37" s="1"/>
     </row>
-    <row r="38" spans="1:49" ht="13" customHeight="1">
+    <row r="38" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="19" t="s">
         <v>57</v>
@@ -5099,7 +5100,7 @@
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
     </row>
-    <row r="39" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="39" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>7</v>
       </c>
@@ -5170,7 +5171,7 @@
       <c r="AV39" s="41"/>
       <c r="AW39" s="41"/>
     </row>
-    <row r="40" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="40" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="30" t="s">
         <v>91</v>
@@ -5245,7 +5246,7 @@
       <c r="AN40" s="27"/>
       <c r="AO40" s="28"/>
     </row>
-    <row r="41" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="41" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="30" t="s">
         <v>3</v>
@@ -5320,7 +5321,7 @@
       <c r="AN41" s="27"/>
       <c r="AO41" s="28"/>
     </row>
-    <row r="42" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="42" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="19" t="s">
         <v>92</v>
@@ -5399,7 +5400,7 @@
       <c r="AN42" s="23"/>
       <c r="AO42" s="24"/>
     </row>
-    <row r="43" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="43" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="19" t="s">
         <v>7</v>
@@ -5488,7 +5489,7 @@
       <c r="AN43" s="23"/>
       <c r="AO43" s="24"/>
     </row>
-    <row r="44" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="44" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="25" t="s">
         <v>93</v>
@@ -5563,7 +5564,7 @@
       <c r="AN44" s="27"/>
       <c r="AO44" s="28"/>
     </row>
-    <row r="45" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="45" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="19" t="s">
         <v>8</v>
@@ -5648,7 +5649,7 @@
       <c r="AN45" s="27"/>
       <c r="AO45" s="28"/>
     </row>
-    <row r="46" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="46" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="19" t="s">
         <v>13</v>
@@ -5725,7 +5726,7 @@
       <c r="AN46" s="27"/>
       <c r="AO46" s="28"/>
     </row>
-    <row r="47" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="47" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="19" t="s">
         <v>9</v>
@@ -5802,7 +5803,7 @@
       <c r="AN47" s="27"/>
       <c r="AO47" s="28"/>
     </row>
-    <row r="48" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="48" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="30" t="s">
         <v>94</v>
@@ -5877,7 +5878,7 @@
       <c r="AN48" s="27"/>
       <c r="AO48" s="28"/>
     </row>
-    <row r="49" spans="1:49" customFormat="1" ht="13" customHeight="1">
+    <row r="49" spans="1:49" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="30" t="s">
         <v>11</v>
@@ -5952,7 +5953,7 @@
       <c r="AN49" s="27"/>
       <c r="AO49" s="28"/>
     </row>
-    <row r="50" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="50" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
         <v>93</v>
       </c>
@@ -6023,7 +6024,7 @@
       <c r="AV50" s="41"/>
       <c r="AW50" s="41"/>
     </row>
-    <row r="51" spans="1:49" ht="13" customHeight="1">
+    <row r="51" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="25" t="s">
         <v>91</v>
@@ -6093,7 +6094,7 @@
       <c r="AO51" s="28"/>
       <c r="AT51" s="1"/>
     </row>
-    <row r="52" spans="1:49" ht="13" customHeight="1">
+    <row r="52" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="25" t="s">
         <v>3</v>
@@ -6167,7 +6168,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
     </row>
-    <row r="53" spans="1:49" ht="13" customHeight="1">
+    <row r="53" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="25" t="s">
         <v>92</v>
@@ -6239,7 +6240,7 @@
       <c r="AO53" s="24"/>
       <c r="AT53" s="1"/>
     </row>
-    <row r="54" spans="1:49" ht="13" customHeight="1">
+    <row r="54" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="25" t="s">
         <v>62</v>
@@ -6313,7 +6314,7 @@
       <c r="AT54" s="1"/>
       <c r="AU54" s="1"/>
     </row>
-    <row r="55" spans="1:49" ht="13" customHeight="1">
+    <row r="55" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="19" t="s">
         <v>93</v>
@@ -6391,7 +6392,7 @@
       <c r="AT55" s="1"/>
       <c r="AU55" s="1"/>
     </row>
-    <row r="56" spans="1:49" ht="13" customHeight="1">
+    <row r="56" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="19" t="s">
         <v>63</v>
@@ -6467,7 +6468,7 @@
       <c r="AT56" s="1"/>
       <c r="AU56" s="1"/>
     </row>
-    <row r="57" spans="1:49" ht="13" customHeight="1">
+    <row r="57" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="19" t="s">
         <v>69</v>
@@ -6544,7 +6545,7 @@
       <c r="AT57" s="1"/>
       <c r="AU57" s="1"/>
     </row>
-    <row r="58" spans="1:49" ht="13" customHeight="1">
+    <row r="58" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="25" t="s">
         <v>65</v>
@@ -6616,7 +6617,7 @@
       <c r="AT58" s="1"/>
       <c r="AU58" s="1"/>
     </row>
-    <row r="59" spans="1:49" ht="13" customHeight="1">
+    <row r="59" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="25" t="s">
         <v>94</v>
@@ -6686,7 +6687,7 @@
       <c r="AO59" s="28"/>
       <c r="AT59" s="1"/>
     </row>
-    <row r="60" spans="1:49" ht="13" customHeight="1">
+    <row r="60" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="19" t="s">
         <v>66</v>
@@ -6764,7 +6765,7 @@
       <c r="AT60" s="1"/>
       <c r="AU60" s="1"/>
     </row>
-    <row r="61" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="61" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="36" t="s">
         <v>8</v>
       </c>
@@ -6835,7 +6836,7 @@
       <c r="AV61" s="41"/>
       <c r="AW61" s="41"/>
     </row>
-    <row r="62" spans="1:49" ht="13" customHeight="1">
+    <row r="62" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="25" t="s">
         <v>91</v>
@@ -6905,7 +6906,7 @@
       <c r="AO62" s="28"/>
       <c r="AT62" s="1"/>
     </row>
-    <row r="63" spans="1:49" ht="13" customHeight="1">
+    <row r="63" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="25" t="s">
         <v>3</v>
@@ -6979,7 +6980,7 @@
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
     </row>
-    <row r="64" spans="1:49" ht="13" customHeight="1">
+    <row r="64" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="25" t="s">
         <v>92</v>
@@ -7051,7 +7052,7 @@
       <c r="AO64" s="24"/>
       <c r="AT64" s="1"/>
     </row>
-    <row r="65" spans="1:49" ht="13" customHeight="1">
+    <row r="65" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="19" t="s">
         <v>15</v>
@@ -7147,7 +7148,7 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
     </row>
-    <row r="66" spans="1:49" ht="13" customHeight="1">
+    <row r="66" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="19" t="s">
         <v>93</v>
@@ -7223,7 +7224,7 @@
       <c r="AT66" s="1"/>
       <c r="AU66" s="1"/>
     </row>
-    <row r="67" spans="1:49" ht="13" customHeight="1">
+    <row r="67" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="19" t="s">
         <v>19</v>
@@ -7319,7 +7320,7 @@
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
     </row>
-    <row r="68" spans="1:49" ht="13" customHeight="1">
+    <row r="68" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="19" t="s">
         <v>28</v>
@@ -7396,7 +7397,7 @@
       <c r="AT68" s="1"/>
       <c r="AU68" s="1"/>
     </row>
-    <row r="69" spans="1:49" ht="13" customHeight="1">
+    <row r="69" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="19" t="s">
         <v>24</v>
@@ -7470,7 +7471,7 @@
       <c r="AT69" s="1"/>
       <c r="AU69" s="1"/>
     </row>
-    <row r="70" spans="1:49" ht="13" customHeight="1">
+    <row r="70" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="25" t="s">
         <v>94</v>
@@ -7540,7 +7541,7 @@
       <c r="AO70" s="28"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:49" ht="13" customHeight="1">
+    <row r="71" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="25" t="s">
         <v>26</v>
@@ -7612,7 +7613,7 @@
       <c r="AT71" s="1"/>
       <c r="AU71" s="1"/>
     </row>
-    <row r="72" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="72" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>13</v>
       </c>
@@ -7683,7 +7684,7 @@
       <c r="AV72" s="41"/>
       <c r="AW72" s="41"/>
     </row>
-    <row r="73" spans="1:49" ht="13" customHeight="1">
+    <row r="73" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="19" t="s">
         <v>91</v>
@@ -7759,7 +7760,7 @@
       <c r="AO73" s="24"/>
       <c r="AT73" s="1"/>
     </row>
-    <row r="74" spans="1:49" ht="13" customHeight="1">
+    <row r="74" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="19" t="s">
         <v>3</v>
@@ -7837,7 +7838,7 @@
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
     </row>
-    <row r="75" spans="1:49" ht="13" customHeight="1">
+    <row r="75" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="19" t="s">
         <v>92</v>
@@ -7913,7 +7914,7 @@
       <c r="AO75" s="24"/>
       <c r="AT75" s="1"/>
     </row>
-    <row r="76" spans="1:49" ht="13" customHeight="1">
+    <row r="76" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="19" t="s">
         <v>7</v>
@@ -7989,7 +7990,7 @@
       <c r="AT76" s="1"/>
       <c r="AU76" s="1"/>
     </row>
-    <row r="77" spans="1:49" ht="13" customHeight="1">
+    <row r="77" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="19" t="s">
         <v>93</v>
@@ -8065,7 +8066,7 @@
       <c r="AO77" s="24"/>
       <c r="AT77" s="1"/>
     </row>
-    <row r="78" spans="1:49" ht="13" customHeight="1">
+    <row r="78" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="19" t="s">
         <v>8</v>
@@ -8141,7 +8142,7 @@
       <c r="AT78" s="1"/>
       <c r="AU78" s="1"/>
     </row>
-    <row r="79" spans="1:49" ht="13" customHeight="1">
+    <row r="79" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="19" t="s">
         <v>13</v>
@@ -8219,7 +8220,7 @@
       <c r="AT79" s="1"/>
       <c r="AU79" s="1"/>
     </row>
-    <row r="80" spans="1:49" ht="13" customHeight="1">
+    <row r="80" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="19" t="s">
         <v>9</v>
@@ -8313,7 +8314,7 @@
       <c r="AU80" s="1"/>
       <c r="AV80" s="1"/>
     </row>
-    <row r="81" spans="1:49" ht="13" customHeight="1">
+    <row r="81" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="19" t="s">
         <v>94</v>
@@ -8391,7 +8392,7 @@
       <c r="AT81" s="1"/>
       <c r="AU81" s="1"/>
     </row>
-    <row r="82" spans="1:49" ht="13" customHeight="1">
+    <row r="82" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="19" t="s">
         <v>11</v>
@@ -8487,7 +8488,7 @@
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
     </row>
-    <row r="83" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="83" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
         <v>9</v>
       </c>
@@ -8558,7 +8559,7 @@
       <c r="AV83" s="41"/>
       <c r="AW83" s="41"/>
     </row>
-    <row r="84" spans="1:49" ht="13" customHeight="1">
+    <row r="84" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="25" t="s">
         <v>91</v>
@@ -8628,7 +8629,7 @@
       <c r="AO84" s="28"/>
       <c r="AT84" s="1"/>
     </row>
-    <row r="85" spans="1:49" ht="13" customHeight="1">
+    <row r="85" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="19" t="s">
         <v>3</v>
@@ -8704,7 +8705,7 @@
       <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
     </row>
-    <row r="86" spans="1:49" ht="13" customHeight="1">
+    <row r="86" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="25" t="s">
         <v>92</v>
@@ -8774,7 +8775,7 @@
       <c r="AO86" s="28"/>
       <c r="AT86" s="1"/>
     </row>
-    <row r="87" spans="1:49" ht="13" customHeight="1">
+    <row r="87" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="19" t="s">
         <v>30</v>
@@ -8848,7 +8849,7 @@
       <c r="AT87" s="1"/>
       <c r="AU87" s="1"/>
     </row>
-    <row r="88" spans="1:49" ht="13" customHeight="1">
+    <row r="88" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="25" t="s">
         <v>93</v>
@@ -8918,7 +8919,7 @@
       <c r="AO88" s="28"/>
       <c r="AT88" s="1"/>
     </row>
-    <row r="89" spans="1:49" ht="13" customHeight="1">
+    <row r="89" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="19" t="s">
         <v>32</v>
@@ -8992,7 +8993,7 @@
       <c r="AT89" s="1"/>
       <c r="AU89" s="1"/>
     </row>
-    <row r="90" spans="1:49" ht="13" customHeight="1">
+    <row r="90" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="19" t="s">
         <v>43</v>
@@ -9066,7 +9067,7 @@
       <c r="AT90" s="1"/>
       <c r="AU90" s="1"/>
     </row>
-    <row r="91" spans="1:49" ht="13" customHeight="1">
+    <row r="91" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="19" t="s">
         <v>34</v>
@@ -9162,7 +9163,7 @@
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
     </row>
-    <row r="92" spans="1:49" ht="13" customHeight="1">
+    <row r="92" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="19" t="s">
         <v>94</v>
@@ -9238,7 +9239,7 @@
       <c r="AT92" s="1"/>
       <c r="AU92" s="1"/>
     </row>
-    <row r="93" spans="1:49" ht="13" customHeight="1">
+    <row r="93" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="19" t="s">
         <v>39</v>
@@ -9334,7 +9335,7 @@
       <c r="AU93" s="1"/>
       <c r="AV93" s="1"/>
     </row>
-    <row r="94" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="94" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
         <v>94</v>
       </c>
@@ -9405,7 +9406,7 @@
       <c r="AV94" s="41"/>
       <c r="AW94" s="41"/>
     </row>
-    <row r="95" spans="1:49" ht="13" customHeight="1">
+    <row r="95" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="25" t="s">
         <v>91</v>
@@ -9475,7 +9476,7 @@
       <c r="AO95" s="28"/>
       <c r="AT95" s="1"/>
     </row>
-    <row r="96" spans="1:49" ht="13" customHeight="1">
+    <row r="96" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="25" t="s">
         <v>3</v>
@@ -9549,7 +9550,7 @@
       <c r="AU96" s="1"/>
       <c r="AV96" s="1"/>
     </row>
-    <row r="97" spans="1:49" ht="13" customHeight="1">
+    <row r="97" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="25" t="s">
         <v>92</v>
@@ -9619,7 +9620,7 @@
       <c r="AO97" s="28"/>
       <c r="AT97" s="1"/>
     </row>
-    <row r="98" spans="1:49" ht="13" customHeight="1">
+    <row r="98" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="25" t="s">
         <v>71</v>
@@ -9691,7 +9692,7 @@
       <c r="AT98" s="1"/>
       <c r="AU98" s="1"/>
     </row>
-    <row r="99" spans="1:49" ht="13" customHeight="1">
+    <row r="99" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="25" t="s">
         <v>93</v>
@@ -9761,7 +9762,7 @@
       <c r="AO99" s="28"/>
       <c r="AT99" s="1"/>
     </row>
-    <row r="100" spans="1:49" ht="13" customHeight="1">
+    <row r="100" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="25" t="s">
         <v>72</v>
@@ -9833,7 +9834,7 @@
       <c r="AT100" s="1"/>
       <c r="AU100" s="1"/>
     </row>
-    <row r="101" spans="1:49" ht="13" customHeight="1">
+    <row r="101" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="19" t="s">
         <v>78</v>
@@ -9907,7 +9908,7 @@
       <c r="AT101" s="1"/>
       <c r="AU101" s="1"/>
     </row>
-    <row r="102" spans="1:49" ht="13" customHeight="1">
+    <row r="102" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="19" t="s">
         <v>73</v>
@@ -9983,7 +9984,7 @@
       <c r="AT102" s="1"/>
       <c r="AU102" s="1"/>
     </row>
-    <row r="103" spans="1:49" ht="13" customHeight="1">
+    <row r="103" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="19" t="s">
         <v>94</v>
@@ -10061,7 +10062,7 @@
       <c r="AT103" s="1"/>
       <c r="AU103" s="1"/>
     </row>
-    <row r="104" spans="1:49" ht="13" customHeight="1">
+    <row r="104" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="19" t="s">
         <v>75</v>
@@ -10139,7 +10140,7 @@
       <c r="AT104" s="1"/>
       <c r="AU104" s="1"/>
     </row>
-    <row r="105" spans="1:49" s="11" customFormat="1" ht="13" customHeight="1">
+    <row r="105" spans="1:49" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
         <v>11</v>
       </c>
@@ -10210,7 +10211,7 @@
       <c r="AV105" s="41"/>
       <c r="AW105" s="41"/>
     </row>
-    <row r="106" spans="1:49" ht="13" customHeight="1">
+    <row r="106" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18"/>
       <c r="B106" s="32" t="s">
         <v>13</v>
@@ -10284,7 +10285,7 @@
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
     </row>
-    <row r="108" spans="1:49" ht="13" customHeight="1">
+    <row r="108" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <f>COUNTA(A6:A106)</f>
         <v>10</v>
@@ -10305,7 +10306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:49" ht="13" customHeight="1">
+    <row r="109" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>155</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:49" ht="13" customHeight="1">
+    <row r="110" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
         <v>257</v>
       </c>
@@ -10339,17 +10340,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:49" ht="13" customHeight="1">
+    <row r="112" spans="1:49" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="3">
         <v>238</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="13" customHeight="1">
+    <row r="113" spans="2:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="3">
         <v>325</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="13" customHeight="1">
+    <row r="114" spans="2:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="3">
         <f>B113-B112+1</f>
         <v>88</v>
@@ -10923,44 +10924,44 @@
       <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>443</v>
       </c>

--- a/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
+++ b/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Quorum 3.0" sheetId="1" r:id="rId1"/>
     <sheet name="VBA Code for Hyperlinks" sheetId="2" r:id="rId2"/>
+    <sheet name="tests.txt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="589">
   <si>
     <t>Type System</t>
   </si>
@@ -802,12 +803,6 @@
     <t>Pass\ImpAssignBoolObjBoolObjField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignBoolObjBoolean.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignBoolObjBooleanField.quorum</t>
-  </si>
-  <si>
     <t>Fail\ImpAssignBoolObjIntObj.quorum</t>
   </si>
   <si>
@@ -850,12 +845,6 @@
     <t>Pass\ImpAssignBoolObjUndefinedField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignBooleanBoolObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignBooleanBoolObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ImpAssignBooleanBoolean.quorum</t>
   </si>
   <si>
@@ -916,12 +905,6 @@
     <t>Pass\ImpAssignIntObjIntObjField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignIntObjInteger.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignIntObjIntegerField.quorum</t>
-  </si>
-  <si>
     <t>Fail\ImpAssignIntObjText.quorum</t>
   </si>
   <si>
@@ -952,12 +935,6 @@
     <t>Fail\ImpAssignIntegerBooleanField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignIntegerIntObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignIntegerIntObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ImpAssignIntegerInteger.quorum</t>
   </si>
   <si>
@@ -988,30 +965,12 @@
     <t>Fail\ImpAssignNumObjBooleanField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignNumObjIntObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignNumObjIntObjField.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignNumObjInteger.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignNumObjIntegerField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ImpAssignNumObjNumObj.quorum</t>
   </si>
   <si>
     <t>Pass\ImpAssignNumObjNumObjField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignNumObjNumber.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignNumObjNumberField.quorum</t>
-  </si>
-  <si>
     <t>Fail\ImpAssignNumObjTextObj.quorum</t>
   </si>
   <si>
@@ -1036,24 +995,12 @@
     <t>Fail\ImpAssignNumberBooleanField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignNumberIntObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignNumberIntObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ImpAssignNumberInteger.quorum</t>
   </si>
   <si>
     <t>Pass\ImpAssignNumberIntegerField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignNumberNumObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignNumberNumObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ImpAssignNumberNumber.quorum</t>
   </si>
   <si>
@@ -1108,12 +1055,6 @@
     <t>Pass\ImpAssignTextTextField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignTextTextObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignTextTextObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ImpAssignTextUndefined.quorum</t>
   </si>
   <si>
@@ -1156,12 +1097,6 @@
     <t>Fail\ImpAssignTextObjNumberField.quorum</t>
   </si>
   <si>
-    <t>Pass\ImpAssignTextObjText.quorum</t>
-  </si>
-  <si>
-    <t>Pass\ImpAssignTextObjTextField.quorum</t>
-  </si>
-  <si>
     <t>Pass\ImpAssignTextObjTextObj.quorum</t>
   </si>
   <si>
@@ -1787,13 +1722,79 @@
   </si>
   <si>
     <t>Fail\ImFailignIntegerNumObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignBoolObjBoolean.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignBoolObjBooleanField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignBooleanBoolObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignBooleanBoolObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignIntObjInteger.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignIntObjIntegerField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignIntegerIntObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignIntegerIntObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumObjIntObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumObjIntObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumObjInteger.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumObjIntegerField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumObjNumber.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumObjNumberField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumberIntObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumberIntObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumberNumObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignNumberNumObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignTextTextObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignTextTextObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignTextObjText.quorum</t>
+  </si>
+  <si>
+    <t>Fail\ImpAssignTextObjTextField.quorum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1856,6 +1857,12 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2023,7 +2030,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2096,6 +2103,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2405,9 +2413,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AW114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2457,7 +2465,7 @@
     </row>
     <row r="2" spans="1:49" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -2467,7 +2475,7 @@
     </row>
     <row r="4" spans="1:49" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="48"/>
@@ -2475,7 +2483,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="3"/>
       <c r="G4" s="46" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="48"/>
@@ -2483,7 +2491,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="3"/>
       <c r="M4" s="46" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="48"/>
@@ -2533,10 +2541,10 @@
         <v>105</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="G5" s="42" t="str">
         <f>A5</f>
@@ -2775,10 +2783,10 @@
         <v>5</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="19" t="str">
@@ -2831,30 +2839,30 @@
         <v>164</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="19" t="str">
+      <c r="H8" s="25" t="str">
         <f t="shared" ref="H8:H16" si="0">$B8</f>
         <v>boolean</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>261</v>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>568</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="25" t="str">
         <f t="shared" ref="N8:N16" si="1">$B8</f>
         <v>boolean</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>449</v>
+      <c r="P8" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>427</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="19" t="str">
@@ -2913,10 +2921,10 @@
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="25" t="str">
@@ -2925,10 +2933,10 @@
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="27" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="25" t="str">
@@ -2983,10 +2991,10 @@
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="25" t="str">
@@ -2995,10 +3003,10 @@
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="27" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="25" t="str">
@@ -3055,10 +3063,10 @@
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="25" t="str">
@@ -3067,10 +3075,10 @@
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="27" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="25" t="str">
@@ -3127,10 +3135,10 @@
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="25" t="str">
@@ -3139,10 +3147,10 @@
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="27" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="25" t="str">
@@ -3201,10 +3209,10 @@
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="27" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="25" t="str">
@@ -3213,10 +3221,10 @@
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="27" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="28" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="25" t="str">
@@ -3276,10 +3284,10 @@
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="25" t="str">
@@ -3288,10 +3296,10 @@
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="27" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="25" t="str">
@@ -3348,10 +3356,10 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="25" t="str">
@@ -3360,10 +3368,10 @@
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="27" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="25" t="str">
@@ -3422,10 +3430,10 @@
         <v>5</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="19" t="str">
@@ -3436,10 +3444,10 @@
         <v>5</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="19" t="str">
@@ -3563,30 +3571,30 @@
         <v>166</v>
       </c>
       <c r="G18" s="15"/>
-      <c r="H18" s="19" t="str">
+      <c r="H18" s="25" t="str">
         <f>$B18</f>
         <v>BoolObj</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>277</v>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>570</v>
       </c>
       <c r="M18" s="15"/>
-      <c r="N18" s="19" t="str">
+      <c r="N18" s="25" t="str">
         <f>$B18</f>
         <v>BoolObj</v>
       </c>
-      <c r="O18" s="20" t="s">
+      <c r="O18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>465</v>
+      <c r="P18" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q18" s="28" t="s">
+        <v>443</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="19" t="str">
@@ -3648,10 +3656,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="15"/>
@@ -3663,10 +3671,10 @@
         <v>5</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="15"/>
@@ -3732,10 +3740,10 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="25" t="str">
@@ -3744,10 +3752,10 @@
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="27" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="25" t="str">
@@ -3802,10 +3810,10 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="27" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M21" s="15"/>
       <c r="N21" s="25" t="str">
@@ -3814,10 +3822,10 @@
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="27" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="25" t="str">
@@ -3874,10 +3882,10 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="25" t="str">
@@ -3886,10 +3894,10 @@
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="27" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="25" t="str">
@@ -3944,10 +3952,10 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="25" t="str">
@@ -3956,10 +3964,10 @@
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="27" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="25" t="str">
@@ -4018,10 +4026,10 @@
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="27" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="25" t="str">
@@ -4030,10 +4038,10 @@
       </c>
       <c r="O24" s="29"/>
       <c r="P24" s="27" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="25" t="str">
@@ -4095,10 +4103,10 @@
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="27" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="25" t="str">
@@ -4107,10 +4115,10 @@
       </c>
       <c r="O25" s="29"/>
       <c r="P25" s="27" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="28" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="S25" s="15"/>
       <c r="T25" s="25" t="str">
@@ -4167,10 +4175,10 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="25" t="str">
@@ -4179,10 +4187,10 @@
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="27" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="25" t="str">
@@ -4237,10 +4245,10 @@
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="25" t="str">
@@ -4249,10 +4257,10 @@
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="27" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="25" t="str">
@@ -4380,10 +4388,10 @@
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="25" t="str">
@@ -4392,10 +4400,10 @@
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="27" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="25" t="str">
@@ -4450,10 +4458,10 @@
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="25" t="str">
@@ -4462,10 +4470,10 @@
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="27" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="28" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="25" t="str">
@@ -4528,10 +4536,10 @@
         <v>59</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="19" t="str">
@@ -4542,10 +4550,10 @@
         <v>5</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="19" t="str">
@@ -4598,30 +4606,30 @@
         <v>172</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="H32" s="19" t="str">
+      <c r="H32" s="25" t="str">
         <f t="shared" si="12"/>
         <v>integer</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>299</v>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>572</v>
       </c>
       <c r="M32" s="15"/>
-      <c r="N32" s="19" t="str">
+      <c r="N32" s="25" t="str">
         <f t="shared" si="13"/>
         <v>integer</v>
       </c>
-      <c r="O32" s="20" t="s">
+      <c r="O32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>487</v>
+      <c r="P32" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q32" s="28" t="s">
+        <v>465</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="19" t="str">
@@ -4666,10 +4674,10 @@
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="27" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="25" t="str">
@@ -4678,10 +4686,10 @@
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="27" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" s="25" t="str">
@@ -4690,10 +4698,10 @@
       </c>
       <c r="O33" s="29"/>
       <c r="P33" s="27" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="Q33" s="28" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="25" t="str">
@@ -4738,10 +4746,10 @@
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="27" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="25" t="str">
@@ -4750,10 +4758,10 @@
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="27" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="25" t="str">
@@ -4762,10 +4770,10 @@
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="27" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="25" t="str">
@@ -4824,10 +4832,10 @@
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="27" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="M35" s="14"/>
       <c r="N35" s="25" t="str">
@@ -4836,10 +4844,10 @@
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="27" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="Q35" s="28" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="25" t="str">
@@ -4899,10 +4907,10 @@
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="27" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M36" s="15"/>
       <c r="N36" s="25" t="str">
@@ -4911,10 +4919,10 @@
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="27" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="25" t="str">
@@ -4971,10 +4979,10 @@
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="27" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M37" s="15"/>
       <c r="N37" s="25" t="str">
@@ -4983,10 +4991,10 @@
       </c>
       <c r="O37" s="26"/>
       <c r="P37" s="27" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="Q37" s="28" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="25" t="str">
@@ -5045,10 +5053,10 @@
         <v>5</v>
       </c>
       <c r="J38" s="23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M38" s="15"/>
       <c r="N38" s="19" t="str">
@@ -5059,10 +5067,10 @@
         <v>5</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="19" t="str">
@@ -5191,10 +5199,10 @@
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="27" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="15"/>
@@ -5204,10 +5212,10 @@
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="27" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="15"/>
@@ -5266,10 +5274,10 @@
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="27" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="15"/>
@@ -5279,10 +5287,10 @@
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="27" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="Q41" s="28" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="15"/>
@@ -5337,31 +5345,31 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="19" t="str">
+      <c r="H42" s="25" t="str">
         <f t="shared" si="18"/>
         <v>IntObj</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>311</v>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>574</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="19" t="str">
+      <c r="N42" s="25" t="str">
         <f t="shared" si="19"/>
         <v>IntObj</v>
       </c>
-      <c r="O42" s="20" t="s">
+      <c r="O42" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q42" s="24" t="s">
-        <v>499</v>
+      <c r="P42" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q42" s="28" t="s">
+        <v>477</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="15"/>
@@ -5424,10 +5432,10 @@
         <v>5</v>
       </c>
       <c r="J43" s="23" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="15"/>
@@ -5439,10 +5447,10 @@
         <v>5</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="Q43" s="24" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="15"/>
@@ -5496,10 +5504,10 @@
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="27" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="15"/>
@@ -5509,10 +5517,10 @@
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="27" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="15"/>
@@ -5522,10 +5530,10 @@
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="27" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="15"/>
@@ -5586,10 +5594,10 @@
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="27" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="K45" s="28" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="15"/>
@@ -5599,10 +5607,10 @@
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="27" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="15"/>
@@ -5671,10 +5679,10 @@
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="27" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="14"/>
@@ -5684,10 +5692,10 @@
       </c>
       <c r="O46" s="29"/>
       <c r="P46" s="27" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="R46" s="3"/>
       <c r="S46" s="14"/>
@@ -5748,10 +5756,10 @@
       </c>
       <c r="I47" s="29"/>
       <c r="J47" s="27" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="15"/>
@@ -5761,10 +5769,10 @@
       </c>
       <c r="O47" s="29"/>
       <c r="P47" s="27" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="Q47" s="28" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="R47" s="3"/>
       <c r="S47" s="15"/>
@@ -5823,10 +5831,10 @@
       </c>
       <c r="I48" s="31"/>
       <c r="J48" s="27" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="15"/>
@@ -5836,10 +5844,10 @@
       </c>
       <c r="O48" s="31"/>
       <c r="P48" s="27" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="15"/>
@@ -5898,10 +5906,10 @@
       </c>
       <c r="I49" s="29"/>
       <c r="J49" s="27" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="15"/>
@@ -5911,10 +5919,10 @@
       </c>
       <c r="O49" s="29"/>
       <c r="P49" s="27" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="Q49" s="28" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="15"/>
@@ -6043,10 +6051,10 @@
       </c>
       <c r="I51" s="29"/>
       <c r="J51" s="27" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="25" t="str">
@@ -6055,10 +6063,10 @@
       </c>
       <c r="O51" s="29"/>
       <c r="P51" s="27" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="Q51" s="28" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="25" t="str">
@@ -6113,10 +6121,10 @@
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="27" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="25" t="str">
@@ -6125,10 +6133,10 @@
       </c>
       <c r="O52" s="29"/>
       <c r="P52" s="27" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="Q52" s="28" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="25" t="str">
@@ -6175,36 +6183,36 @@
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="27" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="G53" s="15"/>
-      <c r="H53" s="19" t="str">
+      <c r="H53" s="25" t="str">
         <f t="shared" si="24"/>
         <v>IntObj</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>323</v>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>576</v>
       </c>
       <c r="M53" s="15"/>
-      <c r="N53" s="19" t="str">
+      <c r="N53" s="25" t="str">
         <f t="shared" si="25"/>
         <v>IntObj</v>
       </c>
-      <c r="O53" s="20" t="s">
+      <c r="O53" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P53" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q53" s="24" t="s">
-        <v>511</v>
+      <c r="P53" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q53" s="28" t="s">
+        <v>489</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="19" t="str">
@@ -6247,36 +6255,36 @@
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="27" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="G54" s="15"/>
-      <c r="H54" s="19" t="str">
+      <c r="H54" s="25" t="str">
         <f t="shared" si="24"/>
         <v>integer</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>325</v>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>578</v>
       </c>
       <c r="M54" s="15"/>
-      <c r="N54" s="19" t="str">
+      <c r="N54" s="25" t="str">
         <f t="shared" si="25"/>
         <v>integer</v>
       </c>
-      <c r="O54" s="20" t="s">
+      <c r="O54" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q54" s="24" t="s">
-        <v>513</v>
+      <c r="P54" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q54" s="28" t="s">
+        <v>491</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="19" t="str">
@@ -6337,10 +6345,10 @@
         <v>68</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="19" t="str">
@@ -6351,10 +6359,10 @@
         <v>5</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="Q55" s="24" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="19" t="str">
@@ -6407,30 +6415,30 @@
         <v>190</v>
       </c>
       <c r="G56" s="15"/>
-      <c r="H56" s="19" t="str">
+      <c r="H56" s="25" t="str">
         <f t="shared" si="24"/>
         <v>number</v>
       </c>
-      <c r="I56" s="20"/>
-      <c r="J56" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="K56" s="24" t="s">
-        <v>329</v>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>580</v>
       </c>
       <c r="M56" s="15"/>
-      <c r="N56" s="19" t="str">
+      <c r="N56" s="25" t="str">
         <f t="shared" si="25"/>
         <v>number</v>
       </c>
-      <c r="O56" s="20" t="s">
+      <c r="O56" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P56" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q56" s="24" t="s">
-        <v>517</v>
+      <c r="P56" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q56" s="28" t="s">
+        <v>495</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="19" t="str">
@@ -6489,10 +6497,10 @@
       </c>
       <c r="I57" s="29"/>
       <c r="J57" s="27" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="25" t="str">
@@ -6501,10 +6509,10 @@
       </c>
       <c r="O57" s="29"/>
       <c r="P57" s="27" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="Q57" s="28" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="25" t="str">
@@ -6564,10 +6572,10 @@
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="27" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="25" t="str">
@@ -6576,10 +6584,10 @@
       </c>
       <c r="O58" s="29"/>
       <c r="P58" s="27" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="Q58" s="28" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="25" t="str">
@@ -6636,10 +6644,10 @@
       </c>
       <c r="I59" s="26"/>
       <c r="J59" s="27" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="25" t="str">
@@ -6648,10 +6656,10 @@
       </c>
       <c r="O59" s="26"/>
       <c r="P59" s="27" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="Q59" s="28" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="25" t="str">
@@ -6710,10 +6718,10 @@
         <v>5</v>
       </c>
       <c r="J60" s="23" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="M60" s="15"/>
       <c r="N60" s="19" t="str">
@@ -6724,10 +6732,10 @@
         <v>5</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="Q60" s="24" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="S60" s="15"/>
       <c r="T60" s="19" t="str">
@@ -6855,10 +6863,10 @@
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="27" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="K62" s="28" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="25" t="str">
@@ -6867,10 +6875,10 @@
       </c>
       <c r="O62" s="29"/>
       <c r="P62" s="27" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="Q62" s="28" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="25" t="str">
@@ -6925,10 +6933,10 @@
       </c>
       <c r="I63" s="29"/>
       <c r="J63" s="27" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="K63" s="28" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="M63" s="15"/>
       <c r="N63" s="25" t="str">
@@ -6937,10 +6945,10 @@
       </c>
       <c r="O63" s="29"/>
       <c r="P63" s="27" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="Q63" s="28" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="S63" s="15"/>
       <c r="T63" s="25" t="str">
@@ -6987,36 +6995,36 @@
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="27" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="G64" s="15"/>
-      <c r="H64" s="19" t="str">
+      <c r="H64" s="25" t="str">
         <f t="shared" si="30"/>
         <v>IntObj</v>
       </c>
-      <c r="I64" s="20"/>
-      <c r="J64" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="K64" s="24" t="s">
-        <v>339</v>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>582</v>
       </c>
       <c r="M64" s="15"/>
-      <c r="N64" s="19" t="str">
+      <c r="N64" s="25" t="str">
         <f t="shared" si="31"/>
         <v>IntObj</v>
       </c>
-      <c r="O64" s="20" t="s">
+      <c r="O64" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P64" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q64" s="24" t="s">
-        <v>527</v>
+      <c r="P64" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q64" s="28" t="s">
+        <v>505</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="19" t="str">
@@ -7075,10 +7083,10 @@
         <v>5</v>
       </c>
       <c r="J65" s="23" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="19" t="str">
@@ -7089,10 +7097,10 @@
         <v>5</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="Q65" s="24" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="19" t="str">
@@ -7163,30 +7171,30 @@
         <v>193</v>
       </c>
       <c r="G66" s="15"/>
-      <c r="H66" s="19" t="str">
+      <c r="H66" s="25" t="str">
         <f t="shared" si="30"/>
         <v>NumObj</v>
       </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="K66" s="24" t="s">
-        <v>343</v>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>584</v>
       </c>
       <c r="M66" s="15"/>
-      <c r="N66" s="19" t="str">
+      <c r="N66" s="25" t="str">
         <f t="shared" si="31"/>
         <v>NumObj</v>
       </c>
-      <c r="O66" s="20" t="s">
+      <c r="O66" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q66" s="24" t="s">
-        <v>531</v>
+      <c r="P66" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q66" s="28" t="s">
+        <v>509</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="19" t="str">
@@ -7247,10 +7255,10 @@
         <v>21</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="M67" s="15"/>
       <c r="N67" s="19" t="str">
@@ -7261,10 +7269,10 @@
         <v>5</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="Q67" s="24" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="19" t="str">
@@ -7341,10 +7349,10 @@
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="27" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="K68" s="28" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="M68" s="14"/>
       <c r="N68" s="25" t="str">
@@ -7353,10 +7361,10 @@
       </c>
       <c r="O68" s="29"/>
       <c r="P68" s="27" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="Q68" s="28" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="S68" s="14"/>
       <c r="T68" s="25" t="str">
@@ -7418,10 +7426,10 @@
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="27" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="K69" s="28" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="M69" s="15"/>
       <c r="N69" s="25" t="str">
@@ -7430,10 +7438,10 @@
       </c>
       <c r="O69" s="29"/>
       <c r="P69" s="27" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="Q69" s="28" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="S69" s="15"/>
       <c r="T69" s="25" t="str">
@@ -7490,10 +7498,10 @@
       </c>
       <c r="I70" s="26"/>
       <c r="J70" s="27" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="K70" s="28" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="M70" s="15"/>
       <c r="N70" s="25" t="str">
@@ -7502,10 +7510,10 @@
       </c>
       <c r="O70" s="26"/>
       <c r="P70" s="27" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="Q70" s="28" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="25" t="str">
@@ -7560,10 +7568,10 @@
       </c>
       <c r="I71" s="29"/>
       <c r="J71" s="27" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="K71" s="28" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="M71" s="15"/>
       <c r="N71" s="25" t="str">
@@ -7572,10 +7580,10 @@
       </c>
       <c r="O71" s="29"/>
       <c r="P71" s="27" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="Q71" s="28" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="25" t="str">
@@ -7707,10 +7715,10 @@
         <v>5</v>
       </c>
       <c r="J73" s="23" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="M73" s="15"/>
       <c r="N73" s="19" t="str">
@@ -7721,10 +7729,10 @@
         <v>5</v>
       </c>
       <c r="P73" s="23" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="Q73" s="24" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="19" t="str">
@@ -7779,14 +7787,12 @@
         <f t="shared" ref="H74:H82" si="36">$B74</f>
         <v>boolean</v>
       </c>
-      <c r="I74" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="I74" s="29"/>
       <c r="J74" s="27" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="K74" s="28" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="25" t="str">
@@ -7795,10 +7801,10 @@
       </c>
       <c r="O74" s="29"/>
       <c r="P74" s="27" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="Q74" s="28" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="S74" s="15"/>
       <c r="T74" s="25" t="str">
@@ -7861,10 +7867,10 @@
         <v>5</v>
       </c>
       <c r="J75" s="23" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="19" t="str">
@@ -7875,10 +7881,10 @@
         <v>5</v>
       </c>
       <c r="P75" s="23" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="Q75" s="24" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="S75" s="15"/>
       <c r="T75" s="19" t="str">
@@ -7933,14 +7939,12 @@
         <f t="shared" si="36"/>
         <v>integer</v>
       </c>
-      <c r="I76" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="I76" s="29"/>
       <c r="J76" s="27" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="K76" s="28" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="25" t="str">
@@ -7949,10 +7953,10 @@
       </c>
       <c r="O76" s="29"/>
       <c r="P76" s="27" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="Q76" s="28" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="S76" s="15"/>
       <c r="T76" s="25" t="str">
@@ -8013,10 +8017,10 @@
         <v>5</v>
       </c>
       <c r="J77" s="23" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="M77" s="15"/>
       <c r="N77" s="19" t="str">
@@ -8027,10 +8031,10 @@
         <v>5</v>
       </c>
       <c r="P77" s="23" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="Q77" s="24" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="S77" s="15"/>
       <c r="T77" s="19" t="str">
@@ -8085,14 +8089,12 @@
         <f t="shared" si="36"/>
         <v>number</v>
       </c>
-      <c r="I78" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="I78" s="29"/>
       <c r="J78" s="27" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="K78" s="28" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="25" t="str">
@@ -8101,10 +8103,10 @@
       </c>
       <c r="O78" s="29"/>
       <c r="P78" s="27" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="Q78" s="28" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="S78" s="15"/>
       <c r="T78" s="25" t="str">
@@ -8165,10 +8167,10 @@
         <v>5</v>
       </c>
       <c r="J79" s="23" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="19" t="str">
@@ -8179,10 +8181,10 @@
         <v>5</v>
       </c>
       <c r="P79" s="23" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="Q79" s="24" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="S79" s="14"/>
       <c r="T79" s="19" t="str">
@@ -8239,14 +8241,12 @@
         <f t="shared" si="36"/>
         <v>text</v>
       </c>
-      <c r="I80" s="29" t="s">
-        <v>5</v>
-      </c>
+      <c r="I80" s="29"/>
       <c r="J80" s="27" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="K80" s="28" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="25" t="str">
@@ -8255,10 +8255,10 @@
       </c>
       <c r="O80" s="29"/>
       <c r="P80" s="27" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="Q80" s="28" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="S80" s="15"/>
       <c r="T80" s="25" t="str">
@@ -8337,10 +8337,10 @@
         <v>5</v>
       </c>
       <c r="J81" s="23" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="19" t="str">
@@ -8351,10 +8351,10 @@
         <v>5</v>
       </c>
       <c r="P81" s="23" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="Q81" s="24" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="S81" s="15"/>
       <c r="T81" s="19" t="str">
@@ -8415,10 +8415,10 @@
         <v>5</v>
       </c>
       <c r="J82" s="23" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="19" t="str">
@@ -8429,10 +8429,10 @@
         <v>5</v>
       </c>
       <c r="P82" s="23" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="Q82" s="24" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="S82" s="15"/>
       <c r="T82" s="19" t="str">
@@ -8578,10 +8578,10 @@
       </c>
       <c r="I84" s="29"/>
       <c r="J84" s="27" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="K84" s="28" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="25" t="str">
@@ -8590,10 +8590,10 @@
       </c>
       <c r="O84" s="29"/>
       <c r="P84" s="27" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="Q84" s="28" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="S84" s="15"/>
       <c r="T84" s="25" t="str">
@@ -8650,10 +8650,10 @@
       </c>
       <c r="I85" s="29"/>
       <c r="J85" s="27" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="K85" s="28" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="25" t="str">
@@ -8662,10 +8662,10 @@
       </c>
       <c r="O85" s="29"/>
       <c r="P85" s="27" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="Q85" s="28" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="S85" s="15"/>
       <c r="T85" s="25" t="str">
@@ -8724,10 +8724,10 @@
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="27" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="K86" s="28" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="25" t="str">
@@ -8736,10 +8736,10 @@
       </c>
       <c r="O86" s="29"/>
       <c r="P86" s="27" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="Q86" s="28" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="S86" s="15"/>
       <c r="T86" s="25" t="str">
@@ -8796,10 +8796,10 @@
       </c>
       <c r="I87" s="29"/>
       <c r="J87" s="27" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="K87" s="28" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="25" t="str">
@@ -8808,10 +8808,10 @@
       </c>
       <c r="O87" s="29"/>
       <c r="P87" s="27" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="Q87" s="28" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="S87" s="15"/>
       <c r="T87" s="25" t="str">
@@ -8868,10 +8868,10 @@
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="27" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="K88" s="28" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="25" t="str">
@@ -8880,10 +8880,10 @@
       </c>
       <c r="O88" s="26"/>
       <c r="P88" s="27" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="Q88" s="28" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="S88" s="15"/>
       <c r="T88" s="25" t="str">
@@ -8940,10 +8940,10 @@
       </c>
       <c r="I89" s="29"/>
       <c r="J89" s="27" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="K89" s="28" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="M89" s="15"/>
       <c r="N89" s="25" t="str">
@@ -8952,10 +8952,10 @@
       </c>
       <c r="O89" s="29"/>
       <c r="P89" s="27" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="Q89" s="28" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="S89" s="15"/>
       <c r="T89" s="25" t="str">
@@ -9014,10 +9014,10 @@
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="27" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="K90" s="28" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="M90" s="14"/>
       <c r="N90" s="25" t="str">
@@ -9026,10 +9026,10 @@
       </c>
       <c r="O90" s="29"/>
       <c r="P90" s="27" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="Q90" s="28" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="S90" s="14"/>
       <c r="T90" s="25" t="str">
@@ -9090,10 +9090,10 @@
         <v>36</v>
       </c>
       <c r="J91" s="23" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="M91" s="15"/>
       <c r="N91" s="19" t="str">
@@ -9104,10 +9104,10 @@
         <v>5</v>
       </c>
       <c r="P91" s="23" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="Q91" s="24" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="S91" s="15"/>
       <c r="T91" s="19" t="str">
@@ -9178,30 +9178,30 @@
         <v>218</v>
       </c>
       <c r="G92" s="15"/>
-      <c r="H92" s="19" t="str">
+      <c r="H92" s="25" t="str">
         <f t="shared" si="42"/>
         <v>TextObj</v>
       </c>
-      <c r="I92" s="20"/>
-      <c r="J92" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="K92" s="24" t="s">
-        <v>363</v>
+      <c r="I92" s="26"/>
+      <c r="J92" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="K92" s="28" t="s">
+        <v>586</v>
       </c>
       <c r="M92" s="15"/>
-      <c r="N92" s="19" t="str">
+      <c r="N92" s="25" t="str">
         <f t="shared" si="43"/>
         <v>TextObj</v>
       </c>
-      <c r="O92" s="20" t="s">
+      <c r="O92" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P92" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q92" s="24" t="s">
-        <v>551</v>
+      <c r="P92" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q92" s="28" t="s">
+        <v>529</v>
       </c>
       <c r="S92" s="15"/>
       <c r="T92" s="19" t="str">
@@ -9262,10 +9262,10 @@
         <v>5</v>
       </c>
       <c r="J93" s="23" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="19" t="str">
@@ -9276,10 +9276,10 @@
         <v>5</v>
       </c>
       <c r="P93" s="23" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="Q93" s="24" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="S93" s="15"/>
       <c r="T93" s="19" t="str">
@@ -9425,10 +9425,10 @@
       </c>
       <c r="I95" s="26"/>
       <c r="J95" s="27" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="K95" s="28" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="M95" s="15"/>
       <c r="N95" s="25" t="str">
@@ -9437,10 +9437,10 @@
       </c>
       <c r="O95" s="26"/>
       <c r="P95" s="27" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="Q95" s="28" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="S95" s="15"/>
       <c r="T95" s="25" t="str">
@@ -9495,10 +9495,10 @@
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="27" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="K96" s="28" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="M96" s="15"/>
       <c r="N96" s="25" t="str">
@@ -9507,10 +9507,10 @@
       </c>
       <c r="O96" s="26"/>
       <c r="P96" s="27" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="Q96" s="28" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="S96" s="15"/>
       <c r="T96" s="25" t="str">
@@ -9569,10 +9569,10 @@
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="27" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="K97" s="28" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="M97" s="15"/>
       <c r="N97" s="25" t="str">
@@ -9581,10 +9581,10 @@
       </c>
       <c r="O97" s="26"/>
       <c r="P97" s="27" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="Q97" s="28" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="S97" s="15"/>
       <c r="T97" s="25" t="str">
@@ -9639,10 +9639,10 @@
       </c>
       <c r="I98" s="26"/>
       <c r="J98" s="27" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="K98" s="28" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="25" t="str">
@@ -9651,10 +9651,10 @@
       </c>
       <c r="O98" s="26"/>
       <c r="P98" s="27" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="Q98" s="28" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="S98" s="15"/>
       <c r="T98" s="25" t="str">
@@ -9711,10 +9711,10 @@
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="27" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="K99" s="28" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="M99" s="15"/>
       <c r="N99" s="25" t="str">
@@ -9723,10 +9723,10 @@
       </c>
       <c r="O99" s="26"/>
       <c r="P99" s="27" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="Q99" s="28" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="S99" s="15"/>
       <c r="T99" s="25" t="str">
@@ -9781,10 +9781,10 @@
       </c>
       <c r="I100" s="26"/>
       <c r="J100" s="27" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="K100" s="28" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="M100" s="15"/>
       <c r="N100" s="25" t="str">
@@ -9793,10 +9793,10 @@
       </c>
       <c r="O100" s="26"/>
       <c r="P100" s="27" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="Q100" s="28" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="S100" s="15"/>
       <c r="T100" s="25" t="str">
@@ -9855,10 +9855,10 @@
       </c>
       <c r="I101" s="29"/>
       <c r="J101" s="27" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="K101" s="28" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="M101" s="14"/>
       <c r="N101" s="25" t="str">
@@ -9867,10 +9867,10 @@
       </c>
       <c r="O101" s="29"/>
       <c r="P101" s="27" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="Q101" s="28" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="S101" s="14"/>
       <c r="T101" s="25" t="str">
@@ -9923,30 +9923,30 @@
         <v>212</v>
       </c>
       <c r="G102" s="15"/>
-      <c r="H102" s="19" t="str">
+      <c r="H102" s="25" t="str">
         <f t="shared" si="48"/>
         <v>text</v>
       </c>
-      <c r="I102" s="20"/>
-      <c r="J102" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="K102" s="24" t="s">
-        <v>379</v>
+      <c r="I102" s="26"/>
+      <c r="J102" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="K102" s="28" t="s">
+        <v>588</v>
       </c>
       <c r="M102" s="15"/>
-      <c r="N102" s="19" t="str">
+      <c r="N102" s="25" t="str">
         <f t="shared" si="49"/>
         <v>text</v>
       </c>
-      <c r="O102" s="20" t="s">
+      <c r="O102" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P102" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q102" s="24" t="s">
-        <v>567</v>
+      <c r="P102" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q102" s="28" t="s">
+        <v>545</v>
       </c>
       <c r="S102" s="15"/>
       <c r="T102" s="19" t="str">
@@ -10007,10 +10007,10 @@
         <v>77</v>
       </c>
       <c r="J103" s="23" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="M103" s="15"/>
       <c r="N103" s="19" t="str">
@@ -10021,10 +10021,10 @@
         <v>5</v>
       </c>
       <c r="P103" s="23" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="Q103" s="24" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="S103" s="15"/>
       <c r="T103" s="19" t="str">
@@ -10085,10 +10085,10 @@
         <v>5</v>
       </c>
       <c r="J104" s="23" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="M104" s="15"/>
       <c r="N104" s="19" t="str">
@@ -10099,10 +10099,10 @@
         <v>5</v>
       </c>
       <c r="P104" s="23" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="Q104" s="24" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="S104" s="15"/>
       <c r="T104" s="19" t="str">
@@ -10230,10 +10230,10 @@
       </c>
       <c r="I106" s="33"/>
       <c r="J106" s="34" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="K106" s="35" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="M106" s="18"/>
       <c r="N106" s="32" t="str">
@@ -10242,10 +10242,10 @@
       </c>
       <c r="O106" s="33"/>
       <c r="P106" s="34" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="Q106" s="35" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="S106" s="18"/>
       <c r="T106" s="32" t="str">
@@ -10906,7 +10906,7 @@
     <hyperlink ref="Q100" r:id="rId546" display="Fail\ExpAssignTextObjNumberField.quorum"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId547"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10921,58 +10921,4644 @@
   <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:A9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:N93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="str">
+        <f>'Quorum 3.0'!A4</f>
+        <v>EXPLICIT Casts (also Generics)</v>
+      </c>
+      <c r="F1" s="50" t="str">
+        <f>'Quorum 3.0'!G4</f>
+        <v>IMPLICIT Casts</v>
+      </c>
+      <c r="K1" s="50" t="str">
+        <f>'Quorum 3.0'!M4</f>
+        <v>RETURN Casts</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Quorum 3.0'!B7</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF('Quorum 3.0'!C7="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <f>A3&amp;","&amp;B3&amp;","&amp;C3</f>
+        <v>BoolObj,BoolObj,Pass</v>
+      </c>
+      <c r="F3" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G3" t="str">
+        <f>'Quorum 3.0'!H7</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF('Quorum 3.0'!I7="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I3" t="str">
+        <f>F3&amp;","&amp;G3&amp;","&amp;H3</f>
+        <v>BoolObj,BoolObj,Pass</v>
+      </c>
+      <c r="K3" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L3" t="str">
+        <f>'Quorum 3.0'!N7</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF('Quorum 3.0'!O7="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N3" t="str">
+        <f>K3&amp;","&amp;L3&amp;","&amp;M3</f>
+        <v>BoolObj,BoolObj,Pass</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'Quorum 3.0'!B8</f>
+        <v>boolean</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF('Quorum 3.0'!C8="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" si="0">A4&amp;","&amp;B4&amp;","&amp;C4</f>
+        <v>BoolObj,boolean,Pass</v>
+      </c>
+      <c r="F4" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G4" t="str">
+        <f>'Quorum 3.0'!H8</f>
+        <v>boolean</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF('Quorum 3.0'!I8="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I67" si="1">F4&amp;","&amp;G4&amp;","&amp;H4</f>
+        <v>BoolObj,boolean,Fail</v>
+      </c>
+      <c r="K4" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L4" t="str">
+        <f>'Quorum 3.0'!N8</f>
+        <v>boolean</v>
+      </c>
+      <c r="M4" t="str">
+        <f>IF('Quorum 3.0'!O8="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N67" si="2">K4&amp;","&amp;L4&amp;","&amp;M4</f>
+        <v>BoolObj,boolean,Pass</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'Quorum 3.0'!B9</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF('Quorum 3.0'!C9="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolObj,IntObj,Fail</v>
+      </c>
+      <c r="F5" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G5" t="str">
+        <f>'Quorum 3.0'!H9</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF('Quorum 3.0'!I9="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolObj,IntObj,Fail</v>
+      </c>
+      <c r="K5" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L5" t="str">
+        <f>'Quorum 3.0'!N9</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M5" t="str">
+        <f>IF('Quorum 3.0'!O9="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>BoolObj,IntObj,Fail</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'Quorum 3.0'!B10</f>
+        <v>integer</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IF('Quorum 3.0'!C10="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolObj,integer,Fail</v>
+      </c>
+      <c r="F6" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G6" t="str">
+        <f>'Quorum 3.0'!H10</f>
+        <v>integer</v>
+      </c>
+      <c r="H6" t="str">
+        <f>IF('Quorum 3.0'!I10="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolObj,integer,Fail</v>
+      </c>
+      <c r="K6" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L6" t="str">
+        <f>'Quorum 3.0'!N10</f>
+        <v>integer</v>
+      </c>
+      <c r="M6" t="str">
+        <f>IF('Quorum 3.0'!O10="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>BoolObj,integer,Fail</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'Quorum 3.0'!B11</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IF('Quorum 3.0'!C11="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolObj,NumObj,Fail</v>
+      </c>
+      <c r="F7" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G7" t="str">
+        <f>'Quorum 3.0'!H11</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H7" t="str">
+        <f>IF('Quorum 3.0'!I11="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolObj,NumObj,Fail</v>
+      </c>
+      <c r="K7" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L7" t="str">
+        <f>'Quorum 3.0'!N11</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M7" t="str">
+        <f>IF('Quorum 3.0'!O11="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>BoolObj,NumObj,Fail</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B8" t="str">
+        <f>'Quorum 3.0'!B12</f>
+        <v>number</v>
+      </c>
+      <c r="C8" t="str">
+        <f>IF('Quorum 3.0'!C12="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolObj,number,Fail</v>
+      </c>
+      <c r="F8" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G8" t="str">
+        <f>'Quorum 3.0'!H12</f>
+        <v>number</v>
+      </c>
+      <c r="H8" t="str">
+        <f>IF('Quorum 3.0'!I12="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolObj,number,Fail</v>
+      </c>
+      <c r="K8" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L8" t="str">
+        <f>'Quorum 3.0'!N12</f>
+        <v>number</v>
+      </c>
+      <c r="M8" t="str">
+        <f>IF('Quorum 3.0'!O12="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>BoolObj,number,Fail</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B9" t="str">
+        <f>'Quorum 3.0'!B13</f>
+        <v>Object</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IF('Quorum 3.0'!C13="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolObj,Object,Pass</v>
+      </c>
+      <c r="F9" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G9" t="str">
+        <f>'Quorum 3.0'!H13</f>
+        <v>Object</v>
+      </c>
+      <c r="H9" t="str">
+        <f>IF('Quorum 3.0'!I13="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolObj,Object,Fail</v>
+      </c>
+      <c r="K9" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L9" t="str">
+        <f>'Quorum 3.0'!N13</f>
+        <v>Object</v>
+      </c>
+      <c r="M9" t="str">
+        <f>IF('Quorum 3.0'!O13="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>BoolObj,Object,Fail</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B10" t="str">
+        <f>'Quorum 3.0'!B14</f>
+        <v>text</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IF('Quorum 3.0'!C14="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolObj,text,Fail</v>
+      </c>
+      <c r="F10" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G10" t="str">
+        <f>'Quorum 3.0'!H14</f>
+        <v>text</v>
+      </c>
+      <c r="H10" t="str">
+        <f>IF('Quorum 3.0'!I14="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolObj,text,Fail</v>
+      </c>
+      <c r="K10" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L10" t="str">
+        <f>'Quorum 3.0'!N14</f>
+        <v>text</v>
+      </c>
+      <c r="M10" t="str">
+        <f>IF('Quorum 3.0'!O14="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>BoolObj,text,Fail</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B11" t="str">
+        <f>'Quorum 3.0'!B15</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C11" t="str">
+        <f>IF('Quorum 3.0'!C15="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolObj,TextObj,Fail</v>
+      </c>
+      <c r="F11" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G11" t="str">
+        <f>'Quorum 3.0'!H15</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H11" t="str">
+        <f>IF('Quorum 3.0'!I15="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolObj,TextObj,Fail</v>
+      </c>
+      <c r="K11" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L11" t="str">
+        <f>'Quorum 3.0'!N15</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M11" t="str">
+        <f>IF('Quorum 3.0'!O15="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>BoolObj,TextObj,Fail</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>'Quorum 3.0'!A$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="B12" t="str">
+        <f>'Quorum 3.0'!B16</f>
+        <v>undefined</v>
+      </c>
+      <c r="C12" t="str">
+        <f>IF('Quorum 3.0'!C16="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>BoolObj,undefined,Pass</v>
+      </c>
+      <c r="F12" t="str">
+        <f>'Quorum 3.0'!G$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="G12" t="str">
+        <f>'Quorum 3.0'!H16</f>
+        <v>undefined</v>
+      </c>
+      <c r="H12" t="str">
+        <f>IF('Quorum 3.0'!I16="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>BoolObj,undefined,Pass</v>
+      </c>
+      <c r="K12" t="str">
+        <f>'Quorum 3.0'!M$6</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="L12" t="str">
+        <f>'Quorum 3.0'!N16</f>
+        <v>undefined</v>
+      </c>
+      <c r="M12" t="str">
+        <f>IF('Quorum 3.0'!O16="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v>BoolObj,undefined,Pass</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B13" t="str">
+        <f>'Quorum 3.0'!B18</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IF('Quorum 3.0'!C18="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,BoolObj,Pass</v>
+      </c>
+      <c r="F13" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G13" t="str">
+        <f>'Quorum 3.0'!H18</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H13" t="str">
+        <f>IF('Quorum 3.0'!I18="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,BoolObj,Fail</v>
+      </c>
+      <c r="K13" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L13" t="str">
+        <f>'Quorum 3.0'!N18</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M13" t="str">
+        <f>IF('Quorum 3.0'!O18="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,BoolObj,Pass</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B14" t="str">
+        <f>'Quorum 3.0'!B19</f>
+        <v>boolean</v>
+      </c>
+      <c r="C14" t="str">
+        <f>IF('Quorum 3.0'!C19="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,boolean,Pass</v>
+      </c>
+      <c r="F14" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G14" t="str">
+        <f>'Quorum 3.0'!H19</f>
+        <v>boolean</v>
+      </c>
+      <c r="H14" t="str">
+        <f>IF('Quorum 3.0'!I19="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,boolean,Pass</v>
+      </c>
+      <c r="K14" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L14" t="str">
+        <f>'Quorum 3.0'!N19</f>
+        <v>boolean</v>
+      </c>
+      <c r="M14" t="str">
+        <f>IF('Quorum 3.0'!O19="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,boolean,Pass</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B15" t="str">
+        <f>'Quorum 3.0'!B20</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IF('Quorum 3.0'!C20="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,IntObj,Fail</v>
+      </c>
+      <c r="F15" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G15" t="str">
+        <f>'Quorum 3.0'!H20</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H15" t="str">
+        <f>IF('Quorum 3.0'!I20="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,IntObj,Fail</v>
+      </c>
+      <c r="K15" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L15" t="str">
+        <f>'Quorum 3.0'!N20</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M15" t="str">
+        <f>IF('Quorum 3.0'!O20="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,IntObj,Fail</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B16" t="str">
+        <f>'Quorum 3.0'!B21</f>
+        <v>integer</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF('Quorum 3.0'!C21="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,integer,Fail</v>
+      </c>
+      <c r="F16" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G16" t="str">
+        <f>'Quorum 3.0'!H21</f>
+        <v>integer</v>
+      </c>
+      <c r="H16" t="str">
+        <f>IF('Quorum 3.0'!I21="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,integer,Fail</v>
+      </c>
+      <c r="K16" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L16" t="str">
+        <f>'Quorum 3.0'!N21</f>
+        <v>integer</v>
+      </c>
+      <c r="M16" t="str">
+        <f>IF('Quorum 3.0'!O21="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,integer,Fail</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B17" t="str">
+        <f>'Quorum 3.0'!B22</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C17" t="str">
+        <f>IF('Quorum 3.0'!C22="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,NumObj,Fail</v>
+      </c>
+      <c r="F17" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G17" t="str">
+        <f>'Quorum 3.0'!H22</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H17" t="str">
+        <f>IF('Quorum 3.0'!I22="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,NumObj,Fail</v>
+      </c>
+      <c r="K17" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L17" t="str">
+        <f>'Quorum 3.0'!N22</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M17" t="str">
+        <f>IF('Quorum 3.0'!O22="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,NumObj,Fail</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'Quorum 3.0'!B23</f>
+        <v>number</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IF('Quorum 3.0'!C23="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,number,Fail</v>
+      </c>
+      <c r="F18" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G18" t="str">
+        <f>'Quorum 3.0'!H23</f>
+        <v>number</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF('Quorum 3.0'!I23="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,number,Fail</v>
+      </c>
+      <c r="K18" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L18" t="str">
+        <f>'Quorum 3.0'!N23</f>
+        <v>number</v>
+      </c>
+      <c r="M18" t="str">
+        <f>IF('Quorum 3.0'!O23="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,number,Fail</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'Quorum 3.0'!B24</f>
+        <v>Object</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF('Quorum 3.0'!C24="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,Object,Pass</v>
+      </c>
+      <c r="F19" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G19" t="str">
+        <f>'Quorum 3.0'!H24</f>
+        <v>Object</v>
+      </c>
+      <c r="H19" t="str">
+        <f>IF('Quorum 3.0'!I24="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,Object,Fail</v>
+      </c>
+      <c r="K19" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L19" t="str">
+        <f>'Quorum 3.0'!N24</f>
+        <v>Object</v>
+      </c>
+      <c r="M19" t="str">
+        <f>IF('Quorum 3.0'!O24="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,Object,Fail</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B20" t="str">
+        <f>'Quorum 3.0'!B25</f>
+        <v>text</v>
+      </c>
+      <c r="C20" t="str">
+        <f>IF('Quorum 3.0'!C25="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,text,Pass</v>
+      </c>
+      <c r="F20" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G20" t="str">
+        <f>'Quorum 3.0'!H25</f>
+        <v>text</v>
+      </c>
+      <c r="H20" t="str">
+        <f>IF('Quorum 3.0'!I25="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,text,Fail</v>
+      </c>
+      <c r="K20" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L20" t="str">
+        <f>'Quorum 3.0'!N25</f>
+        <v>text</v>
+      </c>
+      <c r="M20" t="str">
+        <f>IF('Quorum 3.0'!O25="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,text,Fail</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B21" t="str">
+        <f>'Quorum 3.0'!B26</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IF('Quorum 3.0'!C26="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,TextObj,Fail</v>
+      </c>
+      <c r="F21" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G21" t="str">
+        <f>'Quorum 3.0'!H26</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF('Quorum 3.0'!I26="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,TextObj,Fail</v>
+      </c>
+      <c r="K21" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L21" t="str">
+        <f>'Quorum 3.0'!N26</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M21" t="str">
+        <f>IF('Quorum 3.0'!O26="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,TextObj,Fail</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>'Quorum 3.0'!A$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="B22" t="str">
+        <f>'Quorum 3.0'!B27</f>
+        <v>undefined</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IF('Quorum 3.0'!C27="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>boolean,undefined,Fail</v>
+      </c>
+      <c r="F22" t="str">
+        <f>'Quorum 3.0'!G$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="G22" t="str">
+        <f>'Quorum 3.0'!H27</f>
+        <v>undefined</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF('Quorum 3.0'!I27="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v>boolean,undefined,Fail</v>
+      </c>
+      <c r="K22" t="str">
+        <f>'Quorum 3.0'!M$17</f>
+        <v>boolean</v>
+      </c>
+      <c r="L22" t="str">
+        <f>'Quorum 3.0'!N27</f>
+        <v>undefined</v>
+      </c>
+      <c r="M22" t="str">
+        <f>IF('Quorum 3.0'!O27="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>boolean,undefined,Fail</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B23" t="str">
+        <f>'Quorum 3.0'!B29</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C23" t="str">
+        <f>IF('Quorum 3.0'!C29="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,BoolObj,Fail</v>
+      </c>
+      <c r="F23" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G23" t="str">
+        <f>'Quorum 3.0'!H29</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF('Quorum 3.0'!I29="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,BoolObj,Fail</v>
+      </c>
+      <c r="K23" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L23" t="str">
+        <f>'Quorum 3.0'!N29</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M23" t="str">
+        <f>IF('Quorum 3.0'!O29="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,BoolObj,Fail</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B24" t="str">
+        <f>'Quorum 3.0'!B30</f>
+        <v>boolean</v>
+      </c>
+      <c r="C24" t="str">
+        <f>IF('Quorum 3.0'!C30="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,boolean,Fail</v>
+      </c>
+      <c r="F24" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G24" t="str">
+        <f>'Quorum 3.0'!H30</f>
+        <v>boolean</v>
+      </c>
+      <c r="H24" t="str">
+        <f>IF('Quorum 3.0'!I30="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,boolean,Fail</v>
+      </c>
+      <c r="K24" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L24" t="str">
+        <f>'Quorum 3.0'!N30</f>
+        <v>boolean</v>
+      </c>
+      <c r="M24" t="str">
+        <f>IF('Quorum 3.0'!O30="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,boolean,Fail</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B25" t="str">
+        <f>'Quorum 3.0'!B31</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C25" t="str">
+        <f>IF('Quorum 3.0'!C31="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,IntObj,Pass</v>
+      </c>
+      <c r="F25" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G25" t="str">
+        <f>'Quorum 3.0'!H31</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF('Quorum 3.0'!I31="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,IntObj,Pass</v>
+      </c>
+      <c r="K25" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L25" t="str">
+        <f>'Quorum 3.0'!N31</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M25" t="str">
+        <f>IF('Quorum 3.0'!O31="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,IntObj,Pass</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B26" t="str">
+        <f>'Quorum 3.0'!B32</f>
+        <v>integer</v>
+      </c>
+      <c r="C26" t="str">
+        <f>IF('Quorum 3.0'!C32="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,integer,Pass</v>
+      </c>
+      <c r="F26" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G26" t="str">
+        <f>'Quorum 3.0'!H32</f>
+        <v>integer</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF('Quorum 3.0'!I32="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,integer,Fail</v>
+      </c>
+      <c r="K26" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L26" t="str">
+        <f>'Quorum 3.0'!N32</f>
+        <v>integer</v>
+      </c>
+      <c r="M26" t="str">
+        <f>IF('Quorum 3.0'!O32="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,integer,Pass</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B27" t="str">
+        <f>'Quorum 3.0'!B33</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C27" t="str">
+        <f>IF('Quorum 3.0'!C33="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,NumObj,Fail</v>
+      </c>
+      <c r="F27" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G27" t="str">
+        <f>'Quorum 3.0'!H33</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF('Quorum 3.0'!I33="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,NumObj,Fail</v>
+      </c>
+      <c r="K27" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L27" t="str">
+        <f>'Quorum 3.0'!N33</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M27" t="str">
+        <f>IF('Quorum 3.0'!O33="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,NumObj,Fail</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B28" t="str">
+        <f>'Quorum 3.0'!B34</f>
+        <v>number</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF('Quorum 3.0'!C34="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,number,Fail</v>
+      </c>
+      <c r="F28" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G28" t="str">
+        <f>'Quorum 3.0'!H34</f>
+        <v>number</v>
+      </c>
+      <c r="H28" t="str">
+        <f>IF('Quorum 3.0'!I34="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,number,Fail</v>
+      </c>
+      <c r="K28" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L28" t="str">
+        <f>'Quorum 3.0'!N34</f>
+        <v>number</v>
+      </c>
+      <c r="M28" t="str">
+        <f>IF('Quorum 3.0'!O34="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,number,Fail</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B29" t="str">
+        <f>'Quorum 3.0'!B35</f>
+        <v>Object</v>
+      </c>
+      <c r="C29" t="str">
+        <f>IF('Quorum 3.0'!C35="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,Object,Pass</v>
+      </c>
+      <c r="F29" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G29" t="str">
+        <f>'Quorum 3.0'!H35</f>
+        <v>Object</v>
+      </c>
+      <c r="H29" t="str">
+        <f>IF('Quorum 3.0'!I35="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,Object,Fail</v>
+      </c>
+      <c r="K29" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L29" t="str">
+        <f>'Quorum 3.0'!N35</f>
+        <v>Object</v>
+      </c>
+      <c r="M29" t="str">
+        <f>IF('Quorum 3.0'!O35="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,Object,Fail</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B30" t="str">
+        <f>'Quorum 3.0'!B36</f>
+        <v>text</v>
+      </c>
+      <c r="C30" t="str">
+        <f>IF('Quorum 3.0'!C36="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,text,Fail</v>
+      </c>
+      <c r="F30" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G30" t="str">
+        <f>'Quorum 3.0'!H36</f>
+        <v>text</v>
+      </c>
+      <c r="H30" t="str">
+        <f>IF('Quorum 3.0'!I36="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,text,Fail</v>
+      </c>
+      <c r="K30" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L30" t="str">
+        <f>'Quorum 3.0'!N36</f>
+        <v>text</v>
+      </c>
+      <c r="M30" t="str">
+        <f>IF('Quorum 3.0'!O36="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,text,Fail</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B31" t="str">
+        <f>'Quorum 3.0'!B37</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C31" t="str">
+        <f>IF('Quorum 3.0'!C37="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,TextObj,Fail</v>
+      </c>
+      <c r="F31" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G31" t="str">
+        <f>'Quorum 3.0'!H37</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H31" t="str">
+        <f>IF('Quorum 3.0'!I37="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,TextObj,Fail</v>
+      </c>
+      <c r="K31" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L31" t="str">
+        <f>'Quorum 3.0'!N37</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M31" t="str">
+        <f>IF('Quorum 3.0'!O37="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,TextObj,Fail</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>'Quorum 3.0'!A$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="B32" t="str">
+        <f>'Quorum 3.0'!B38</f>
+        <v>undefined</v>
+      </c>
+      <c r="C32" t="str">
+        <f>IF('Quorum 3.0'!C38="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>IntObj,undefined,Pass</v>
+      </c>
+      <c r="F32" t="str">
+        <f>'Quorum 3.0'!G$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="G32" t="str">
+        <f>'Quorum 3.0'!H38</f>
+        <v>undefined</v>
+      </c>
+      <c r="H32" t="str">
+        <f>IF('Quorum 3.0'!I38="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v>IntObj,undefined,Pass</v>
+      </c>
+      <c r="K32" t="str">
+        <f>'Quorum 3.0'!M$28</f>
+        <v>IntObj</v>
+      </c>
+      <c r="L32" t="str">
+        <f>'Quorum 3.0'!N38</f>
+        <v>undefined</v>
+      </c>
+      <c r="M32" t="str">
+        <f>IF('Quorum 3.0'!O38="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>IntObj,undefined,Pass</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B33" t="str">
+        <f>'Quorum 3.0'!B40</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C33" t="str">
+        <f>IF('Quorum 3.0'!C40="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,BoolObj,Fail</v>
+      </c>
+      <c r="F33" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G33" t="str">
+        <f>'Quorum 3.0'!H40</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H33" t="str">
+        <f>IF('Quorum 3.0'!I40="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,BoolObj,Fail</v>
+      </c>
+      <c r="K33" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L33" t="str">
+        <f>'Quorum 3.0'!N40</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M33" t="str">
+        <f>IF('Quorum 3.0'!O40="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,BoolObj,Fail</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B34" t="str">
+        <f>'Quorum 3.0'!B41</f>
+        <v>boolean</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF('Quorum 3.0'!C41="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,boolean,Fail</v>
+      </c>
+      <c r="F34" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G34" t="str">
+        <f>'Quorum 3.0'!H41</f>
+        <v>boolean</v>
+      </c>
+      <c r="H34" t="str">
+        <f>IF('Quorum 3.0'!I41="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,boolean,Fail</v>
+      </c>
+      <c r="K34" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L34" t="str">
+        <f>'Quorum 3.0'!N41</f>
+        <v>boolean</v>
+      </c>
+      <c r="M34" t="str">
+        <f>IF('Quorum 3.0'!O41="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,boolean,Fail</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B35" t="str">
+        <f>'Quorum 3.0'!B42</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C35" t="str">
+        <f>IF('Quorum 3.0'!C42="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,IntObj,Pass</v>
+      </c>
+      <c r="F35" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G35" t="str">
+        <f>'Quorum 3.0'!H42</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H35" t="str">
+        <f>IF('Quorum 3.0'!I42="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,IntObj,Fail</v>
+      </c>
+      <c r="K35" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L35" t="str">
+        <f>'Quorum 3.0'!N42</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M35" t="str">
+        <f>IF('Quorum 3.0'!O42="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,IntObj,Pass</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B36" t="str">
+        <f>'Quorum 3.0'!B43</f>
+        <v>integer</v>
+      </c>
+      <c r="C36" t="str">
+        <f>IF('Quorum 3.0'!C43="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,integer,Pass</v>
+      </c>
+      <c r="F36" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G36" t="str">
+        <f>'Quorum 3.0'!H43</f>
+        <v>integer</v>
+      </c>
+      <c r="H36" t="str">
+        <f>IF('Quorum 3.0'!I43="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,integer,Pass</v>
+      </c>
+      <c r="K36" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L36" t="str">
+        <f>'Quorum 3.0'!N43</f>
+        <v>integer</v>
+      </c>
+      <c r="M36" t="str">
+        <f>IF('Quorum 3.0'!O43="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,integer,Pass</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B37" t="str">
+        <f>'Quorum 3.0'!B44</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C37" t="str">
+        <f>IF('Quorum 3.0'!C44="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,NumObj,Fail</v>
+      </c>
+      <c r="F37" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G37" t="str">
+        <f>'Quorum 3.0'!H44</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H37" t="str">
+        <f>IF('Quorum 3.0'!I44="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,NumObj,Fail</v>
+      </c>
+      <c r="K37" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L37" t="str">
+        <f>'Quorum 3.0'!N44</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M37" t="str">
+        <f>IF('Quorum 3.0'!O44="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,NumObj,Fail</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B38" t="str">
+        <f>'Quorum 3.0'!B45</f>
+        <v>number</v>
+      </c>
+      <c r="C38" t="str">
+        <f>IF('Quorum 3.0'!C45="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,number,Pass</v>
+      </c>
+      <c r="F38" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G38" t="str">
+        <f>'Quorum 3.0'!H45</f>
+        <v>number</v>
+      </c>
+      <c r="H38" t="str">
+        <f>IF('Quorum 3.0'!I45="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,number,Fail</v>
+      </c>
+      <c r="K38" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L38" t="str">
+        <f>'Quorum 3.0'!N45</f>
+        <v>number</v>
+      </c>
+      <c r="M38" t="str">
+        <f>IF('Quorum 3.0'!O45="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,number,Fail</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B39" t="str">
+        <f>'Quorum 3.0'!B46</f>
+        <v>Object</v>
+      </c>
+      <c r="C39" t="str">
+        <f>IF('Quorum 3.0'!C46="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,Object,Pass</v>
+      </c>
+      <c r="F39" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G39" t="str">
+        <f>'Quorum 3.0'!H46</f>
+        <v>Object</v>
+      </c>
+      <c r="H39" t="str">
+        <f>IF('Quorum 3.0'!I46="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,Object,Fail</v>
+      </c>
+      <c r="K39" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L39" t="str">
+        <f>'Quorum 3.0'!N46</f>
+        <v>Object</v>
+      </c>
+      <c r="M39" t="str">
+        <f>IF('Quorum 3.0'!O46="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,Object,Fail</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B40" t="str">
+        <f>'Quorum 3.0'!B47</f>
+        <v>text</v>
+      </c>
+      <c r="C40" t="str">
+        <f>IF('Quorum 3.0'!C47="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,text,Pass</v>
+      </c>
+      <c r="F40" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G40" t="str">
+        <f>'Quorum 3.0'!H47</f>
+        <v>text</v>
+      </c>
+      <c r="H40" t="str">
+        <f>IF('Quorum 3.0'!I47="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,text,Fail</v>
+      </c>
+      <c r="K40" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L40" t="str">
+        <f>'Quorum 3.0'!N47</f>
+        <v>text</v>
+      </c>
+      <c r="M40" t="str">
+        <f>IF('Quorum 3.0'!O47="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,text,Fail</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B41" t="str">
+        <f>'Quorum 3.0'!B48</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C41" t="str">
+        <f>IF('Quorum 3.0'!C48="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,TextObj,Fail</v>
+      </c>
+      <c r="F41" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G41" t="str">
+        <f>'Quorum 3.0'!H48</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H41" t="str">
+        <f>IF('Quorum 3.0'!I48="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,TextObj,Fail</v>
+      </c>
+      <c r="K41" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L41" t="str">
+        <f>'Quorum 3.0'!N48</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M41" t="str">
+        <f>IF('Quorum 3.0'!O48="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,TextObj,Fail</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>'Quorum 3.0'!A$39</f>
+        <v>integer</v>
+      </c>
+      <c r="B42" t="str">
+        <f>'Quorum 3.0'!B49</f>
+        <v>undefined</v>
+      </c>
+      <c r="C42" t="str">
+        <f>IF('Quorum 3.0'!C49="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>integer,undefined,Fail</v>
+      </c>
+      <c r="F42" t="str">
+        <f>'Quorum 3.0'!G$39</f>
+        <v>integer</v>
+      </c>
+      <c r="G42" t="str">
+        <f>'Quorum 3.0'!H49</f>
+        <v>undefined</v>
+      </c>
+      <c r="H42" t="str">
+        <f>IF('Quorum 3.0'!I49="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>integer,undefined,Fail</v>
+      </c>
+      <c r="K42" t="str">
+        <f>'Quorum 3.0'!M$39</f>
+        <v>integer</v>
+      </c>
+      <c r="L42" t="str">
+        <f>'Quorum 3.0'!N49</f>
+        <v>undefined</v>
+      </c>
+      <c r="M42" t="str">
+        <f>IF('Quorum 3.0'!O49="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v>integer,undefined,Fail</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B43" t="str">
+        <f>'Quorum 3.0'!B51</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C43" t="str">
+        <f>IF('Quorum 3.0'!C51="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,BoolObj,Fail</v>
+      </c>
+      <c r="F43" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G43" t="str">
+        <f>'Quorum 3.0'!H51</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H43" t="str">
+        <f>IF('Quorum 3.0'!I51="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,BoolObj,Fail</v>
+      </c>
+      <c r="K43" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L43" t="str">
+        <f>'Quorum 3.0'!N51</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M43" t="str">
+        <f>IF('Quorum 3.0'!O51="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,BoolObj,Fail</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B44" t="str">
+        <f>'Quorum 3.0'!B52</f>
+        <v>boolean</v>
+      </c>
+      <c r="C44" t="str">
+        <f>IF('Quorum 3.0'!C52="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,boolean,Fail</v>
+      </c>
+      <c r="F44" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G44" t="str">
+        <f>'Quorum 3.0'!H52</f>
+        <v>boolean</v>
+      </c>
+      <c r="H44" t="str">
+        <f>IF('Quorum 3.0'!I52="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,boolean,Fail</v>
+      </c>
+      <c r="K44" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L44" t="str">
+        <f>'Quorum 3.0'!N52</f>
+        <v>boolean</v>
+      </c>
+      <c r="M44" t="str">
+        <f>IF('Quorum 3.0'!O52="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,boolean,Fail</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B45" t="str">
+        <f>'Quorum 3.0'!B53</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C45" t="str">
+        <f>IF('Quorum 3.0'!C53="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,IntObj,Fail</v>
+      </c>
+      <c r="F45" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G45" t="str">
+        <f>'Quorum 3.0'!H53</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H45" t="str">
+        <f>IF('Quorum 3.0'!I53="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,IntObj,Fail</v>
+      </c>
+      <c r="K45" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L45" t="str">
+        <f>'Quorum 3.0'!N53</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M45" t="str">
+        <f>IF('Quorum 3.0'!O53="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,IntObj,Pass</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B46" t="str">
+        <f>'Quorum 3.0'!B54</f>
+        <v>integer</v>
+      </c>
+      <c r="C46" t="str">
+        <f>IF('Quorum 3.0'!C54="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,integer,Fail</v>
+      </c>
+      <c r="F46" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G46" t="str">
+        <f>'Quorum 3.0'!H54</f>
+        <v>integer</v>
+      </c>
+      <c r="H46" t="str">
+        <f>IF('Quorum 3.0'!I54="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,integer,Fail</v>
+      </c>
+      <c r="K46" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L46" t="str">
+        <f>'Quorum 3.0'!N54</f>
+        <v>integer</v>
+      </c>
+      <c r="M46" t="str">
+        <f>IF('Quorum 3.0'!O54="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,integer,Pass</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B47" t="str">
+        <f>'Quorum 3.0'!B55</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C47" t="str">
+        <f>IF('Quorum 3.0'!C55="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,NumObj,Pass</v>
+      </c>
+      <c r="F47" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G47" t="str">
+        <f>'Quorum 3.0'!H55</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H47" t="str">
+        <f>IF('Quorum 3.0'!I55="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,NumObj,Pass</v>
+      </c>
+      <c r="K47" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L47" t="str">
+        <f>'Quorum 3.0'!N55</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M47" t="str">
+        <f>IF('Quorum 3.0'!O55="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,NumObj,Pass</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B48" t="str">
+        <f>'Quorum 3.0'!B56</f>
+        <v>number</v>
+      </c>
+      <c r="C48" t="str">
+        <f>IF('Quorum 3.0'!C56="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,number,Pass</v>
+      </c>
+      <c r="F48" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G48" t="str">
+        <f>'Quorum 3.0'!H56</f>
+        <v>number</v>
+      </c>
+      <c r="H48" t="str">
+        <f>IF('Quorum 3.0'!I56="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,number,Fail</v>
+      </c>
+      <c r="K48" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L48" t="str">
+        <f>'Quorum 3.0'!N56</f>
+        <v>number</v>
+      </c>
+      <c r="M48" t="str">
+        <f>IF('Quorum 3.0'!O56="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,number,Pass</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B49" t="str">
+        <f>'Quorum 3.0'!B57</f>
+        <v>Object</v>
+      </c>
+      <c r="C49" t="str">
+        <f>IF('Quorum 3.0'!C57="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,Object,Pass</v>
+      </c>
+      <c r="F49" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G49" t="str">
+        <f>'Quorum 3.0'!H57</f>
+        <v>Object</v>
+      </c>
+      <c r="H49" t="str">
+        <f>IF('Quorum 3.0'!I57="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,Object,Fail</v>
+      </c>
+      <c r="K49" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L49" t="str">
+        <f>'Quorum 3.0'!N57</f>
+        <v>Object</v>
+      </c>
+      <c r="M49" t="str">
+        <f>IF('Quorum 3.0'!O57="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,Object,Fail</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B50" t="str">
+        <f>'Quorum 3.0'!B58</f>
+        <v>text</v>
+      </c>
+      <c r="C50" t="str">
+        <f>IF('Quorum 3.0'!C58="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,text,Fail</v>
+      </c>
+      <c r="F50" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G50" t="str">
+        <f>'Quorum 3.0'!H58</f>
+        <v>text</v>
+      </c>
+      <c r="H50" t="str">
+        <f>IF('Quorum 3.0'!I58="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,text,Fail</v>
+      </c>
+      <c r="K50" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L50" t="str">
+        <f>'Quorum 3.0'!N58</f>
+        <v>text</v>
+      </c>
+      <c r="M50" t="str">
+        <f>IF('Quorum 3.0'!O58="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,text,Fail</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B51" t="str">
+        <f>'Quorum 3.0'!B59</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C51" t="str">
+        <f>IF('Quorum 3.0'!C59="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,TextObj,Fail</v>
+      </c>
+      <c r="F51" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G51" t="str">
+        <f>'Quorum 3.0'!H59</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H51" t="str">
+        <f>IF('Quorum 3.0'!I59="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,TextObj,Fail</v>
+      </c>
+      <c r="K51" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L51" t="str">
+        <f>'Quorum 3.0'!N59</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M51" t="str">
+        <f>IF('Quorum 3.0'!O59="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,TextObj,Fail</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>'Quorum 3.0'!A$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="B52" t="str">
+        <f>'Quorum 3.0'!B60</f>
+        <v>undefined</v>
+      </c>
+      <c r="C52" t="str">
+        <f>IF('Quorum 3.0'!C60="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>NumObj,undefined,Pass</v>
+      </c>
+      <c r="F52" t="str">
+        <f>'Quorum 3.0'!G$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="G52" t="str">
+        <f>'Quorum 3.0'!H60</f>
+        <v>undefined</v>
+      </c>
+      <c r="H52" t="str">
+        <f>IF('Quorum 3.0'!I60="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>NumObj,undefined,Pass</v>
+      </c>
+      <c r="K52" t="str">
+        <f>'Quorum 3.0'!M$50</f>
+        <v>NumObj</v>
+      </c>
+      <c r="L52" t="str">
+        <f>'Quorum 3.0'!N60</f>
+        <v>undefined</v>
+      </c>
+      <c r="M52" t="str">
+        <f>IF('Quorum 3.0'!O60="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="2"/>
+        <v>NumObj,undefined,Pass</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B53" t="str">
+        <f>'Quorum 3.0'!B62</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C53" t="str">
+        <f>IF('Quorum 3.0'!C62="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>number,BoolObj,Fail</v>
+      </c>
+      <c r="F53" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G53" t="str">
+        <f>'Quorum 3.0'!H62</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H53" t="str">
+        <f>IF('Quorum 3.0'!I62="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v>number,BoolObj,Fail</v>
+      </c>
+      <c r="K53" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L53" t="str">
+        <f>'Quorum 3.0'!N62</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M53" t="str">
+        <f>IF('Quorum 3.0'!O62="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="2"/>
+        <v>number,BoolObj,Fail</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B54" t="str">
+        <f>'Quorum 3.0'!B63</f>
+        <v>boolean</v>
+      </c>
+      <c r="C54" t="str">
+        <f>IF('Quorum 3.0'!C63="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>number,boolean,Fail</v>
+      </c>
+      <c r="F54" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G54" t="str">
+        <f>'Quorum 3.0'!H63</f>
+        <v>boolean</v>
+      </c>
+      <c r="H54" t="str">
+        <f>IF('Quorum 3.0'!I63="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>number,boolean,Fail</v>
+      </c>
+      <c r="K54" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L54" t="str">
+        <f>'Quorum 3.0'!N63</f>
+        <v>boolean</v>
+      </c>
+      <c r="M54" t="str">
+        <f>IF('Quorum 3.0'!O63="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="2"/>
+        <v>number,boolean,Fail</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B55" t="str">
+        <f>'Quorum 3.0'!B64</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C55" t="str">
+        <f>IF('Quorum 3.0'!C64="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>number,IntObj,Fail</v>
+      </c>
+      <c r="F55" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G55" t="str">
+        <f>'Quorum 3.0'!H64</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H55" t="str">
+        <f>IF('Quorum 3.0'!I64="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v>number,IntObj,Fail</v>
+      </c>
+      <c r="K55" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L55" t="str">
+        <f>'Quorum 3.0'!N64</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M55" t="str">
+        <f>IF('Quorum 3.0'!O64="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="2"/>
+        <v>number,IntObj,Pass</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B56" t="str">
+        <f>'Quorum 3.0'!B65</f>
+        <v>integer</v>
+      </c>
+      <c r="C56" t="str">
+        <f>IF('Quorum 3.0'!C65="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>number,integer,Pass</v>
+      </c>
+      <c r="F56" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G56" t="str">
+        <f>'Quorum 3.0'!H65</f>
+        <v>integer</v>
+      </c>
+      <c r="H56" t="str">
+        <f>IF('Quorum 3.0'!I65="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>number,integer,Pass</v>
+      </c>
+      <c r="K56" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L56" t="str">
+        <f>'Quorum 3.0'!N65</f>
+        <v>integer</v>
+      </c>
+      <c r="M56" t="str">
+        <f>IF('Quorum 3.0'!O65="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="2"/>
+        <v>number,integer,Pass</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B57" t="str">
+        <f>'Quorum 3.0'!B66</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C57" t="str">
+        <f>IF('Quorum 3.0'!C66="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>number,NumObj,Pass</v>
+      </c>
+      <c r="F57" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G57" t="str">
+        <f>'Quorum 3.0'!H66</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H57" t="str">
+        <f>IF('Quorum 3.0'!I66="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>number,NumObj,Fail</v>
+      </c>
+      <c r="K57" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L57" t="str">
+        <f>'Quorum 3.0'!N66</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M57" t="str">
+        <f>IF('Quorum 3.0'!O66="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="2"/>
+        <v>number,NumObj,Pass</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B58" t="str">
+        <f>'Quorum 3.0'!B67</f>
+        <v>number</v>
+      </c>
+      <c r="C58" t="str">
+        <f>IF('Quorum 3.0'!C67="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>number,number,Pass</v>
+      </c>
+      <c r="F58" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G58" t="str">
+        <f>'Quorum 3.0'!H67</f>
+        <v>number</v>
+      </c>
+      <c r="H58" t="str">
+        <f>IF('Quorum 3.0'!I67="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>number,number,Pass</v>
+      </c>
+      <c r="K58" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L58" t="str">
+        <f>'Quorum 3.0'!N67</f>
+        <v>number</v>
+      </c>
+      <c r="M58" t="str">
+        <f>IF('Quorum 3.0'!O67="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="2"/>
+        <v>number,number,Pass</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B59" t="str">
+        <f>'Quorum 3.0'!B68</f>
+        <v>Object</v>
+      </c>
+      <c r="C59" t="str">
+        <f>IF('Quorum 3.0'!C68="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>number,Object,Pass</v>
+      </c>
+      <c r="F59" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G59" t="str">
+        <f>'Quorum 3.0'!H68</f>
+        <v>Object</v>
+      </c>
+      <c r="H59" t="str">
+        <f>IF('Quorum 3.0'!I68="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>number,Object,Fail</v>
+      </c>
+      <c r="K59" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L59" t="str">
+        <f>'Quorum 3.0'!N68</f>
+        <v>Object</v>
+      </c>
+      <c r="M59" t="str">
+        <f>IF('Quorum 3.0'!O68="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="2"/>
+        <v>number,Object,Fail</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B60" t="str">
+        <f>'Quorum 3.0'!B69</f>
+        <v>text</v>
+      </c>
+      <c r="C60" t="str">
+        <f>IF('Quorum 3.0'!C69="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>number,text,Pass</v>
+      </c>
+      <c r="F60" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G60" t="str">
+        <f>'Quorum 3.0'!H69</f>
+        <v>text</v>
+      </c>
+      <c r="H60" t="str">
+        <f>IF('Quorum 3.0'!I69="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>number,text,Fail</v>
+      </c>
+      <c r="K60" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L60" t="str">
+        <f>'Quorum 3.0'!N69</f>
+        <v>text</v>
+      </c>
+      <c r="M60" t="str">
+        <f>IF('Quorum 3.0'!O69="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="2"/>
+        <v>number,text,Fail</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B61" t="str">
+        <f>'Quorum 3.0'!B70</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C61" t="str">
+        <f>IF('Quorum 3.0'!C70="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>number,TextObj,Fail</v>
+      </c>
+      <c r="F61" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G61" t="str">
+        <f>'Quorum 3.0'!H70</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H61" t="str">
+        <f>IF('Quorum 3.0'!I70="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>number,TextObj,Fail</v>
+      </c>
+      <c r="K61" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L61" t="str">
+        <f>'Quorum 3.0'!N70</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M61" t="str">
+        <f>IF('Quorum 3.0'!O70="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="2"/>
+        <v>number,TextObj,Fail</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>'Quorum 3.0'!A$61</f>
+        <v>number</v>
+      </c>
+      <c r="B62" t="str">
+        <f>'Quorum 3.0'!B71</f>
+        <v>undefined</v>
+      </c>
+      <c r="C62" t="str">
+        <f>IF('Quorum 3.0'!C71="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>number,undefined,Fail</v>
+      </c>
+      <c r="F62" t="str">
+        <f>'Quorum 3.0'!G$61</f>
+        <v>number</v>
+      </c>
+      <c r="G62" t="str">
+        <f>'Quorum 3.0'!H71</f>
+        <v>undefined</v>
+      </c>
+      <c r="H62" t="str">
+        <f>IF('Quorum 3.0'!I71="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>number,undefined,Fail</v>
+      </c>
+      <c r="K62" t="str">
+        <f>'Quorum 3.0'!M$61</f>
+        <v>number</v>
+      </c>
+      <c r="L62" t="str">
+        <f>'Quorum 3.0'!N71</f>
+        <v>undefined</v>
+      </c>
+      <c r="M62" t="str">
+        <f>IF('Quorum 3.0'!O71="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="2"/>
+        <v>number,undefined,Fail</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B63" t="str">
+        <f>'Quorum 3.0'!B73</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C63" t="str">
+        <f>IF('Quorum 3.0'!C73="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>Object,BoolObj,Pass</v>
+      </c>
+      <c r="F63" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G63" t="str">
+        <f>'Quorum 3.0'!H73</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H63" t="str">
+        <f>IF('Quorum 3.0'!I73="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>Object,BoolObj,Pass</v>
+      </c>
+      <c r="K63" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L63" t="str">
+        <f>'Quorum 3.0'!N73</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M63" t="str">
+        <f>IF('Quorum 3.0'!O73="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="2"/>
+        <v>Object,BoolObj,Pass</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B64" t="str">
+        <f>'Quorum 3.0'!B74</f>
+        <v>boolean</v>
+      </c>
+      <c r="C64" t="str">
+        <f>IF('Quorum 3.0'!C74="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>Object,boolean,Pass</v>
+      </c>
+      <c r="F64" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G64" t="str">
+        <f>'Quorum 3.0'!H74</f>
+        <v>boolean</v>
+      </c>
+      <c r="H64" t="str">
+        <f>IF('Quorum 3.0'!I74="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>Object,boolean,Fail</v>
+      </c>
+      <c r="K64" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L64" t="str">
+        <f>'Quorum 3.0'!N74</f>
+        <v>boolean</v>
+      </c>
+      <c r="M64" t="str">
+        <f>IF('Quorum 3.0'!O74="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="2"/>
+        <v>Object,boolean,Fail</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B65" t="str">
+        <f>'Quorum 3.0'!B75</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C65" t="str">
+        <f>IF('Quorum 3.0'!C75="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>Object,IntObj,Pass</v>
+      </c>
+      <c r="F65" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G65" t="str">
+        <f>'Quorum 3.0'!H75</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H65" t="str">
+        <f>IF('Quorum 3.0'!I75="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>Object,IntObj,Pass</v>
+      </c>
+      <c r="K65" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L65" t="str">
+        <f>'Quorum 3.0'!N75</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M65" t="str">
+        <f>IF('Quorum 3.0'!O75="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="2"/>
+        <v>Object,IntObj,Pass</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B66" t="str">
+        <f>'Quorum 3.0'!B76</f>
+        <v>integer</v>
+      </c>
+      <c r="C66" t="str">
+        <f>IF('Quorum 3.0'!C76="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>Object,integer,Pass</v>
+      </c>
+      <c r="F66" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G66" t="str">
+        <f>'Quorum 3.0'!H76</f>
+        <v>integer</v>
+      </c>
+      <c r="H66" t="str">
+        <f>IF('Quorum 3.0'!I76="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>Object,integer,Fail</v>
+      </c>
+      <c r="K66" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L66" t="str">
+        <f>'Quorum 3.0'!N76</f>
+        <v>integer</v>
+      </c>
+      <c r="M66" t="str">
+        <f>IF('Quorum 3.0'!O76="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="2"/>
+        <v>Object,integer,Fail</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B67" t="str">
+        <f>'Quorum 3.0'!B77</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C67" t="str">
+        <f>IF('Quorum 3.0'!C77="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>Object,NumObj,Pass</v>
+      </c>
+      <c r="F67" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G67" t="str">
+        <f>'Quorum 3.0'!H77</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H67" t="str">
+        <f>IF('Quorum 3.0'!I77="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>Object,NumObj,Pass</v>
+      </c>
+      <c r="K67" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L67" t="str">
+        <f>'Quorum 3.0'!N77</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M67" t="str">
+        <f>IF('Quorum 3.0'!O77="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="2"/>
+        <v>Object,NumObj,Pass</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B68" t="str">
+        <f>'Quorum 3.0'!B78</f>
+        <v>number</v>
+      </c>
+      <c r="C68" t="str">
+        <f>IF('Quorum 3.0'!C78="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D93" si="3">A68&amp;","&amp;B68&amp;","&amp;C68</f>
+        <v>Object,number,Pass</v>
+      </c>
+      <c r="F68" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G68" t="str">
+        <f>'Quorum 3.0'!H78</f>
+        <v>number</v>
+      </c>
+      <c r="H68" t="str">
+        <f>IF('Quorum 3.0'!I78="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" ref="I68:I93" si="4">F68&amp;","&amp;G68&amp;","&amp;H68</f>
+        <v>Object,number,Fail</v>
+      </c>
+      <c r="K68" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L68" t="str">
+        <f>'Quorum 3.0'!N78</f>
+        <v>number</v>
+      </c>
+      <c r="M68" t="str">
+        <f>IF('Quorum 3.0'!O78="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" ref="N68:N93" si="5">K68&amp;","&amp;L68&amp;","&amp;M68</f>
+        <v>Object,number,Fail</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B69" t="str">
+        <f>'Quorum 3.0'!B79</f>
+        <v>Object</v>
+      </c>
+      <c r="C69" t="str">
+        <f>IF('Quorum 3.0'!C79="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>Object,Object,Pass</v>
+      </c>
+      <c r="F69" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G69" t="str">
+        <f>'Quorum 3.0'!H79</f>
+        <v>Object</v>
+      </c>
+      <c r="H69" t="str">
+        <f>IF('Quorum 3.0'!I79="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="4"/>
+        <v>Object,Object,Pass</v>
+      </c>
+      <c r="K69" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L69" t="str">
+        <f>'Quorum 3.0'!N79</f>
+        <v>Object</v>
+      </c>
+      <c r="M69" t="str">
+        <f>IF('Quorum 3.0'!O79="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="5"/>
+        <v>Object,Object,Pass</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B70" t="str">
+        <f>'Quorum 3.0'!B80</f>
+        <v>text</v>
+      </c>
+      <c r="C70" t="str">
+        <f>IF('Quorum 3.0'!C80="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>Object,text,Pass</v>
+      </c>
+      <c r="F70" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G70" t="str">
+        <f>'Quorum 3.0'!H80</f>
+        <v>text</v>
+      </c>
+      <c r="H70" t="str">
+        <f>IF('Quorum 3.0'!I80="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="4"/>
+        <v>Object,text,Fail</v>
+      </c>
+      <c r="K70" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L70" t="str">
+        <f>'Quorum 3.0'!N80</f>
+        <v>text</v>
+      </c>
+      <c r="M70" t="str">
+        <f>IF('Quorum 3.0'!O80="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="5"/>
+        <v>Object,text,Fail</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B71" t="str">
+        <f>'Quorum 3.0'!B81</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C71" t="str">
+        <f>IF('Quorum 3.0'!C81="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>Object,TextObj,Pass</v>
+      </c>
+      <c r="F71" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G71" t="str">
+        <f>'Quorum 3.0'!H81</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H71" t="str">
+        <f>IF('Quorum 3.0'!I81="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="4"/>
+        <v>Object,TextObj,Pass</v>
+      </c>
+      <c r="K71" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L71" t="str">
+        <f>'Quorum 3.0'!N81</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M71" t="str">
+        <f>IF('Quorum 3.0'!O81="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="5"/>
+        <v>Object,TextObj,Pass</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>'Quorum 3.0'!A$72</f>
+        <v>Object</v>
+      </c>
+      <c r="B72" t="str">
+        <f>'Quorum 3.0'!B82</f>
+        <v>undefined</v>
+      </c>
+      <c r="C72" t="str">
+        <f>IF('Quorum 3.0'!C82="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>Object,undefined,Pass</v>
+      </c>
+      <c r="F72" t="str">
+        <f>'Quorum 3.0'!G$72</f>
+        <v>Object</v>
+      </c>
+      <c r="G72" t="str">
+        <f>'Quorum 3.0'!H82</f>
+        <v>undefined</v>
+      </c>
+      <c r="H72" t="str">
+        <f>IF('Quorum 3.0'!I82="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="4"/>
+        <v>Object,undefined,Pass</v>
+      </c>
+      <c r="K72" t="str">
+        <f>'Quorum 3.0'!M$72</f>
+        <v>Object</v>
+      </c>
+      <c r="L72" t="str">
+        <f>'Quorum 3.0'!N82</f>
+        <v>undefined</v>
+      </c>
+      <c r="M72" t="str">
+        <f>IF('Quorum 3.0'!O82="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="5"/>
+        <v>Object,undefined,Pass</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B73" t="str">
+        <f>'Quorum 3.0'!B84</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C73" t="str">
+        <f>IF('Quorum 3.0'!C84="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>text,BoolObj,Fail</v>
+      </c>
+      <c r="F73" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G73" t="str">
+        <f>'Quorum 3.0'!H84</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H73" t="str">
+        <f>IF('Quorum 3.0'!I84="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="4"/>
+        <v>text,BoolObj,Fail</v>
+      </c>
+      <c r="K73" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L73" t="str">
+        <f>'Quorum 3.0'!N84</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M73" t="str">
+        <f>IF('Quorum 3.0'!O84="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="5"/>
+        <v>text,BoolObj,Fail</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B74" t="str">
+        <f>'Quorum 3.0'!B85</f>
+        <v>boolean</v>
+      </c>
+      <c r="C74" t="str">
+        <f>IF('Quorum 3.0'!C85="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>text,boolean,Pass</v>
+      </c>
+      <c r="F74" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G74" t="str">
+        <f>'Quorum 3.0'!H85</f>
+        <v>boolean</v>
+      </c>
+      <c r="H74" t="str">
+        <f>IF('Quorum 3.0'!I85="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="4"/>
+        <v>text,boolean,Fail</v>
+      </c>
+      <c r="K74" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L74" t="str">
+        <f>'Quorum 3.0'!N85</f>
+        <v>boolean</v>
+      </c>
+      <c r="M74" t="str">
+        <f>IF('Quorum 3.0'!O85="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="5"/>
+        <v>text,boolean,Fail</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B75" t="str">
+        <f>'Quorum 3.0'!B86</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C75" t="str">
+        <f>IF('Quorum 3.0'!C86="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>text,IntObj,Fail</v>
+      </c>
+      <c r="F75" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G75" t="str">
+        <f>'Quorum 3.0'!H86</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H75" t="str">
+        <f>IF('Quorum 3.0'!I86="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="4"/>
+        <v>text,IntObj,Fail</v>
+      </c>
+      <c r="K75" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L75" t="str">
+        <f>'Quorum 3.0'!N86</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M75" t="str">
+        <f>IF('Quorum 3.0'!O86="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="5"/>
+        <v>text,IntObj,Fail</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B76" t="str">
+        <f>'Quorum 3.0'!B87</f>
+        <v>integer</v>
+      </c>
+      <c r="C76" t="str">
+        <f>IF('Quorum 3.0'!C87="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>text,integer,Pass</v>
+      </c>
+      <c r="F76" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G76" t="str">
+        <f>'Quorum 3.0'!H87</f>
+        <v>integer</v>
+      </c>
+      <c r="H76" t="str">
+        <f>IF('Quorum 3.0'!I87="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="4"/>
+        <v>text,integer,Fail</v>
+      </c>
+      <c r="K76" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L76" t="str">
+        <f>'Quorum 3.0'!N87</f>
+        <v>integer</v>
+      </c>
+      <c r="M76" t="str">
+        <f>IF('Quorum 3.0'!O87="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="5"/>
+        <v>text,integer,Fail</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B77" t="str">
+        <f>'Quorum 3.0'!B88</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C77" t="str">
+        <f>IF('Quorum 3.0'!C88="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v>text,NumObj,Fail</v>
+      </c>
+      <c r="F77" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G77" t="str">
+        <f>'Quorum 3.0'!H88</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H77" t="str">
+        <f>IF('Quorum 3.0'!I88="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="4"/>
+        <v>text,NumObj,Fail</v>
+      </c>
+      <c r="K77" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L77" t="str">
+        <f>'Quorum 3.0'!N88</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M77" t="str">
+        <f>IF('Quorum 3.0'!O88="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="5"/>
+        <v>text,NumObj,Fail</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B78" t="str">
+        <f>'Quorum 3.0'!B89</f>
+        <v>number</v>
+      </c>
+      <c r="C78" t="str">
+        <f>IF('Quorum 3.0'!C89="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>text,number,Pass</v>
+      </c>
+      <c r="F78" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G78" t="str">
+        <f>'Quorum 3.0'!H89</f>
+        <v>number</v>
+      </c>
+      <c r="H78" t="str">
+        <f>IF('Quorum 3.0'!I89="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="4"/>
+        <v>text,number,Fail</v>
+      </c>
+      <c r="K78" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L78" t="str">
+        <f>'Quorum 3.0'!N89</f>
+        <v>number</v>
+      </c>
+      <c r="M78" t="str">
+        <f>IF('Quorum 3.0'!O89="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="5"/>
+        <v>text,number,Fail</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B79" t="str">
+        <f>'Quorum 3.0'!B90</f>
+        <v>Object</v>
+      </c>
+      <c r="C79" t="str">
+        <f>IF('Quorum 3.0'!C90="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v>text,Object,Pass</v>
+      </c>
+      <c r="F79" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G79" t="str">
+        <f>'Quorum 3.0'!H90</f>
+        <v>Object</v>
+      </c>
+      <c r="H79" t="str">
+        <f>IF('Quorum 3.0'!I90="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="4"/>
+        <v>text,Object,Fail</v>
+      </c>
+      <c r="K79" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L79" t="str">
+        <f>'Quorum 3.0'!N90</f>
+        <v>Object</v>
+      </c>
+      <c r="M79" t="str">
+        <f>IF('Quorum 3.0'!O90="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="5"/>
+        <v>text,Object,Fail</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B80" t="str">
+        <f>'Quorum 3.0'!B91</f>
+        <v>text</v>
+      </c>
+      <c r="C80" t="str">
+        <f>IF('Quorum 3.0'!C91="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="3"/>
+        <v>text,text,Pass</v>
+      </c>
+      <c r="F80" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G80" t="str">
+        <f>'Quorum 3.0'!H91</f>
+        <v>text</v>
+      </c>
+      <c r="H80" t="str">
+        <f>IF('Quorum 3.0'!I91="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="4"/>
+        <v>text,text,Pass</v>
+      </c>
+      <c r="K80" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L80" t="str">
+        <f>'Quorum 3.0'!N91</f>
+        <v>text</v>
+      </c>
+      <c r="M80" t="str">
+        <f>IF('Quorum 3.0'!O91="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="5"/>
+        <v>text,text,Pass</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B81" t="str">
+        <f>'Quorum 3.0'!B92</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C81" t="str">
+        <f>IF('Quorum 3.0'!C92="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="3"/>
+        <v>text,TextObj,Pass</v>
+      </c>
+      <c r="F81" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G81" t="str">
+        <f>'Quorum 3.0'!H92</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H81" t="str">
+        <f>IF('Quorum 3.0'!I92="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="4"/>
+        <v>text,TextObj,Fail</v>
+      </c>
+      <c r="K81" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L81" t="str">
+        <f>'Quorum 3.0'!N92</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M81" t="str">
+        <f>IF('Quorum 3.0'!O92="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="5"/>
+        <v>text,TextObj,Pass</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>'Quorum 3.0'!A$83</f>
+        <v>text</v>
+      </c>
+      <c r="B82" t="str">
+        <f>'Quorum 3.0'!B93</f>
+        <v>undefined</v>
+      </c>
+      <c r="C82" t="str">
+        <f>IF('Quorum 3.0'!C93="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="3"/>
+        <v>text,undefined,Pass</v>
+      </c>
+      <c r="F82" t="str">
+        <f>'Quorum 3.0'!G$83</f>
+        <v>text</v>
+      </c>
+      <c r="G82" t="str">
+        <f>'Quorum 3.0'!H93</f>
+        <v>undefined</v>
+      </c>
+      <c r="H82" t="str">
+        <f>IF('Quorum 3.0'!I93="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="4"/>
+        <v>text,undefined,Pass</v>
+      </c>
+      <c r="K82" t="str">
+        <f>'Quorum 3.0'!M$83</f>
+        <v>text</v>
+      </c>
+      <c r="L82" t="str">
+        <f>'Quorum 3.0'!N93</f>
+        <v>undefined</v>
+      </c>
+      <c r="M82" t="str">
+        <f>IF('Quorum 3.0'!O93="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="5"/>
+        <v>text,undefined,Pass</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B83" t="str">
+        <f>'Quorum 3.0'!B95</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="C83" t="str">
+        <f>IF('Quorum 3.0'!C95="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,BoolObj,Fail</v>
+      </c>
+      <c r="F83" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G83" t="str">
+        <f>'Quorum 3.0'!H95</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="H83" t="str">
+        <f>IF('Quorum 3.0'!I95="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,BoolObj,Fail</v>
+      </c>
+      <c r="K83" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L83" t="str">
+        <f>'Quorum 3.0'!N95</f>
+        <v>BoolObj</v>
+      </c>
+      <c r="M83" t="str">
+        <f>IF('Quorum 3.0'!O95="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,BoolObj,Fail</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B84" t="str">
+        <f>'Quorum 3.0'!B96</f>
+        <v>boolean</v>
+      </c>
+      <c r="C84" t="str">
+        <f>IF('Quorum 3.0'!C96="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,boolean,Fail</v>
+      </c>
+      <c r="F84" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G84" t="str">
+        <f>'Quorum 3.0'!H96</f>
+        <v>boolean</v>
+      </c>
+      <c r="H84" t="str">
+        <f>IF('Quorum 3.0'!I96="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,boolean,Fail</v>
+      </c>
+      <c r="K84" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L84" t="str">
+        <f>'Quorum 3.0'!N96</f>
+        <v>boolean</v>
+      </c>
+      <c r="M84" t="str">
+        <f>IF('Quorum 3.0'!O96="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,boolean,Fail</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B85" t="str">
+        <f>'Quorum 3.0'!B97</f>
+        <v>IntObj</v>
+      </c>
+      <c r="C85" t="str">
+        <f>IF('Quorum 3.0'!C97="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,IntObj,Fail</v>
+      </c>
+      <c r="F85" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G85" t="str">
+        <f>'Quorum 3.0'!H97</f>
+        <v>IntObj</v>
+      </c>
+      <c r="H85" t="str">
+        <f>IF('Quorum 3.0'!I97="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,IntObj,Fail</v>
+      </c>
+      <c r="K85" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L85" t="str">
+        <f>'Quorum 3.0'!N97</f>
+        <v>IntObj</v>
+      </c>
+      <c r="M85" t="str">
+        <f>IF('Quorum 3.0'!O97="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,IntObj,Fail</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B86" t="str">
+        <f>'Quorum 3.0'!B98</f>
+        <v>integer</v>
+      </c>
+      <c r="C86" t="str">
+        <f>IF('Quorum 3.0'!C98="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,integer,Fail</v>
+      </c>
+      <c r="F86" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G86" t="str">
+        <f>'Quorum 3.0'!H98</f>
+        <v>integer</v>
+      </c>
+      <c r="H86" t="str">
+        <f>IF('Quorum 3.0'!I98="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,integer,Fail</v>
+      </c>
+      <c r="K86" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L86" t="str">
+        <f>'Quorum 3.0'!N98</f>
+        <v>integer</v>
+      </c>
+      <c r="M86" t="str">
+        <f>IF('Quorum 3.0'!O98="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,integer,Fail</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B87" t="str">
+        <f>'Quorum 3.0'!B99</f>
+        <v>NumObj</v>
+      </c>
+      <c r="C87" t="str">
+        <f>IF('Quorum 3.0'!C99="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,NumObj,Fail</v>
+      </c>
+      <c r="F87" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G87" t="str">
+        <f>'Quorum 3.0'!H99</f>
+        <v>NumObj</v>
+      </c>
+      <c r="H87" t="str">
+        <f>IF('Quorum 3.0'!I99="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,NumObj,Fail</v>
+      </c>
+      <c r="K87" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L87" t="str">
+        <f>'Quorum 3.0'!N99</f>
+        <v>NumObj</v>
+      </c>
+      <c r="M87" t="str">
+        <f>IF('Quorum 3.0'!O99="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,NumObj,Fail</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B88" t="str">
+        <f>'Quorum 3.0'!B100</f>
+        <v>number</v>
+      </c>
+      <c r="C88" t="str">
+        <f>IF('Quorum 3.0'!C100="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,number,Fail</v>
+      </c>
+      <c r="F88" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G88" t="str">
+        <f>'Quorum 3.0'!H100</f>
+        <v>number</v>
+      </c>
+      <c r="H88" t="str">
+        <f>IF('Quorum 3.0'!I100="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,number,Fail</v>
+      </c>
+      <c r="K88" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L88" t="str">
+        <f>'Quorum 3.0'!N100</f>
+        <v>number</v>
+      </c>
+      <c r="M88" t="str">
+        <f>IF('Quorum 3.0'!O100="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,number,Fail</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B89" t="str">
+        <f>'Quorum 3.0'!B101</f>
+        <v>Object</v>
+      </c>
+      <c r="C89" t="str">
+        <f>IF('Quorum 3.0'!C101="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,Object,Pass</v>
+      </c>
+      <c r="F89" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G89" t="str">
+        <f>'Quorum 3.0'!H101</f>
+        <v>Object</v>
+      </c>
+      <c r="H89" t="str">
+        <f>IF('Quorum 3.0'!I101="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,Object,Fail</v>
+      </c>
+      <c r="K89" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L89" t="str">
+        <f>'Quorum 3.0'!N101</f>
+        <v>Object</v>
+      </c>
+      <c r="M89" t="str">
+        <f>IF('Quorum 3.0'!O101="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,Object,Fail</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B90" t="str">
+        <f>'Quorum 3.0'!B102</f>
+        <v>text</v>
+      </c>
+      <c r="C90" t="str">
+        <f>IF('Quorum 3.0'!C102="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,text,Pass</v>
+      </c>
+      <c r="F90" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G90" t="str">
+        <f>'Quorum 3.0'!H102</f>
+        <v>text</v>
+      </c>
+      <c r="H90" t="str">
+        <f>IF('Quorum 3.0'!I102="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,text,Fail</v>
+      </c>
+      <c r="K90" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L90" t="str">
+        <f>'Quorum 3.0'!N102</f>
+        <v>text</v>
+      </c>
+      <c r="M90" t="str">
+        <f>IF('Quorum 3.0'!O102="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,text,Pass</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B91" t="str">
+        <f>'Quorum 3.0'!B103</f>
+        <v>TextObj</v>
+      </c>
+      <c r="C91" t="str">
+        <f>IF('Quorum 3.0'!C103="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,TextObj,Pass</v>
+      </c>
+      <c r="F91" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G91" t="str">
+        <f>'Quorum 3.0'!H103</f>
+        <v>TextObj</v>
+      </c>
+      <c r="H91" t="str">
+        <f>IF('Quorum 3.0'!I103="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,TextObj,Pass</v>
+      </c>
+      <c r="K91" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L91" t="str">
+        <f>'Quorum 3.0'!N103</f>
+        <v>TextObj</v>
+      </c>
+      <c r="M91" t="str">
+        <f>IF('Quorum 3.0'!O103="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,TextObj,Pass</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>'Quorum 3.0'!A$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="B92" t="str">
+        <f>'Quorum 3.0'!B104</f>
+        <v>undefined</v>
+      </c>
+      <c r="C92" t="str">
+        <f>IF('Quorum 3.0'!C104="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="3"/>
+        <v>TextObj,undefined,Pass</v>
+      </c>
+      <c r="F92" t="str">
+        <f>'Quorum 3.0'!G$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="G92" t="str">
+        <f>'Quorum 3.0'!H104</f>
+        <v>undefined</v>
+      </c>
+      <c r="H92" t="str">
+        <f>IF('Quorum 3.0'!I104="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="4"/>
+        <v>TextObj,undefined,Pass</v>
+      </c>
+      <c r="K92" t="str">
+        <f>'Quorum 3.0'!M$94</f>
+        <v>TextObj</v>
+      </c>
+      <c r="L92" t="str">
+        <f>'Quorum 3.0'!N104</f>
+        <v>undefined</v>
+      </c>
+      <c r="M92" t="str">
+        <f>IF('Quorum 3.0'!O104="x", "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="5"/>
+        <v>TextObj,undefined,Pass</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>'Quorum 3.0'!A$105</f>
+        <v>undefined</v>
+      </c>
+      <c r="B93" t="str">
+        <f>'Quorum 3.0'!B106</f>
+        <v>Object</v>
+      </c>
+      <c r="C93" t="str">
+        <f>IF('Quorum 3.0'!C106="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="3"/>
+        <v>undefined,Object,Fail</v>
+      </c>
+      <c r="F93" t="str">
+        <f>'Quorum 3.0'!G$105</f>
+        <v>undefined</v>
+      </c>
+      <c r="G93" t="str">
+        <f>'Quorum 3.0'!H106</f>
+        <v>Object</v>
+      </c>
+      <c r="H93" t="str">
+        <f>IF('Quorum 3.0'!I106="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="4"/>
+        <v>undefined,Object,Fail</v>
+      </c>
+      <c r="K93" t="str">
+        <f>'Quorum 3.0'!M$105</f>
+        <v>undefined</v>
+      </c>
+      <c r="L93" t="str">
+        <f>'Quorum 3.0'!N106</f>
+        <v>Object</v>
+      </c>
+      <c r="M93" t="str">
+        <f>IF('Quorum 3.0'!O106="x", "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="5"/>
+        <v>undefined,Object,Fail</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
+++ b/Quorum3/Library/Tests/TypeChecker/Type System.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="589">
   <si>
     <t>Type System</t>
   </si>
@@ -1301,12 +1301,6 @@
     <t>Pass\RetAssignBoolObjBoolObjField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignBoolObjBoolean.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignBoolObjBooleanField.quorum</t>
-  </si>
-  <si>
     <t>Fail\RetAssignBoolObjIntObj.quorum</t>
   </si>
   <si>
@@ -1349,12 +1343,6 @@
     <t>Pass\RetAssignBoolObjUndefinedField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignBooleanBoolObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignBooleanBoolObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\RetAssignBooleanBoolean.quorum</t>
   </si>
   <si>
@@ -1415,12 +1403,6 @@
     <t>Pass\RetAssignIntObjIntObjField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignIntObjInteger.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignIntObjIntegerField.quorum</t>
-  </si>
-  <si>
     <t>Fail\RetAssignIntObjText.quorum</t>
   </si>
   <si>
@@ -1451,12 +1433,6 @@
     <t>Fail\RetAssignIntegerBooleanField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignIntegerIntObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignIntegerIntObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\RetAssignIntegerInteger.quorum</t>
   </si>
   <si>
@@ -1487,30 +1463,12 @@
     <t>Fail\RetAssignNumObjBooleanField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignNumObjIntObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignNumObjIntObjField.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignNumObjInteger.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignNumObjIntegerField.quorum</t>
-  </si>
-  <si>
     <t>Pass\RetAssignNumObjNumObj.quorum</t>
   </si>
   <si>
     <t>Pass\RetAssignNumObjNumObjField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignNumObjNumber.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignNumObjNumberField.quorum</t>
-  </si>
-  <si>
     <t>Fail\RetAssignNumObjTextObj.quorum</t>
   </si>
   <si>
@@ -1535,24 +1493,12 @@
     <t>Fail\RetAssignNumberBooleanField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignNumberIntObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignNumberIntObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\RetAssignNumberInteger.quorum</t>
   </si>
   <si>
     <t>Pass\RetAssignNumberIntegerField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignNumberNumObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignNumberNumObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\RetAssignNumberNumber.quorum</t>
   </si>
   <si>
@@ -1607,12 +1553,6 @@
     <t>Pass\RetAssignTextTextField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignTextTextObj.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignTextTextObjField.quorum</t>
-  </si>
-  <si>
     <t>Pass\RetAssignTextUndefined.quorum</t>
   </si>
   <si>
@@ -1655,12 +1595,6 @@
     <t>Fail\RetAssignTextObjNumberField.quorum</t>
   </si>
   <si>
-    <t>Pass\RetAssignTextObjText.quorum</t>
-  </si>
-  <si>
-    <t>Pass\RetAssignTextObjTextField.quorum</t>
-  </si>
-  <si>
     <t>Pass\RetAssignTextObjTextObj.quorum</t>
   </si>
   <si>
@@ -1788,6 +1722,72 @@
   </si>
   <si>
     <t>Fail\ImpAssignTextObjTextField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignTextObjText.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignTextObjTextField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignTextTextObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignTextTextObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumberNumObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumberNumObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumberIntObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumberIntObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumObjNumber.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumObjNumberField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumObjIntObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumObjIntObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumObjInteger.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignNumObjIntegerField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignIntegerIntObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignIntegerIntObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignIntObjInteger.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignIntObjIntegerField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignBooleanBoolObj.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignBooleanBoolObjField.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignBoolObjBoolean.quorum</t>
+  </si>
+  <si>
+    <t>Fail\RetAssignBoolObjBooleanField.quorum</t>
   </si>
 </sst>
 </file>
@@ -2413,9 +2413,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AW114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2483,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="3"/>
       <c r="G4" s="46" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="48"/>
@@ -2491,7 +2491,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="3"/>
       <c r="M4" s="46" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="48"/>
@@ -2541,10 +2541,10 @@
         <v>105</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="G5" s="42" t="str">
         <f>A5</f>
@@ -2845,24 +2845,22 @@
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="27" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="25" t="str">
         <f t="shared" ref="N8:N16" si="1">$B8</f>
         <v>boolean</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O8" s="26"/>
       <c r="P8" s="27" t="s">
-        <v>426</v>
+        <v>587</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>427</v>
+        <v>588</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="19" t="str">
@@ -2933,10 +2931,10 @@
       </c>
       <c r="O9" s="26"/>
       <c r="P9" s="27" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S9" s="15"/>
       <c r="T9" s="25" t="str">
@@ -3003,10 +3001,10 @@
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="25" t="str">
@@ -3075,10 +3073,10 @@
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="S11" s="15"/>
       <c r="T11" s="25" t="str">
@@ -3147,10 +3145,10 @@
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="S12" s="15"/>
       <c r="T12" s="25" t="str">
@@ -3296,10 +3294,10 @@
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S14" s="15"/>
       <c r="T14" s="25" t="str">
@@ -3368,10 +3366,10 @@
       </c>
       <c r="O15" s="26"/>
       <c r="P15" s="27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="25" t="str">
@@ -3444,10 +3442,10 @@
         <v>5</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="S16" s="15"/>
       <c r="T16" s="19" t="str">
@@ -3577,24 +3575,22 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="27" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="25" t="str">
         <f>$B18</f>
         <v>BoolObj</v>
       </c>
-      <c r="O18" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O18" s="26"/>
       <c r="P18" s="27" t="s">
-        <v>442</v>
+        <v>585</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>443</v>
+        <v>586</v>
       </c>
       <c r="S18" s="15"/>
       <c r="T18" s="19" t="str">
@@ -3671,10 +3667,10 @@
         <v>5</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="15"/>
@@ -3752,10 +3748,10 @@
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="27" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="25" t="str">
@@ -3822,10 +3818,10 @@
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="27" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q21" s="28" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="25" t="str">
@@ -3894,10 +3890,10 @@
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="25" t="str">
@@ -3964,10 +3960,10 @@
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="27" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="S23" s="15"/>
       <c r="T23" s="25" t="str">
@@ -4187,10 +4183,10 @@
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="27" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="25" t="str">
@@ -4257,10 +4253,10 @@
       </c>
       <c r="O27" s="29"/>
       <c r="P27" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="25" t="str">
@@ -4400,10 +4396,10 @@
       </c>
       <c r="O29" s="29"/>
       <c r="P29" s="27" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="25" t="str">
@@ -4470,10 +4466,10 @@
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="27" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q30" s="28" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="S30" s="15"/>
       <c r="T30" s="25" t="str">
@@ -4550,10 +4546,10 @@
         <v>5</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="S31" s="15"/>
       <c r="T31" s="19" t="str">
@@ -4612,24 +4608,22 @@
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="27" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" s="25" t="str">
         <f t="shared" si="13"/>
         <v>integer</v>
       </c>
-      <c r="O32" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O32" s="26"/>
       <c r="P32" s="27" t="s">
-        <v>464</v>
+        <v>583</v>
       </c>
       <c r="Q32" s="28" t="s">
-        <v>465</v>
+        <v>584</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="19" t="str">
@@ -4674,10 +4668,10 @@
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="27" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="25" t="str">
@@ -4746,10 +4740,10 @@
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="27" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="25" t="str">
@@ -4919,10 +4913,10 @@
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="27" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="25" t="str">
@@ -4991,10 +4985,10 @@
       </c>
       <c r="O37" s="26"/>
       <c r="P37" s="27" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q37" s="28" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="25" t="str">
@@ -5067,10 +5061,10 @@
         <v>5</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="19" t="str">
@@ -5212,10 +5206,10 @@
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="27" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="15"/>
@@ -5287,10 +5281,10 @@
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="27" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q41" s="28" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="15"/>
@@ -5351,10 +5345,10 @@
       </c>
       <c r="I42" s="26"/>
       <c r="J42" s="27" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="15"/>
@@ -5362,14 +5356,12 @@
         <f t="shared" si="19"/>
         <v>IntObj</v>
       </c>
-      <c r="O42" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O42" s="26"/>
       <c r="P42" s="27" t="s">
-        <v>476</v>
+        <v>581</v>
       </c>
       <c r="Q42" s="28" t="s">
-        <v>477</v>
+        <v>582</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="15"/>
@@ -5447,10 +5439,10 @@
         <v>5</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="Q43" s="24" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="15"/>
@@ -5504,10 +5496,10 @@
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="27" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="15"/>
@@ -5520,7 +5512,7 @@
         <v>369</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="15"/>
@@ -5533,7 +5525,7 @@
         <v>369</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="15"/>
@@ -5844,10 +5836,10 @@
       </c>
       <c r="O48" s="31"/>
       <c r="P48" s="27" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="R48" s="3"/>
       <c r="S48" s="15"/>
@@ -5919,10 +5911,10 @@
       </c>
       <c r="O49" s="29"/>
       <c r="P49" s="27" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="Q49" s="28" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="15"/>
@@ -6063,10 +6055,10 @@
       </c>
       <c r="O51" s="29"/>
       <c r="P51" s="27" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q51" s="28" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="25" t="str">
@@ -6133,10 +6125,10 @@
       </c>
       <c r="O52" s="29"/>
       <c r="P52" s="27" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="Q52" s="28" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="25" t="str">
@@ -6183,10 +6175,10 @@
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="27" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="25" t="str">
@@ -6195,24 +6187,22 @@
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="27" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="25" t="str">
         <f t="shared" si="25"/>
         <v>IntObj</v>
       </c>
-      <c r="O53" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O53" s="26"/>
       <c r="P53" s="27" t="s">
-        <v>488</v>
+        <v>577</v>
       </c>
       <c r="Q53" s="28" t="s">
-        <v>489</v>
+        <v>578</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="19" t="str">
@@ -6255,10 +6245,10 @@
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="27" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="25" t="str">
@@ -6267,24 +6257,22 @@
       </c>
       <c r="I54" s="26"/>
       <c r="J54" s="27" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="25" t="str">
         <f t="shared" si="25"/>
         <v>integer</v>
       </c>
-      <c r="O54" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O54" s="26"/>
       <c r="P54" s="27" t="s">
-        <v>490</v>
+        <v>579</v>
       </c>
       <c r="Q54" s="28" t="s">
-        <v>491</v>
+        <v>580</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="19" t="str">
@@ -6359,10 +6347,10 @@
         <v>5</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="Q55" s="24" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="19" t="str">
@@ -6421,24 +6409,22 @@
       </c>
       <c r="I56" s="26"/>
       <c r="J56" s="27" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="25" t="str">
         <f t="shared" si="25"/>
         <v>number</v>
       </c>
-      <c r="O56" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O56" s="26"/>
       <c r="P56" s="27" t="s">
-        <v>494</v>
+        <v>575</v>
       </c>
       <c r="Q56" s="28" t="s">
-        <v>495</v>
+        <v>576</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="19" t="str">
@@ -6656,10 +6642,10 @@
       </c>
       <c r="O59" s="26"/>
       <c r="P59" s="27" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="Q59" s="28" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="25" t="str">
@@ -6732,10 +6718,10 @@
         <v>5</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="Q60" s="24" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="S60" s="15"/>
       <c r="T60" s="19" t="str">
@@ -6875,10 +6861,10 @@
       </c>
       <c r="O62" s="29"/>
       <c r="P62" s="27" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="Q62" s="28" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="25" t="str">
@@ -6945,10 +6931,10 @@
       </c>
       <c r="O63" s="29"/>
       <c r="P63" s="27" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="Q63" s="28" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="S63" s="15"/>
       <c r="T63" s="25" t="str">
@@ -6995,10 +6981,10 @@
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="27" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="25" t="str">
@@ -7007,24 +6993,22 @@
       </c>
       <c r="I64" s="26"/>
       <c r="J64" s="27" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="K64" s="28" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="25" t="str">
         <f t="shared" si="31"/>
         <v>IntObj</v>
       </c>
-      <c r="O64" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O64" s="26"/>
       <c r="P64" s="27" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="Q64" s="28" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="19" t="str">
@@ -7097,10 +7081,10 @@
         <v>5</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="Q65" s="24" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="19" t="str">
@@ -7177,24 +7161,22 @@
       </c>
       <c r="I66" s="26"/>
       <c r="J66" s="27" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="K66" s="28" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="M66" s="15"/>
       <c r="N66" s="25" t="str">
         <f t="shared" si="31"/>
         <v>NumObj</v>
       </c>
-      <c r="O66" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O66" s="26"/>
       <c r="P66" s="27" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="Q66" s="28" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="19" t="str">
@@ -7269,10 +7251,10 @@
         <v>5</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="Q67" s="24" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="19" t="str">
@@ -7729,10 +7711,10 @@
         <v>5</v>
       </c>
       <c r="P73" s="23" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="Q73" s="24" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="19" t="str">
@@ -7881,10 +7863,10 @@
         <v>5</v>
       </c>
       <c r="P75" s="23" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="Q75" s="24" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="S75" s="15"/>
       <c r="T75" s="19" t="str">
@@ -8031,10 +8013,10 @@
         <v>5</v>
       </c>
       <c r="P77" s="23" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="Q77" s="24" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="S77" s="15"/>
       <c r="T77" s="19" t="str">
@@ -8181,10 +8163,10 @@
         <v>5</v>
       </c>
       <c r="P79" s="23" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="Q79" s="24" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="S79" s="14"/>
       <c r="T79" s="19" t="str">
@@ -8351,10 +8333,10 @@
         <v>5</v>
       </c>
       <c r="P81" s="23" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="Q81" s="24" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="S81" s="15"/>
       <c r="T81" s="19" t="str">
@@ -8429,10 +8411,10 @@
         <v>5</v>
       </c>
       <c r="P82" s="23" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="Q82" s="24" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="S82" s="15"/>
       <c r="T82" s="19" t="str">
@@ -8590,10 +8572,10 @@
       </c>
       <c r="O84" s="29"/>
       <c r="P84" s="27" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="Q84" s="28" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="S84" s="15"/>
       <c r="T84" s="25" t="str">
@@ -9104,10 +9086,10 @@
         <v>5</v>
       </c>
       <c r="P91" s="23" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="Q91" s="24" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="S91" s="15"/>
       <c r="T91" s="19" t="str">
@@ -9184,24 +9166,22 @@
       </c>
       <c r="I92" s="26"/>
       <c r="J92" s="27" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="K92" s="28" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="M92" s="15"/>
       <c r="N92" s="25" t="str">
         <f t="shared" si="43"/>
         <v>TextObj</v>
       </c>
-      <c r="O92" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O92" s="26"/>
       <c r="P92" s="27" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="Q92" s="28" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="S92" s="15"/>
       <c r="T92" s="19" t="str">
@@ -9276,10 +9256,10 @@
         <v>5</v>
       </c>
       <c r="P93" s="23" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="Q93" s="24" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="S93" s="15"/>
       <c r="T93" s="19" t="str">
@@ -9437,10 +9417,10 @@
       </c>
       <c r="O95" s="26"/>
       <c r="P95" s="27" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="Q95" s="28" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="S95" s="15"/>
       <c r="T95" s="25" t="str">
@@ -9507,10 +9487,10 @@
       </c>
       <c r="O96" s="26"/>
       <c r="P96" s="27" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="Q96" s="28" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="S96" s="15"/>
       <c r="T96" s="25" t="str">
@@ -9581,10 +9561,10 @@
       </c>
       <c r="O97" s="26"/>
       <c r="P97" s="27" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="Q97" s="28" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="S97" s="15"/>
       <c r="T97" s="25" t="str">
@@ -9651,10 +9631,10 @@
       </c>
       <c r="O98" s="26"/>
       <c r="P98" s="27" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="Q98" s="28" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="S98" s="15"/>
       <c r="T98" s="25" t="str">
@@ -9723,10 +9703,10 @@
       </c>
       <c r="O99" s="26"/>
       <c r="P99" s="27" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="Q99" s="28" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="S99" s="15"/>
       <c r="T99" s="25" t="str">
@@ -9793,10 +9773,10 @@
       </c>
       <c r="O100" s="26"/>
       <c r="P100" s="27" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="Q100" s="28" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="S100" s="15"/>
       <c r="T100" s="25" t="str">
@@ -9929,24 +9909,22 @@
       </c>
       <c r="I102" s="26"/>
       <c r="J102" s="27" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="K102" s="28" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="M102" s="15"/>
       <c r="N102" s="25" t="str">
         <f t="shared" si="49"/>
         <v>text</v>
       </c>
-      <c r="O102" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="O102" s="26"/>
       <c r="P102" s="27" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="Q102" s="28" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="S102" s="15"/>
       <c r="T102" s="19" t="str">
@@ -10021,10 +9999,10 @@
         <v>5</v>
       </c>
       <c r="P103" s="23" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="Q103" s="24" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="S103" s="15"/>
       <c r="T103" s="19" t="str">
@@ -10099,10 +10077,10 @@
         <v>5</v>
       </c>
       <c r="P104" s="23" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="Q104" s="24" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="S104" s="15"/>
       <c r="T104" s="19" t="str">
@@ -10242,10 +10220,10 @@
       </c>
       <c r="O106" s="33"/>
       <c r="P106" s="34" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="Q106" s="35" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="S106" s="18"/>
       <c r="T106" s="32" t="str">
@@ -10921,7 +10899,7 @@
   <dimension ref="A2:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11100,11 +11078,11 @@
       </c>
       <c r="M4" t="str">
         <f>IF('Quorum 3.0'!O8="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" ref="N4:N67" si="2">K4&amp;","&amp;L4&amp;","&amp;M4</f>
-        <v>BoolObj,boolean,Pass</v>
+        <v>BoolObj,boolean,Fail</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -11550,11 +11528,11 @@
       </c>
       <c r="M13" t="str">
         <f>IF('Quorum 3.0'!O18="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>boolean,BoolObj,Pass</v>
+        <v>boolean,BoolObj,Fail</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -12200,11 +12178,11 @@
       </c>
       <c r="M26" t="str">
         <f>IF('Quorum 3.0'!O32="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="2"/>
-        <v>IntObj,integer,Pass</v>
+        <v>IntObj,integer,Fail</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -12650,11 +12628,11 @@
       </c>
       <c r="M35" t="str">
         <f>IF('Quorum 3.0'!O42="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
-        <v>integer,IntObj,Pass</v>
+        <v>integer,IntObj,Fail</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -13150,11 +13128,11 @@
       </c>
       <c r="M45" t="str">
         <f>IF('Quorum 3.0'!O53="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
-        <v>NumObj,IntObj,Pass</v>
+        <v>NumObj,IntObj,Fail</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -13200,11 +13178,11 @@
       </c>
       <c r="M46" t="str">
         <f>IF('Quorum 3.0'!O54="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
-        <v>NumObj,integer,Pass</v>
+        <v>NumObj,integer,Fail</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -13300,11 +13278,11 @@
       </c>
       <c r="M48" t="str">
         <f>IF('Quorum 3.0'!O56="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="2"/>
-        <v>NumObj,number,Pass</v>
+        <v>NumObj,number,Fail</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -13650,11 +13628,11 @@
       </c>
       <c r="M55" t="str">
         <f>IF('Quorum 3.0'!O64="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="2"/>
-        <v>number,IntObj,Pass</v>
+        <v>number,IntObj,Fail</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -13750,11 +13728,11 @@
       </c>
       <c r="M57" t="str">
         <f>IF('Quorum 3.0'!O66="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N57" t="str">
         <f t="shared" si="2"/>
-        <v>number,NumObj,Pass</v>
+        <v>number,NumObj,Fail</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -14950,11 +14928,11 @@
       </c>
       <c r="M81" t="str">
         <f>IF('Quorum 3.0'!O92="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N81" t="str">
         <f t="shared" si="5"/>
-        <v>text,TextObj,Pass</v>
+        <v>text,TextObj,Fail</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -15400,11 +15378,11 @@
       </c>
       <c r="M90" t="str">
         <f>IF('Quorum 3.0'!O102="x", "Pass", "Fail")</f>
-        <v>Pass</v>
+        <v>Fail</v>
       </c>
       <c r="N90" t="str">
         <f t="shared" si="5"/>
-        <v>TextObj,text,Pass</v>
+        <v>TextObj,text,Fail</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
